--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\Baseball\Player Listing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60090CEF-3816-4F37-A655-BB59C738105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C5F3E-5E4D-4EDD-B52F-BBAFE7D8330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20620" uniqueCount="3338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20632" uniqueCount="3340">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10047,6 +10047,12 @@
   </si>
   <si>
     <t>sa3008762</t>
+  </si>
+  <si>
+    <t>CJ Alexander</t>
+  </si>
+  <si>
+    <t>sa12345</t>
   </si>
 </sst>
 </file>
@@ -10436,11 +10442,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1762"/>
+  <dimension ref="A1:M1763"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B354" sqref="B354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24153,10 +24159,10 @@
         <v>1176</v>
       </c>
       <c r="B353" t="s">
-        <v>1408</v>
+        <v>1428</v>
       </c>
       <c r="C353" t="s">
-        <v>1437</v>
+        <v>1458</v>
       </c>
       <c r="D353" t="s">
         <v>1464</v>
@@ -45743,10 +45749,10 @@
         <v>579</v>
       </c>
       <c r="B914" t="s">
-        <v>1411</v>
+        <v>1419</v>
       </c>
       <c r="C914" t="s">
-        <v>1440</v>
+        <v>1449</v>
       </c>
       <c r="D914" t="s">
         <v>1463</v>
@@ -72624,10 +72630,10 @@
         <v>3111</v>
       </c>
       <c r="B1606" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="C1606" t="s">
-        <v>1450</v>
+        <v>1435</v>
       </c>
       <c r="D1606" t="s">
         <v>1465</v>
@@ -77134,7 +77140,7 @@
         <v>1398</v>
       </c>
       <c r="H1719" t="s">
-        <v>3285</v>
+        <v>3294</v>
       </c>
       <c r="I1719" t="s">
         <v>3285</v>
@@ -78913,6 +78919,44 @@
       </c>
       <c r="M1762" t="s">
         <v>3336</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1763" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B1763" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C1763" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1763" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1763" s="1" t="s">
+        <v>3339</v>
+      </c>
+      <c r="F1763" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G1763" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1763" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I1763" t="s">
+        <v>3338</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>3338</v>
+      </c>
+      <c r="L1763" t="s">
+        <v>3338</v>
+      </c>
+      <c r="M1763" t="s">
+        <v>3338</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\Baseball\Player Listing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4C5F3E-5E4D-4EDD-B52F-BBAFE7D8330B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFCEB95-1403-4288-A88D-2330686BF99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10444,9 +10444,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1763"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B354" sqref="B354"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1483" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1497" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68255,7 +68255,7 @@
         <v>3000</v>
       </c>
       <c r="M1496" t="s">
-        <v>2992</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="1497" spans="1:13" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27820"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFCEB95-1403-4288-A88D-2330686BF99B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7285ED-C20D-4B15-B85B-D56D939173A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20632" uniqueCount="3340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20664" uniqueCount="3342">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10046,13 +10046,19 @@
     <t>Angel Martinez</t>
   </si>
   <si>
-    <t>sa3008762</t>
-  </si>
-  <si>
     <t>CJ Alexander</t>
   </si>
   <si>
-    <t>sa12345</t>
+    <t>Levi Jordan</t>
+  </si>
+  <si>
+    <t>Armando Alvarez</t>
+  </si>
+  <si>
+    <t>Jhonkensy Noel</t>
+  </si>
+  <si>
+    <t>sa3005579</t>
   </si>
 </sst>
 </file>
@@ -10128,7 +10134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10137,6 +10143,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10442,11 +10449,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1763"/>
+  <dimension ref="A1:M1766"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1483" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1497" sqref="M1:M1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1742" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1767" sqref="K1767"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20628,10 +20635,10 @@
         <v>545</v>
       </c>
       <c r="B262" t="s">
-        <v>1423</v>
+        <v>3220</v>
       </c>
       <c r="C262" t="s">
-        <v>1453</v>
+        <v>1443</v>
       </c>
       <c r="D262" t="s">
         <v>1463</v>
@@ -72867,10 +72874,10 @@
         <v>3117</v>
       </c>
       <c r="B1612" t="s">
-        <v>1404</v>
+        <v>1409</v>
       </c>
       <c r="C1612" t="s">
-        <v>1433</v>
+        <v>1438</v>
       </c>
       <c r="D1612" t="s">
         <v>1464</v>
@@ -78846,19 +78853,19 @@
       <c r="B1761" t="s">
         <v>1429</v>
       </c>
-      <c r="C1761" t="s">
+      <c r="C1761" s="4" t="s">
         <v>1459</v>
       </c>
-      <c r="D1761" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1761">
+      <c r="D1761" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1761" s="4">
         <v>25967</v>
       </c>
-      <c r="F1761" t="s">
+      <c r="F1761" s="4" t="s">
         <v>3333</v>
       </c>
-      <c r="G1761" t="s">
+      <c r="G1761" s="4" t="s">
         <v>2815</v>
       </c>
       <c r="H1761" t="s">
@@ -78887,20 +78894,20 @@
       <c r="B1762" t="s">
         <v>1405</v>
       </c>
-      <c r="C1762" t="s">
+      <c r="C1762" s="4" t="s">
         <v>1434</v>
       </c>
-      <c r="D1762" t="s">
+      <c r="D1762" s="4" t="s">
         <v>1465</v>
       </c>
-      <c r="E1762" t="s">
-        <v>3337</v>
-      </c>
-      <c r="F1762" t="s">
+      <c r="E1762" s="4">
+        <v>26540</v>
+      </c>
+      <c r="F1762" s="4" t="s">
         <v>3336</v>
       </c>
-      <c r="G1762" t="s">
-        <v>2806</v>
+      <c r="G1762" s="4" t="s">
+        <v>2820</v>
       </c>
       <c r="H1762" t="s">
         <v>3336</v>
@@ -78923,40 +78930,166 @@
     </row>
     <row r="1763" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1763" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1763" t="s">
         <v>1426</v>
       </c>
-      <c r="C1763" t="s">
+      <c r="C1763" s="4" t="s">
         <v>1456</v>
       </c>
-      <c r="D1763" s="1" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1763" s="1" t="s">
+      <c r="D1763" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1763" s="4">
+        <v>20557</v>
+      </c>
+      <c r="F1763" s="4" t="s">
+        <v>3337</v>
+      </c>
+      <c r="G1763" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H1763" t="s">
+        <v>3337</v>
+      </c>
+      <c r="I1763" t="s">
+        <v>3337</v>
+      </c>
+      <c r="J1763" t="s">
+        <v>3337</v>
+      </c>
+      <c r="K1763">
+        <v>680769</v>
+      </c>
+      <c r="L1763" t="s">
+        <v>3337</v>
+      </c>
+      <c r="M1763" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1764" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B1764" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1764" s="4" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D1764" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1764" s="4">
+        <v>25138</v>
+      </c>
+      <c r="F1764" s="4" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G1764" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1764" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I1764" t="s">
+        <v>3338</v>
+      </c>
+      <c r="J1764" t="s">
+        <v>3338</v>
+      </c>
+      <c r="K1764">
+        <v>682119</v>
+      </c>
+      <c r="L1764" t="s">
+        <v>3338</v>
+      </c>
+      <c r="M1764" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1765" t="s">
         <v>3339</v>
       </c>
-      <c r="F1763" t="s">
-        <v>3338</v>
-      </c>
-      <c r="G1763" s="1" t="s">
-        <v>1398</v>
-      </c>
-      <c r="H1763" t="s">
-        <v>3338</v>
-      </c>
-      <c r="I1763" t="s">
-        <v>3338</v>
-      </c>
-      <c r="J1763" t="s">
-        <v>3338</v>
-      </c>
-      <c r="L1763" t="s">
-        <v>3338</v>
-      </c>
-      <c r="M1763" t="s">
-        <v>3338</v>
+      <c r="B1765" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C1765" s="4" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1765" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1765" s="4">
+        <v>19292</v>
+      </c>
+      <c r="F1765" t="s">
+        <v>3339</v>
+      </c>
+      <c r="G1765" s="4" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H1765" t="s">
+        <v>3339</v>
+      </c>
+      <c r="I1765" t="s">
+        <v>3339</v>
+      </c>
+      <c r="J1765" t="s">
+        <v>3339</v>
+      </c>
+      <c r="K1765">
+        <v>669137</v>
+      </c>
+      <c r="L1765" t="s">
+        <v>3339</v>
+      </c>
+      <c r="M1765" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1766" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1766" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C1766" s="4" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D1766" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1766" t="s">
+        <v>3341</v>
+      </c>
+      <c r="F1766" t="s">
+        <v>3340</v>
+      </c>
+      <c r="G1766" s="4" t="s">
+        <v>2814</v>
+      </c>
+      <c r="H1766" t="s">
+        <v>3340</v>
+      </c>
+      <c r="I1766" t="s">
+        <v>3340</v>
+      </c>
+      <c r="J1766" t="s">
+        <v>3340</v>
+      </c>
+      <c r="K1766">
+        <v>678877</v>
+      </c>
+      <c r="L1766" t="s">
+        <v>3340</v>
+      </c>
+      <c r="M1766" t="s">
+        <v>3340</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7285ED-C20D-4B15-B85B-D56D939173A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0DF2ED-E416-4182-B43B-B2A1F471B0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20664" uniqueCount="3342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20674" uniqueCount="3342">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10058,7 +10058,7 @@
     <t>Jhonkensy Noel</t>
   </si>
   <si>
-    <t>sa3005579</t>
+    <t>Noelvi Marte</t>
   </si>
 </sst>
 </file>
@@ -10134,7 +10134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10143,7 +10143,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10449,11 +10448,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1766"/>
+  <dimension ref="A1:M1767"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1767" sqref="K1767"/>
+      <selection pane="bottomLeft" activeCell="K1768" sqref="K1768"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -78853,19 +78852,19 @@
       <c r="B1761" t="s">
         <v>1429</v>
       </c>
-      <c r="C1761" s="4" t="s">
+      <c r="C1761" t="s">
         <v>1459</v>
       </c>
-      <c r="D1761" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1761" s="4">
+      <c r="D1761" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1761">
         <v>25967</v>
       </c>
-      <c r="F1761" s="4" t="s">
+      <c r="F1761" t="s">
         <v>3333</v>
       </c>
-      <c r="G1761" s="4" t="s">
+      <c r="G1761" t="s">
         <v>2815</v>
       </c>
       <c r="H1761" t="s">
@@ -78894,19 +78893,19 @@
       <c r="B1762" t="s">
         <v>1405</v>
       </c>
-      <c r="C1762" s="4" t="s">
+      <c r="C1762" t="s">
         <v>1434</v>
       </c>
-      <c r="D1762" s="4" t="s">
+      <c r="D1762" t="s">
         <v>1465</v>
       </c>
-      <c r="E1762" s="4">
+      <c r="E1762">
         <v>26540</v>
       </c>
-      <c r="F1762" s="4" t="s">
+      <c r="F1762" t="s">
         <v>3336</v>
       </c>
-      <c r="G1762" s="4" t="s">
+      <c r="G1762" t="s">
         <v>2820</v>
       </c>
       <c r="H1762" t="s">
@@ -78935,19 +78934,19 @@
       <c r="B1763" t="s">
         <v>1426</v>
       </c>
-      <c r="C1763" s="4" t="s">
+      <c r="C1763" t="s">
         <v>1456</v>
       </c>
-      <c r="D1763" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1763" s="4">
+      <c r="D1763" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1763">
         <v>20557</v>
       </c>
-      <c r="F1763" s="4" t="s">
+      <c r="F1763" t="s">
         <v>3337</v>
       </c>
-      <c r="G1763" s="4" t="s">
+      <c r="G1763" t="s">
         <v>1400</v>
       </c>
       <c r="H1763" t="s">
@@ -78976,19 +78975,19 @@
       <c r="B1764" t="s">
         <v>1409</v>
       </c>
-      <c r="C1764" s="4" t="s">
+      <c r="C1764" t="s">
         <v>1438</v>
       </c>
-      <c r="D1764" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1764" s="4">
+      <c r="D1764" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1764">
         <v>25138</v>
       </c>
-      <c r="F1764" s="4" t="s">
+      <c r="F1764" t="s">
         <v>3338</v>
       </c>
-      <c r="G1764" s="4" t="s">
+      <c r="G1764" t="s">
         <v>1398</v>
       </c>
       <c r="H1764" t="s">
@@ -79017,19 +79016,19 @@
       <c r="B1765" t="s">
         <v>1411</v>
       </c>
-      <c r="C1765" s="4" t="s">
+      <c r="C1765" t="s">
         <v>1440</v>
       </c>
-      <c r="D1765" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1765" s="4">
+      <c r="D1765" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1765">
         <v>19292</v>
       </c>
       <c r="F1765" t="s">
         <v>3339</v>
       </c>
-      <c r="G1765" s="4" t="s">
+      <c r="G1765" t="s">
         <v>1400</v>
       </c>
       <c r="H1765" t="s">
@@ -79058,20 +79057,20 @@
       <c r="B1766" t="s">
         <v>1405</v>
       </c>
-      <c r="C1766" s="4" t="s">
+      <c r="C1766" t="s">
         <v>1434</v>
       </c>
-      <c r="D1766" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1766" t="s">
-        <v>3341</v>
+      <c r="D1766" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1766">
+        <v>24257</v>
       </c>
       <c r="F1766" t="s">
         <v>3340</v>
       </c>
-      <c r="G1766" s="4" t="s">
-        <v>2814</v>
+      <c r="G1766" t="s">
+        <v>1403</v>
       </c>
       <c r="H1766" t="s">
         <v>3340</v>
@@ -79090,6 +79089,47 @@
       </c>
       <c r="M1766" t="s">
         <v>3340</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1767" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B1767" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1767">
+        <v>26517</v>
+      </c>
+      <c r="F1767" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G1767" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H1767" t="s">
+        <v>3341</v>
+      </c>
+      <c r="I1767" t="s">
+        <v>3341</v>
+      </c>
+      <c r="J1767" t="s">
+        <v>3341</v>
+      </c>
+      <c r="K1767">
+        <v>682622</v>
+      </c>
+      <c r="L1767" t="s">
+        <v>3341</v>
+      </c>
+      <c r="M1767" t="s">
+        <v>3341</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C0DF2ED-E416-4182-B43B-B2A1F471B0BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA379D0-11DA-4686-8A39-39724ADDB66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -10450,9 +10450,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1767"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1768" sqref="K1768"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L376" sqref="L376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25090,7 +25090,7 @@
         <v>32</v>
       </c>
       <c r="J376" t="s">
-        <v>32</v>
+        <v>3143</v>
       </c>
       <c r="K376">
         <v>666969</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA379D0-11DA-4686-8A39-39724ADDB66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B9E37-F68C-416B-A0BD-F43B0347C3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20674" uniqueCount="3342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20707" uniqueCount="3345">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10059,6 +10059,15 @@
   </si>
   <si>
     <t>Noelvi Marte</t>
+  </si>
+  <si>
+    <t>Aaron Schunk</t>
+  </si>
+  <si>
+    <t>James Wood</t>
+  </si>
+  <si>
+    <t>Jonathan Ornelas</t>
   </si>
 </sst>
 </file>
@@ -10448,11 +10457,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1767"/>
+  <dimension ref="A1:M1770"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A363" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L376" sqref="L376"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1746" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1770" sqref="E1770"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18397,10 +18406,10 @@
         <v>133</v>
       </c>
       <c r="B204" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="C204" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="D204" t="s">
         <v>1464</v>
@@ -39000,10 +39009,10 @@
         <v>467</v>
       </c>
       <c r="B738" t="s">
-        <v>1430</v>
+        <v>1425</v>
       </c>
       <c r="C738" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="D738" t="s">
         <v>1463</v>
@@ -79130,6 +79139,123 @@
       </c>
       <c r="M1767" t="s">
         <v>3341</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1768" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1768" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1768">
+        <v>25524</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>3342</v>
+      </c>
+      <c r="G1768" t="s">
+        <v>2830</v>
+      </c>
+      <c r="H1768" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I1768" t="s">
+        <v>3342</v>
+      </c>
+      <c r="J1768" t="s">
+        <v>3342</v>
+      </c>
+      <c r="L1768" t="s">
+        <v>3342</v>
+      </c>
+      <c r="M1768" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1769" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B1769" t="s">
+        <v>3220</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1769">
+        <v>29518</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>3343</v>
+      </c>
+      <c r="G1769" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1769" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I1769" t="s">
+        <v>3343</v>
+      </c>
+      <c r="J1769" t="s">
+        <v>3343</v>
+      </c>
+      <c r="L1769" t="s">
+        <v>3343</v>
+      </c>
+      <c r="M1769" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1770" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1770" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1770">
+        <v>24597</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G1770" t="s">
+        <v>2815</v>
+      </c>
+      <c r="H1770" t="s">
+        <v>3344</v>
+      </c>
+      <c r="I1770" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J1770" t="s">
+        <v>3344</v>
+      </c>
+      <c r="K1770">
+        <v>680716</v>
+      </c>
+      <c r="L1770" t="s">
+        <v>3344</v>
+      </c>
+      <c r="M1770" t="s">
+        <v>3344</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710B9E37-F68C-416B-A0BD-F43B0347C3B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C8714-A46E-4533-BAB5-47259A5EEA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10459,9 +10459,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1770"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1746" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1770" sqref="E1770"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K748" sqref="K748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24400,7 +24400,7 @@
         <v>3126</v>
       </c>
       <c r="M358" t="s">
-        <v>844</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.3">
@@ -39357,10 +39357,10 @@
         <v>128</v>
       </c>
       <c r="B747" t="s">
-        <v>1428</v>
+        <v>1409</v>
       </c>
       <c r="C747" t="s">
-        <v>1458</v>
+        <v>1438</v>
       </c>
       <c r="D747" t="s">
         <v>1463</v>
@@ -39382,6 +39382,9 @@
       </c>
       <c r="J747" t="s">
         <v>128</v>
+      </c>
+      <c r="K747">
+        <v>642851</v>
       </c>
       <c r="L747" t="s">
         <v>128</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E18C8714-A46E-4533-BAB5-47259A5EEA7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C224B21A-5648-4F62-8E27-CC9DF1477B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20707" uniqueCount="3345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20719" uniqueCount="3347">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10068,6 +10068,12 @@
   </si>
   <si>
     <t>Jonathan Ornelas</t>
+  </si>
+  <si>
+    <t>Brooks Lee</t>
+  </si>
+  <si>
+    <t>sa3019973</t>
   </si>
 </sst>
 </file>
@@ -10457,11 +10463,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1770"/>
+  <dimension ref="A1:M1771"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A734" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K748" sqref="K748"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1747" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1771" sqref="G1771"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -79261,6 +79267,44 @@
         <v>3344</v>
       </c>
     </row>
+    <row r="1771" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1771" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1771" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>3346</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>3345</v>
+      </c>
+      <c r="G1771" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H1771" t="s">
+        <v>3345</v>
+      </c>
+      <c r="I1771" t="s">
+        <v>3345</v>
+      </c>
+      <c r="J1771" t="s">
+        <v>3345</v>
+      </c>
+      <c r="L1771" t="s">
+        <v>3345</v>
+      </c>
+      <c r="M1771" t="s">
+        <v>3345</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1395">
     <sortCondition ref="A2:A1395"/>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C224B21A-5648-4F62-8E27-CC9DF1477B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9377C989-3039-44A2-9DEC-ACA3406086E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20719" uniqueCount="3347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20730" uniqueCount="3348">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10073,7 +10073,10 @@
     <t>Brooks Lee</t>
   </si>
   <si>
-    <t>sa3019973</t>
+    <t>Leo Jimenez</t>
+  </si>
+  <si>
+    <t>sa3006891</t>
   </si>
 </sst>
 </file>
@@ -10463,11 +10466,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1771"/>
+  <dimension ref="A1:M1772"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1747" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1771" sqref="G1771"/>
+      <pane ySplit="1" topLeftCell="A1748" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1772" sqref="E1772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -79280,14 +79283,14 @@
       <c r="D1771" t="s">
         <v>1465</v>
       </c>
-      <c r="E1771" t="s">
-        <v>3346</v>
+      <c r="E1771">
+        <v>31595</v>
       </c>
       <c r="F1771" t="s">
         <v>3345</v>
       </c>
       <c r="G1771" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="H1771" t="s">
         <v>3345</v>
@@ -79303,6 +79306,44 @@
       </c>
       <c r="M1771" t="s">
         <v>3345</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1772" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B1772" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>3347</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>3346</v>
+      </c>
+      <c r="G1772" t="s">
+        <v>2806</v>
+      </c>
+      <c r="H1772" t="s">
+        <v>3346</v>
+      </c>
+      <c r="I1772" t="s">
+        <v>3346</v>
+      </c>
+      <c r="J1772" t="s">
+        <v>3346</v>
+      </c>
+      <c r="L1772" t="s">
+        <v>3346</v>
+      </c>
+      <c r="M1772" t="s">
+        <v>3346</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9377C989-3039-44A2-9DEC-ACA3406086E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C0D5F8-FF83-44A5-B69A-6EF8627F791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20730" uniqueCount="3348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20729" uniqueCount="3347">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10074,9 +10074,6 @@
   </si>
   <si>
     <t>Leo Jimenez</t>
-  </si>
-  <si>
-    <t>sa3006891</t>
   </si>
 </sst>
 </file>
@@ -10469,8 +10466,8 @@
   <dimension ref="A1:M1772"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1748" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1772" sqref="E1772"/>
+      <pane ySplit="1" topLeftCell="A1763" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1773" sqref="E1773"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -57508,10 +57505,10 @@
         <v>808</v>
       </c>
       <c r="B1217" t="s">
-        <v>1425</v>
+        <v>1404</v>
       </c>
       <c r="C1217" t="s">
-        <v>1455</v>
+        <v>1433</v>
       </c>
       <c r="D1217" t="s">
         <v>1463</v>
@@ -70580,7 +70577,7 @@
         <v>3057</v>
       </c>
       <c r="M1553" t="s">
-        <v>3053</v>
+        <v>3057</v>
       </c>
     </row>
     <row r="1554" spans="1:13" x14ac:dyDescent="0.3">
@@ -72183,10 +72180,10 @@
         <v>3099</v>
       </c>
       <c r="B1594" t="s">
-        <v>1427</v>
+        <v>3220</v>
       </c>
       <c r="C1594" t="s">
-        <v>1457</v>
+        <v>1443</v>
       </c>
       <c r="D1594" t="s">
         <v>1463</v>
@@ -79321,14 +79318,14 @@
       <c r="D1772" t="s">
         <v>1463</v>
       </c>
-      <c r="E1772" t="s">
-        <v>3347</v>
+      <c r="E1772">
+        <v>23782</v>
       </c>
       <c r="F1772" t="s">
         <v>3346</v>
       </c>
       <c r="G1772" t="s">
-        <v>2806</v>
+        <v>1399</v>
       </c>
       <c r="H1772" t="s">
         <v>3346</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C0D5F8-FF83-44A5-B69A-6EF8627F791A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455000D6-B7D0-428C-B1F4-0DC3DB33F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20729" uniqueCount="3347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20740" uniqueCount="3348">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10074,6 +10074,9 @@
   </si>
   <si>
     <t>Leo Jimenez</t>
+  </si>
+  <si>
+    <t>Vinny Capra</t>
   </si>
 </sst>
 </file>
@@ -10463,11 +10466,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1772"/>
+  <dimension ref="A1:M1773"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1773" sqref="E1773"/>
+      <selection pane="bottomLeft" activeCell="E1774" sqref="E1774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -79343,6 +79346,44 @@
         <v>3346</v>
       </c>
     </row>
+    <row r="1773" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1773" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1773" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1773">
+        <v>25040</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>3347</v>
+      </c>
+      <c r="G1773" t="s">
+        <v>2810</v>
+      </c>
+      <c r="H1773" t="s">
+        <v>3347</v>
+      </c>
+      <c r="I1773" t="s">
+        <v>3347</v>
+      </c>
+      <c r="J1773" t="s">
+        <v>3347</v>
+      </c>
+      <c r="L1773" t="s">
+        <v>3347</v>
+      </c>
+      <c r="M1773" t="s">
+        <v>3347</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1395">
     <sortCondition ref="A2:A1395"/>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455000D6-B7D0-428C-B1F4-0DC3DB33F157}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE152378-3212-4027-A925-A0E653C8C7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20740" uniqueCount="3348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20740" uniqueCount="3349">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10077,6 +10077,9 @@
   </si>
   <si>
     <t>Vinny Capra</t>
+  </si>
+  <si>
+    <t>Edwin Ríos</t>
   </si>
 </sst>
 </file>
@@ -10468,9 +10471,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1773"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1763" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1774" sqref="E1774"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1331" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1344" sqref="M1344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -62391,10 +62394,10 @@
         <v>446</v>
       </c>
       <c r="B1344" t="s">
-        <v>1417</v>
+        <v>1409</v>
       </c>
       <c r="C1344" t="s">
-        <v>1447</v>
+        <v>1438</v>
       </c>
       <c r="D1344" t="s">
         <v>1464</v>
@@ -62415,10 +62418,13 @@
         <v>446</v>
       </c>
       <c r="J1344" t="s">
-        <v>446</v>
+        <v>3348</v>
+      </c>
+      <c r="K1344">
+        <v>621458</v>
       </c>
       <c r="L1344" t="s">
-        <v>446</v>
+        <v>3348</v>
       </c>
       <c r="M1344" t="s">
         <v>446</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE152378-3212-4027-A925-A0E653C8C7C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47A2CC-7CFF-4063-8AAF-C265F85FC266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10471,9 +10471,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1773"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1331" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1344" sqref="M1344"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B204" sqref="B204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18377,10 +18377,10 @@
         <v>439</v>
       </c>
       <c r="B203" t="s">
-        <v>3220</v>
+        <v>1408</v>
       </c>
       <c r="C203" t="s">
-        <v>1443</v>
+        <v>1437</v>
       </c>
       <c r="D203" t="s">
         <v>1464</v>
@@ -22547,10 +22547,10 @@
         <v>127</v>
       </c>
       <c r="B311" t="s">
-        <v>1420</v>
+        <v>1409</v>
       </c>
       <c r="C311" t="s">
-        <v>1450</v>
+        <v>1438</v>
       </c>
       <c r="D311" t="s">
         <v>1463</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED47A2CC-7CFF-4063-8AAF-C265F85FC266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D30387-F328-4BE1-B3F4-7B02AAB8E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20740" uniqueCount="3349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20750" uniqueCount="3349">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9932,9 +9932,6 @@
     <t>Jhonny Pereda</t>
   </si>
   <si>
-    <t>sa735866</t>
-  </si>
-  <si>
     <t>Max Schuemann</t>
   </si>
   <si>
@@ -10080,6 +10077,9 @@
   </si>
   <si>
     <t>Edwin Ríos</t>
+  </si>
+  <si>
+    <t>Rece Hinds</t>
   </si>
 </sst>
 </file>
@@ -10469,11 +10469,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1773"/>
+  <dimension ref="A1:M1774"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B204" sqref="B204"/>
+      <pane ySplit="1" topLeftCell="A1750" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1755" sqref="E1755"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10530,7 +10530,7 @@
         <v>3120</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>3334</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -62418,13 +62418,13 @@
         <v>446</v>
       </c>
       <c r="J1344" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="K1344">
         <v>621458</v>
       </c>
       <c r="L1344" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="M1344" t="s">
         <v>446</v>
@@ -69283,7 +69283,7 @@
         <v>3021</v>
       </c>
       <c r="M1521" t="s">
-        <v>3335</v>
+        <v>3334</v>
       </c>
     </row>
     <row r="1522" spans="1:13" x14ac:dyDescent="0.3">
@@ -77532,8 +77532,8 @@
       <c r="D1728" t="s">
         <v>1463</v>
       </c>
-      <c r="E1728" t="s">
-        <v>3299</v>
+      <c r="E1728">
+        <v>19802</v>
       </c>
       <c r="F1728" t="s">
         <v>3298</v>
@@ -77562,7 +77562,7 @@
     </row>
     <row r="1729" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1729" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="B1729" t="s">
         <v>1411</v>
@@ -77577,33 +77577,33 @@
         <v>24488</v>
       </c>
       <c r="F1729" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="G1729" t="s">
         <v>2811</v>
       </c>
       <c r="H1729" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="I1729" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="J1729" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="K1729">
         <v>680474</v>
       </c>
       <c r="L1729" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="M1729" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
     </row>
     <row r="1730" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1730" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="B1730" t="s">
         <v>1424</v>
@@ -77618,33 +77618,33 @@
         <v>21730</v>
       </c>
       <c r="F1730" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="G1730" t="s">
         <v>2830</v>
       </c>
       <c r="H1730" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="I1730" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="J1730" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="K1730">
         <v>665856</v>
       </c>
       <c r="L1730" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
       <c r="M1730" t="s">
-        <v>3301</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="1731" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1731" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="B1731" t="s">
         <v>1428</v>
@@ -77659,33 +77659,33 @@
         <v>21270</v>
       </c>
       <c r="F1731" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="G1731" t="s">
         <v>1398</v>
       </c>
       <c r="H1731" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="I1731" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="J1731" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="K1731">
         <v>656248</v>
       </c>
       <c r="L1731" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
       <c r="M1731" t="s">
-        <v>3302</v>
+        <v>3301</v>
       </c>
     </row>
     <row r="1732" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1732" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="B1732" t="s">
         <v>1430</v>
@@ -77700,33 +77700,33 @@
         <v>22505</v>
       </c>
       <c r="F1732" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="G1732" t="s">
         <v>1401</v>
       </c>
       <c r="H1732" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="I1732" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="J1732" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="K1732">
         <v>671083</v>
       </c>
       <c r="L1732" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
       <c r="M1732" t="s">
-        <v>3303</v>
+        <v>3302</v>
       </c>
     </row>
     <row r="1733" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1733" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="B1733" t="s">
         <v>1414</v>
@@ -77741,33 +77741,33 @@
         <v>31166</v>
       </c>
       <c r="F1733" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="G1733" t="s">
         <v>2823</v>
       </c>
       <c r="H1733" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="I1733" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="J1733" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="K1733">
         <v>677008</v>
       </c>
       <c r="L1733" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
       <c r="M1733" t="s">
-        <v>3304</v>
+        <v>3303</v>
       </c>
     </row>
     <row r="1734" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1734" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="B1734" t="s">
         <v>1429</v>
@@ -77782,33 +77782,33 @@
         <v>24598</v>
       </c>
       <c r="F1734" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="G1734" t="s">
         <v>1398</v>
       </c>
       <c r="H1734" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="I1734" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="J1734" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="K1734">
         <v>680718</v>
       </c>
       <c r="L1734" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
       <c r="M1734" t="s">
-        <v>3305</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="1735" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1735" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="B1735" t="s">
         <v>1417</v>
@@ -77823,33 +77823,33 @@
         <v>27769</v>
       </c>
       <c r="F1735" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="G1735" t="s">
         <v>1398</v>
       </c>
       <c r="H1735" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="I1735" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="J1735" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="K1735">
         <v>691718</v>
       </c>
       <c r="L1735" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
       <c r="M1735" t="s">
-        <v>3306</v>
+        <v>3305</v>
       </c>
     </row>
     <row r="1736" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1736" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="B1736" t="s">
         <v>1428</v>
@@ -77864,33 +77864,33 @@
         <v>29715</v>
       </c>
       <c r="F1736" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="G1736" t="s">
         <v>2814</v>
       </c>
       <c r="H1736" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="I1736" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="J1736" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="K1736">
         <v>696100</v>
       </c>
       <c r="L1736" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="M1736" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
     </row>
     <row r="1737" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1737" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="B1737" t="s">
         <v>1425</v>
@@ -77905,33 +77905,33 @@
         <v>29949</v>
       </c>
       <c r="F1737" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="G1737" t="s">
         <v>1402</v>
       </c>
       <c r="H1737" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="I1737" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="J1737" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="K1737">
         <v>672012</v>
       </c>
       <c r="L1737" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="M1737" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="1738" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1738" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="B1738" t="s">
         <v>1432</v>
@@ -77946,33 +77946,33 @@
         <v>21009</v>
       </c>
       <c r="F1738" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="G1738" t="s">
         <v>1399</v>
       </c>
       <c r="H1738" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="I1738" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="J1738" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="K1738">
         <v>660844</v>
       </c>
       <c r="L1738" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="M1738" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
     </row>
     <row r="1739" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1739" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="B1739" t="s">
         <v>1428</v>
@@ -77987,33 +77987,33 @@
         <v>31431</v>
       </c>
       <c r="F1739" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="G1739" t="s">
         <v>1398</v>
       </c>
       <c r="H1739" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="I1739" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="J1739" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="K1739">
         <v>687597</v>
       </c>
       <c r="L1739" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
       <c r="M1739" t="s">
-        <v>3310</v>
+        <v>3309</v>
       </c>
     </row>
     <row r="1740" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1740" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="B1740" t="s">
         <v>1411</v>
@@ -78028,33 +78028,33 @@
         <v>29788</v>
       </c>
       <c r="F1740" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="G1740" t="s">
         <v>1400</v>
       </c>
       <c r="H1740" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="I1740" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="J1740" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="K1740">
         <v>695391</v>
       </c>
       <c r="L1740" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="M1740" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="1741" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1741" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="B1741" t="s">
         <v>1415</v>
@@ -78069,33 +78069,33 @@
         <v>25621</v>
       </c>
       <c r="F1741" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="G1741" t="s">
         <v>1400</v>
       </c>
       <c r="H1741" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="I1741" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="J1741" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="K1741">
         <v>682868</v>
       </c>
       <c r="L1741" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
       <c r="M1741" t="s">
-        <v>3312</v>
+        <v>3311</v>
       </c>
     </row>
     <row r="1742" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1742" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="B1742" t="s">
         <v>1405</v>
@@ -78110,33 +78110,33 @@
         <v>29794</v>
       </c>
       <c r="F1742" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="G1742" t="s">
         <v>1403</v>
       </c>
       <c r="H1742" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="I1742" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="J1742" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="K1742">
         <v>700932</v>
       </c>
       <c r="L1742" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
       <c r="M1742" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="1743" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1743" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="B1743" t="s">
         <v>1420</v>
@@ -78151,33 +78151,33 @@
         <v>17837</v>
       </c>
       <c r="F1743" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="G1743" t="s">
         <v>1397</v>
       </c>
       <c r="H1743" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="I1743" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="J1743" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="K1743">
         <v>656883</v>
       </c>
       <c r="L1743" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="M1743" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
     </row>
     <row r="1744" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1744" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="B1744" t="s">
         <v>1430</v>
@@ -78192,33 +78192,33 @@
         <v>22165</v>
       </c>
       <c r="F1744" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="G1744" t="s">
         <v>1398</v>
       </c>
       <c r="H1744" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="I1744" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="J1744" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="K1744">
         <v>668723</v>
       </c>
       <c r="L1744" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="M1744" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="1745" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1745" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="B1745" t="s">
         <v>1404</v>
@@ -78233,33 +78233,33 @@
         <v>26420</v>
       </c>
       <c r="F1745" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="G1745" t="s">
         <v>1399</v>
       </c>
       <c r="H1745" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="I1745" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="J1745" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="K1745">
         <v>677347</v>
       </c>
       <c r="L1745" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
       <c r="M1745" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="1746" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1746" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="B1746" t="s">
         <v>1427</v>
@@ -78274,33 +78274,33 @@
         <v>25782</v>
       </c>
       <c r="F1746" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="G1746" t="s">
         <v>1397</v>
       </c>
       <c r="H1746" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="I1746" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="J1746" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="K1746">
         <v>686780</v>
       </c>
       <c r="L1746" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="M1746" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="1747" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1747" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="B1747" t="s">
         <v>1405</v>
@@ -78315,33 +78315,33 @@
         <v>22530</v>
       </c>
       <c r="F1747" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="G1747" t="s">
         <v>1398</v>
       </c>
       <c r="H1747" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="I1747" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="J1747" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="K1747">
         <v>671286</v>
       </c>
       <c r="L1747" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
       <c r="M1747" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="1748" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1748" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="B1748" t="s">
         <v>1420</v>
@@ -78356,33 +78356,33 @@
         <v>19384</v>
       </c>
       <c r="F1748" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="G1748" t="s">
         <v>2814</v>
       </c>
       <c r="H1748" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="I1748" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="J1748" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="K1748">
         <v>670092</v>
       </c>
       <c r="L1748" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="M1748" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
     </row>
     <row r="1749" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1749" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="B1749" t="s">
         <v>1412</v>
@@ -78397,33 +78397,33 @@
         <v>22045</v>
       </c>
       <c r="F1749" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="G1749" t="s">
         <v>1397</v>
       </c>
       <c r="H1749" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="I1749" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="J1749" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="K1749">
         <v>667428</v>
       </c>
       <c r="L1749" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
       <c r="M1749" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="1750" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1750" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="B1750" t="s">
         <v>1414</v>
@@ -78438,33 +78438,33 @@
         <v>29592</v>
       </c>
       <c r="F1750" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="G1750" t="s">
         <v>1401</v>
       </c>
       <c r="H1750" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="I1750" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="J1750" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="K1750">
         <v>681393</v>
       </c>
       <c r="L1750" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="M1750" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="1751" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1751" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="B1751" t="s">
         <v>1430</v>
@@ -78479,33 +78479,33 @@
         <v>29606</v>
       </c>
       <c r="F1751" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="G1751" t="s">
         <v>2811</v>
       </c>
       <c r="H1751" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="I1751" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="J1751" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="K1751">
         <v>669234</v>
       </c>
       <c r="L1751" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
       <c r="M1751" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="1752" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1752" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="B1752" t="s">
         <v>1431</v>
@@ -78520,33 +78520,33 @@
         <v>15504</v>
       </c>
       <c r="F1752" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="G1752" t="s">
         <v>1398</v>
       </c>
       <c r="H1752" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="I1752" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="J1752" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="K1752">
         <v>642197</v>
       </c>
       <c r="L1752" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="M1752" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1753" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1753" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="B1753" t="s">
         <v>1409</v>
@@ -78561,33 +78561,33 @@
         <v>29487</v>
       </c>
       <c r="F1753" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="G1753" t="s">
         <v>1398</v>
       </c>
       <c r="H1753" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="I1753" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="J1753" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="K1753">
         <v>694362</v>
       </c>
       <c r="L1753" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="M1753" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1754" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1754" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="B1754" t="s">
         <v>1415</v>
@@ -78602,33 +78602,33 @@
         <v>27471</v>
       </c>
       <c r="F1754" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="G1754" t="s">
         <v>1398</v>
       </c>
       <c r="H1754" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="I1754" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="J1754" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="K1754">
         <v>676113</v>
       </c>
       <c r="L1754" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="M1754" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="1755" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1755" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="B1755" t="s">
         <v>1415</v>
@@ -78643,33 +78643,33 @@
         <v>27543</v>
       </c>
       <c r="F1755" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="G1755" t="s">
         <v>1402</v>
       </c>
       <c r="H1755" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="I1755" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="J1755" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="K1755">
         <v>668752</v>
       </c>
       <c r="L1755" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="M1755" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1756" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1756" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="B1756" t="s">
         <v>1432</v>
@@ -78684,33 +78684,33 @@
         <v>31396</v>
       </c>
       <c r="F1756" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="G1756" t="s">
         <v>1403</v>
       </c>
       <c r="H1756" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="I1756" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="J1756" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="K1756">
         <v>682988</v>
       </c>
       <c r="L1756" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
       <c r="M1756" t="s">
-        <v>3328</v>
+        <v>3327</v>
       </c>
     </row>
     <row r="1757" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1757" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="B1757" t="s">
         <v>1428</v>
@@ -78725,33 +78725,33 @@
         <v>27962</v>
       </c>
       <c r="F1757" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="G1757" t="s">
         <v>2806</v>
       </c>
       <c r="H1757" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="I1757" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="J1757" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="K1757">
         <v>691182</v>
       </c>
       <c r="L1757" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="M1757" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="1758" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1758" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="B1758" t="s">
         <v>1428</v>
@@ -78766,33 +78766,33 @@
         <v>25448</v>
       </c>
       <c r="F1758" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="G1758" t="s">
         <v>1398</v>
       </c>
       <c r="H1758" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="I1758" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="J1758" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="K1758">
         <v>675659</v>
       </c>
       <c r="L1758" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="M1758" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="1759" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1759" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="B1759" t="s">
         <v>1430</v>
@@ -78807,33 +78807,33 @@
         <v>25867</v>
       </c>
       <c r="F1759" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="G1759" t="s">
         <v>2815</v>
       </c>
       <c r="H1759" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="I1759" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="J1759" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="K1759">
         <v>668952</v>
       </c>
       <c r="L1759" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="M1759" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
     </row>
     <row r="1760" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1760" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="B1760" t="s">
         <v>1419</v>
@@ -78848,33 +78848,33 @@
         <v>29576</v>
       </c>
       <c r="F1760" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="G1760" t="s">
         <v>2818</v>
       </c>
       <c r="H1760" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="I1760" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="J1760" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="K1760">
         <v>700250</v>
       </c>
       <c r="L1760" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="M1760" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="1761" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1761" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="B1761" t="s">
         <v>1429</v>
@@ -78889,33 +78889,33 @@
         <v>25967</v>
       </c>
       <c r="F1761" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="G1761" t="s">
         <v>2815</v>
       </c>
       <c r="H1761" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="I1761" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="J1761" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="K1761">
         <v>682619</v>
       </c>
       <c r="L1761" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
       <c r="M1761" t="s">
-        <v>3333</v>
+        <v>3332</v>
       </c>
     </row>
     <row r="1762" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1762" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="B1762" t="s">
         <v>1405</v>
@@ -78930,33 +78930,33 @@
         <v>26540</v>
       </c>
       <c r="F1762" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="G1762" t="s">
         <v>2820</v>
       </c>
       <c r="H1762" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="I1762" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="J1762" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="K1762">
         <v>682657</v>
       </c>
       <c r="L1762" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
       <c r="M1762" t="s">
-        <v>3336</v>
+        <v>3335</v>
       </c>
     </row>
     <row r="1763" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1763" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="B1763" t="s">
         <v>1426</v>
@@ -78971,33 +78971,33 @@
         <v>20557</v>
       </c>
       <c r="F1763" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="G1763" t="s">
         <v>1400</v>
       </c>
       <c r="H1763" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="I1763" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="J1763" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="K1763">
         <v>680769</v>
       </c>
       <c r="L1763" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
       <c r="M1763" t="s">
-        <v>3337</v>
+        <v>3336</v>
       </c>
     </row>
     <row r="1764" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1764" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1764" t="s">
         <v>1409</v>
@@ -79012,33 +79012,33 @@
         <v>25138</v>
       </c>
       <c r="F1764" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="G1764" t="s">
         <v>1398</v>
       </c>
       <c r="H1764" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="I1764" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="J1764" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="K1764">
         <v>682119</v>
       </c>
       <c r="L1764" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="M1764" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1765" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1765" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B1765" t="s">
         <v>1411</v>
@@ -79053,33 +79053,33 @@
         <v>19292</v>
       </c>
       <c r="F1765" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="G1765" t="s">
         <v>1400</v>
       </c>
       <c r="H1765" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="I1765" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="J1765" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="K1765">
         <v>669137</v>
       </c>
       <c r="L1765" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="M1765" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1766" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1766" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="B1766" t="s">
         <v>1405</v>
@@ -79094,33 +79094,33 @@
         <v>24257</v>
       </c>
       <c r="F1766" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="G1766" t="s">
         <v>1403</v>
       </c>
       <c r="H1766" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="I1766" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="J1766" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="K1766">
         <v>678877</v>
       </c>
       <c r="L1766" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="M1766" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1767" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1767" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="B1767" t="s">
         <v>1409</v>
@@ -79135,33 +79135,33 @@
         <v>26517</v>
       </c>
       <c r="F1767" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="G1767" t="s">
         <v>1400</v>
       </c>
       <c r="H1767" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="I1767" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="J1767" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="K1767">
         <v>682622</v>
       </c>
       <c r="L1767" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="M1767" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1768" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1768" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="B1768" t="s">
         <v>1428</v>
@@ -79176,30 +79176,30 @@
         <v>25524</v>
       </c>
       <c r="F1768" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="G1768" t="s">
         <v>2830</v>
       </c>
       <c r="H1768" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="I1768" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="J1768" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="L1768" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="M1768" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1769" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1769" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B1769" t="s">
         <v>3220</v>
@@ -79214,30 +79214,30 @@
         <v>29518</v>
       </c>
       <c r="F1769" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="G1769" t="s">
         <v>1398</v>
       </c>
       <c r="H1769" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="I1769" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="J1769" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="L1769" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="M1769" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1770" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1770" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B1770" t="s">
         <v>1407</v>
@@ -79252,33 +79252,33 @@
         <v>24597</v>
       </c>
       <c r="F1770" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="G1770" t="s">
         <v>2815</v>
       </c>
       <c r="H1770" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="I1770" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="J1770" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="K1770">
         <v>680716</v>
       </c>
       <c r="L1770" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="M1770" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
     </row>
     <row r="1771" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1771" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="B1771" t="s">
         <v>1424</v>
@@ -79293,30 +79293,30 @@
         <v>31595</v>
       </c>
       <c r="F1771" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="G1771" t="s">
         <v>1400</v>
       </c>
       <c r="H1771" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="I1771" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="J1771" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="L1771" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
       <c r="M1771" t="s">
-        <v>3345</v>
+        <v>3344</v>
       </c>
     </row>
     <row r="1772" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1772" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="B1772" t="s">
         <v>1429</v>
@@ -79331,30 +79331,30 @@
         <v>23782</v>
       </c>
       <c r="F1772" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="G1772" t="s">
         <v>1399</v>
       </c>
       <c r="H1772" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="I1772" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="J1772" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="L1772" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
       <c r="M1772" t="s">
-        <v>3346</v>
+        <v>3345</v>
       </c>
     </row>
     <row r="1773" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1773" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="B1773" t="s">
         <v>1425</v>
@@ -79369,25 +79369,63 @@
         <v>25040</v>
       </c>
       <c r="F1773" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="G1773" t="s">
         <v>2810</v>
       </c>
       <c r="H1773" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="I1773" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="J1773" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="L1773" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="M1773" t="s">
-        <v>3347</v>
+        <v>3346</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1774" t="s">
+        <v>3348</v>
+      </c>
+      <c r="B1774" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1774">
+        <v>27493</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>3348</v>
+      </c>
+      <c r="G1774" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1774" t="s">
+        <v>3348</v>
+      </c>
+      <c r="I1774" t="s">
+        <v>3348</v>
+      </c>
+      <c r="J1774" t="s">
+        <v>3348</v>
+      </c>
+      <c r="L1774" t="s">
+        <v>3348</v>
+      </c>
+      <c r="M1774" t="s">
+        <v>3348</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27820"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D30387-F328-4BE1-B3F4-7B02AAB8E5F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B44A4B6-95F3-461E-BD0D-32E43A3B00A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10471,9 +10471,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1774"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1750" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1755" sqref="E1755"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J140" sqref="J140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11518,7 +11518,7 @@
         <v>1327</v>
       </c>
       <c r="J26" t="s">
-        <v>1327</v>
+        <v>3170</v>
       </c>
       <c r="K26">
         <v>660644</v>
@@ -15960,7 +15960,7 @@
         <v>667</v>
       </c>
       <c r="J140" t="s">
-        <v>667</v>
+        <v>3169</v>
       </c>
       <c r="K140">
         <v>660821</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B44A4B6-95F3-461E-BD0D-32E43A3B00A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F2D57A-3865-4F92-89A9-FF7DA79A19B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4008" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20750" uniqueCount="3349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20773" uniqueCount="3353">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10080,6 +10080,18 @@
   </si>
   <si>
     <t>Rece Hinds</t>
+  </si>
+  <si>
+    <t>Steward Berroa</t>
+  </si>
+  <si>
+    <t>Brooks Baldwin</t>
+  </si>
+  <si>
+    <t>sa3019918</t>
+  </si>
+  <si>
+    <t>Riley Baldwin</t>
   </si>
 </sst>
 </file>
@@ -10469,11 +10481,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1774"/>
+  <dimension ref="A1:M1776"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A127" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J140" sqref="J140"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1764" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1777" sqref="F1777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25169,7 +25181,7 @@
         <v>1026</v>
       </c>
       <c r="B378" t="s">
-        <v>3220</v>
+        <v>1415</v>
       </c>
       <c r="C378" t="s">
         <v>1443</v>
@@ -66971,10 +66983,10 @@
         <v>2955</v>
       </c>
       <c r="B1463" t="s">
-        <v>1422</v>
+        <v>1411</v>
       </c>
       <c r="C1463" t="s">
-        <v>1452</v>
+        <v>1440</v>
       </c>
       <c r="D1463" t="s">
         <v>1463</v>
@@ -68495,10 +68507,10 @@
         <v>2999</v>
       </c>
       <c r="B1502" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
       <c r="C1502" t="s">
-        <v>1441</v>
+        <v>1454</v>
       </c>
       <c r="D1502" t="s">
         <v>1463</v>
@@ -79426,6 +79438,82 @@
       </c>
       <c r="M1774" t="s">
         <v>3348</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1775" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1775" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1775">
+        <v>22766</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>3349</v>
+      </c>
+      <c r="G1775" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1775" t="s">
+        <v>3349</v>
+      </c>
+      <c r="I1775" t="s">
+        <v>3349</v>
+      </c>
+      <c r="J1775" t="s">
+        <v>3349</v>
+      </c>
+      <c r="L1775" t="s">
+        <v>3349</v>
+      </c>
+      <c r="M1775" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1776" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B1776" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>3351</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>3352</v>
+      </c>
+      <c r="G1776" t="s">
+        <v>2815</v>
+      </c>
+      <c r="H1776" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I1776" t="s">
+        <v>3350</v>
+      </c>
+      <c r="J1776" t="s">
+        <v>3350</v>
+      </c>
+      <c r="L1776" t="s">
+        <v>3350</v>
+      </c>
+      <c r="M1776" t="s">
+        <v>3350</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F2D57A-3865-4F92-89A9-FF7DA79A19B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D35F26-A16B-4CE8-9710-3190E7F13D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4008" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20773" uniqueCount="3353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20783" uniqueCount="3353">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10088,10 +10088,10 @@
     <t>Brooks Baldwin</t>
   </si>
   <si>
-    <t>sa3019918</t>
-  </si>
-  <si>
     <t>Riley Baldwin</t>
+  </si>
+  <si>
+    <t>Chuckie Robinson</t>
   </si>
 </sst>
 </file>
@@ -10481,11 +10481,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1776"/>
+  <dimension ref="A1:M1777"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1764" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1777" sqref="F1777"/>
+      <selection pane="bottomLeft" activeCell="E1777" sqref="E1777"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -79491,14 +79491,14 @@
       <c r="D1776" t="s">
         <v>1465</v>
       </c>
-      <c r="E1776" t="s">
+      <c r="E1776">
+        <v>31394</v>
+      </c>
+      <c r="F1776" t="s">
         <v>3351</v>
       </c>
-      <c r="F1776" t="s">
-        <v>3352</v>
-      </c>
       <c r="G1776" t="s">
-        <v>2815</v>
+        <v>1401</v>
       </c>
       <c r="H1776" t="s">
         <v>3350</v>
@@ -79514,6 +79514,44 @@
       </c>
       <c r="M1776" t="s">
         <v>3350</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1777" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B1777" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1777">
+        <v>19824</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>3352</v>
+      </c>
+      <c r="G1777" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1777" t="s">
+        <v>3352</v>
+      </c>
+      <c r="I1777" t="s">
+        <v>3352</v>
+      </c>
+      <c r="J1777" t="s">
+        <v>3352</v>
+      </c>
+      <c r="L1777" t="s">
+        <v>3352</v>
+      </c>
+      <c r="M1777" t="s">
+        <v>3352</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D35F26-A16B-4CE8-9710-3190E7F13D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AC412-A81C-4B82-8E48-14D17104DF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10483,9 +10483,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1777"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1764" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1777" sqref="E1777"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1629" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1642" sqref="O1642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -74112,10 +74112,10 @@
         <v>3193</v>
       </c>
       <c r="B1642" t="s">
-        <v>1422</v>
+        <v>1430</v>
       </c>
       <c r="C1642" t="s">
-        <v>1452</v>
+        <v>1460</v>
       </c>
       <c r="D1642" t="s">
         <v>1464</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30AC412-A81C-4B82-8E48-14D17104DF7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49D0C6-AF18-4751-8DE1-5F831EEA9129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20783" uniqueCount="3353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20795" uniqueCount="3357">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10092,6 +10092,18 @@
   </si>
   <si>
     <t>Chuckie Robinson</t>
+  </si>
+  <si>
+    <t>Nacho Alvarez</t>
+  </si>
+  <si>
+    <t>Ignacio Alvarez</t>
+  </si>
+  <si>
+    <t>sa3019905</t>
+  </si>
+  <si>
+    <t>Diego A. Castillo</t>
   </si>
 </sst>
 </file>
@@ -10481,11 +10493,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1777"/>
+  <dimension ref="A1:M1778"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1629" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1642" sqref="O1642"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1489" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1502" sqref="G1502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68525,7 +68537,7 @@
         <v>1400</v>
       </c>
       <c r="H1502" t="s">
-        <v>2999</v>
+        <v>3356</v>
       </c>
       <c r="I1502" t="s">
         <v>2999</v>
@@ -79552,6 +79564,47 @@
       </c>
       <c r="M1777" t="s">
         <v>3352</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1778" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B1778" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>3355</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>3354</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H1778" t="s">
+        <v>3353</v>
+      </c>
+      <c r="I1778" t="s">
+        <v>3353</v>
+      </c>
+      <c r="J1778" t="s">
+        <v>3353</v>
+      </c>
+      <c r="K1778">
+        <v>805373</v>
+      </c>
+      <c r="L1778" t="s">
+        <v>3353</v>
+      </c>
+      <c r="M1778" t="s">
+        <v>3353</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB49D0C6-AF18-4751-8DE1-5F831EEA9129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C582F08-B567-458C-AF27-EDA7A91F1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20795" uniqueCount="3357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20806" uniqueCount="3358">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10100,10 +10100,13 @@
     <t>Ignacio Alvarez</t>
   </si>
   <si>
-    <t>sa3019905</t>
-  </si>
-  <si>
     <t>Diego A. Castillo</t>
+  </si>
+  <si>
+    <t>Carlos Narvaez</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -10493,11 +10496,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1778"/>
+  <dimension ref="A1:M1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1489" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1502" sqref="G1502"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1755" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1780" sqref="K1780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -49569,10 +49572,10 @@
         <v>2904</v>
       </c>
       <c r="B1011" t="s">
-        <v>1409</v>
+        <v>1432</v>
       </c>
       <c r="C1011" t="s">
-        <v>1438</v>
+        <v>1462</v>
       </c>
       <c r="D1011" t="s">
         <v>1464</v>
@@ -49594,6 +49597,9 @@
       </c>
       <c r="J1011" t="s">
         <v>2904</v>
+      </c>
+      <c r="K1011" t="s">
+        <v>3357</v>
       </c>
       <c r="L1011" t="s">
         <v>2904</v>
@@ -68537,7 +68543,7 @@
         <v>1400</v>
       </c>
       <c r="H1502" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="I1502" t="s">
         <v>2999</v>
@@ -79579,14 +79585,14 @@
       <c r="D1778" t="s">
         <v>1463</v>
       </c>
-      <c r="E1778" t="s">
-        <v>3355</v>
+      <c r="E1778">
+        <v>31765</v>
       </c>
       <c r="F1778" t="s">
         <v>3354</v>
       </c>
       <c r="G1778" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="H1778" t="s">
         <v>3353</v>
@@ -79605,6 +79611,47 @@
       </c>
       <c r="M1778" t="s">
         <v>3353</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1779" t="s">
+        <v>3356</v>
+      </c>
+      <c r="B1779" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1779">
+        <v>19722</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>3356</v>
+      </c>
+      <c r="G1779" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1779" t="s">
+        <v>3356</v>
+      </c>
+      <c r="I1779" t="s">
+        <v>3356</v>
+      </c>
+      <c r="J1779" t="s">
+        <v>3356</v>
+      </c>
+      <c r="K1779">
+        <v>665966</v>
+      </c>
+      <c r="L1779" t="s">
+        <v>3356</v>
+      </c>
+      <c r="M1779" t="s">
+        <v>3356</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C582F08-B567-458C-AF27-EDA7A91F1BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511D3AC6-4790-4C68-A18A-33F1B859D66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10499,8 +10499,8 @@
   <dimension ref="A1:M1779"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1755" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1780" sqref="K1780"/>
+      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M614" sqref="M614"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34228,10 +34228,10 @@
         <v>395</v>
       </c>
       <c r="B614" t="s">
-        <v>1407</v>
+        <v>1420</v>
       </c>
       <c r="C614" t="s">
-        <v>1436</v>
+        <v>1450</v>
       </c>
       <c r="D614" t="s">
         <v>1463</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511D3AC6-4790-4C68-A18A-33F1B859D66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C582E31-36BE-4679-9C29-04CA2F0BCA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10498,9 +10498,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1779"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A601" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M614" sqref="M614"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A364" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B378" sqref="B378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12498,10 +12498,10 @@
         <v>1013</v>
       </c>
       <c r="B51" t="s">
-        <v>1420</v>
+        <v>1410</v>
       </c>
       <c r="C51" t="s">
-        <v>1450</v>
+        <v>1439</v>
       </c>
       <c r="D51" t="s">
         <v>1463</v>
@@ -25155,10 +25155,10 @@
         <v>1094</v>
       </c>
       <c r="B377" t="s">
-        <v>1423</v>
+        <v>1432</v>
       </c>
       <c r="C377" t="s">
-        <v>1453</v>
+        <v>1462</v>
       </c>
       <c r="D377" t="s">
         <v>1463</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E004866-70A8-417B-BE25-93B9858264AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D21ADD-BC67-4368-87DE-AE1AE6BAFF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20760" uniqueCount="3313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20771" uniqueCount="3314">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9972,6 +9972,9 @@
   </si>
   <si>
     <t>Benjamin Rice</t>
+  </si>
+  <si>
+    <t>Leo Rivas</t>
   </si>
 </sst>
 </file>
@@ -10047,7 +10050,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10056,7 +10059,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10362,11 +10364,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1779"/>
+  <dimension ref="A1:M1780"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1386" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1390" sqref="E1390"/>
+      <pane ySplit="1" topLeftCell="A1756" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1780" sqref="A1780"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -25182,10 +25184,10 @@
         <v>119</v>
       </c>
       <c r="B381" t="s">
-        <v>1414</v>
+        <v>1418</v>
       </c>
       <c r="C381" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="D381" t="s">
         <v>1463</v>
@@ -36849,10 +36851,10 @@
         <v>291</v>
       </c>
       <c r="B685" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="C685" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="D685" t="s">
         <v>1463</v>
@@ -51757,10 +51759,10 @@
         <v>641</v>
       </c>
       <c r="B1071" t="s">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="C1071" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="D1071" t="s">
         <v>1464</v>
@@ -51782,6 +51784,9 @@
       </c>
       <c r="J1071" t="s">
         <v>2892</v>
+      </c>
+      <c r="K1071">
+        <v>665862</v>
       </c>
       <c r="L1071" t="s">
         <v>2892</v>
@@ -63064,7 +63069,7 @@
       <c r="D1364" t="s">
         <v>1464</v>
       </c>
-      <c r="E1364" s="4">
+      <c r="E1364">
         <v>13301</v>
       </c>
       <c r="F1364" t="s">
@@ -63105,7 +63110,7 @@
       <c r="D1365" t="s">
         <v>1463</v>
       </c>
-      <c r="E1365" s="4">
+      <c r="E1365">
         <v>17321</v>
       </c>
       <c r="F1365" t="s">
@@ -63146,7 +63151,7 @@
       <c r="D1366" t="s">
         <v>1463</v>
       </c>
-      <c r="E1366" s="4">
+      <c r="E1366">
         <v>2073</v>
       </c>
       <c r="F1366" t="s">
@@ -63184,7 +63189,7 @@
       <c r="D1367" t="s">
         <v>1464</v>
       </c>
-      <c r="E1367" s="4">
+      <c r="E1367">
         <v>4316</v>
       </c>
       <c r="F1367" t="s">
@@ -63222,7 +63227,7 @@
       <c r="D1368" t="s">
         <v>1463</v>
       </c>
-      <c r="E1368" s="4">
+      <c r="E1368">
         <v>4898</v>
       </c>
       <c r="F1368" t="s">
@@ -63260,7 +63265,7 @@
       <c r="D1369" t="s">
         <v>1464</v>
       </c>
-      <c r="E1369" s="4">
+      <c r="E1369">
         <v>10264</v>
       </c>
       <c r="F1369" t="s">
@@ -63301,7 +63306,7 @@
       <c r="D1370" t="s">
         <v>1463</v>
       </c>
-      <c r="E1370" s="4">
+      <c r="E1370">
         <v>10349</v>
       </c>
       <c r="F1370" t="s">
@@ -63380,7 +63385,7 @@
       <c r="D1372" t="s">
         <v>1463</v>
       </c>
-      <c r="E1372" s="4">
+      <c r="E1372">
         <v>11147</v>
       </c>
       <c r="F1372" t="s">
@@ -63418,7 +63423,7 @@
       <c r="D1373" t="s">
         <v>1464</v>
       </c>
-      <c r="E1373" s="4">
+      <c r="E1373">
         <v>11251</v>
       </c>
       <c r="F1373" t="s">
@@ -63456,7 +63461,7 @@
       <c r="D1374" t="s">
         <v>1463</v>
       </c>
-      <c r="E1374" s="4">
+      <c r="E1374">
         <v>11342</v>
       </c>
       <c r="F1374" t="s">
@@ -63494,7 +63499,7 @@
       <c r="D1375" t="s">
         <v>1463</v>
       </c>
-      <c r="E1375" s="4">
+      <c r="E1375">
         <v>1177</v>
       </c>
       <c r="F1375" t="s">
@@ -63532,7 +63537,7 @@
       <c r="D1376" t="s">
         <v>1463</v>
       </c>
-      <c r="E1376" s="4">
+      <c r="E1376">
         <v>11773</v>
       </c>
       <c r="F1376" t="s">
@@ -63570,7 +63575,7 @@
       <c r="D1377" t="s">
         <v>1463</v>
       </c>
-      <c r="E1377" s="4">
+      <c r="E1377">
         <v>11850</v>
       </c>
       <c r="F1377" t="s">
@@ -63608,7 +63613,7 @@
       <c r="D1378" t="s">
         <v>1464</v>
       </c>
-      <c r="E1378" s="4">
+      <c r="E1378">
         <v>12244</v>
       </c>
       <c r="F1378" t="s">
@@ -63646,7 +63651,7 @@
       <c r="D1379" t="s">
         <v>1465</v>
       </c>
-      <c r="E1379" s="4">
+      <c r="E1379">
         <v>1281</v>
       </c>
       <c r="F1379" t="s">
@@ -63684,7 +63689,7 @@
       <c r="D1380" t="s">
         <v>1465</v>
       </c>
-      <c r="E1380" s="4">
+      <c r="E1380">
         <v>13145</v>
       </c>
       <c r="F1380" t="s">
@@ -63725,7 +63730,7 @@
       <c r="D1381" t="s">
         <v>1463</v>
       </c>
-      <c r="E1381" s="4">
+      <c r="E1381">
         <v>13419</v>
       </c>
       <c r="F1381" t="s">
@@ -63766,7 +63771,7 @@
       <c r="D1382" t="s">
         <v>1464</v>
       </c>
-      <c r="E1382" s="4">
+      <c r="E1382">
         <v>14131</v>
       </c>
       <c r="F1382" t="s">
@@ -63804,7 +63809,7 @@
       <c r="D1383" t="s">
         <v>1464</v>
       </c>
-      <c r="E1383" s="4">
+      <c r="E1383">
         <v>14344</v>
       </c>
       <c r="F1383" t="s">
@@ -63845,7 +63850,7 @@
       <c r="D1384" t="s">
         <v>1464</v>
       </c>
-      <c r="E1384" s="4">
+      <c r="E1384">
         <v>14388</v>
       </c>
       <c r="F1384" t="s">
@@ -63883,7 +63888,7 @@
       <c r="D1385" t="s">
         <v>1463</v>
       </c>
-      <c r="E1385" s="4">
+      <c r="E1385">
         <v>14811</v>
       </c>
       <c r="F1385" t="s">
@@ -63921,7 +63926,7 @@
       <c r="D1386" t="s">
         <v>1463</v>
       </c>
-      <c r="E1386" s="4">
+      <c r="E1386">
         <v>15279</v>
       </c>
       <c r="F1386" t="s">
@@ -63962,7 +63967,7 @@
       <c r="D1387" t="s">
         <v>1463</v>
       </c>
-      <c r="E1387" s="4">
+      <c r="E1387">
         <v>15351</v>
       </c>
       <c r="F1387" t="s">
@@ -64000,7 +64005,7 @@
       <c r="D1388" t="s">
         <v>1463</v>
       </c>
-      <c r="E1388" s="4">
+      <c r="E1388">
         <v>15564</v>
       </c>
       <c r="F1388" t="s">
@@ -64038,7 +64043,7 @@
       <c r="D1389" t="s">
         <v>1463</v>
       </c>
-      <c r="E1389" s="4">
+      <c r="E1389">
         <v>15676</v>
       </c>
       <c r="F1389" t="s">
@@ -64079,7 +64084,7 @@
       <c r="D1390" t="s">
         <v>1464</v>
       </c>
-      <c r="E1390" s="4">
+      <c r="E1390">
         <v>16442</v>
       </c>
       <c r="F1390" t="s">
@@ -64120,7 +64125,7 @@
       <c r="D1391" t="s">
         <v>1463</v>
       </c>
-      <c r="E1391" s="4">
+      <c r="E1391">
         <v>16885</v>
       </c>
       <c r="F1391" t="s">
@@ -64158,7 +64163,7 @@
       <c r="D1392" t="s">
         <v>1464</v>
       </c>
-      <c r="E1392" s="4">
+      <c r="E1392">
         <v>1737</v>
       </c>
       <c r="F1392" t="s">
@@ -64196,7 +64201,7 @@
       <c r="D1393" t="s">
         <v>1464</v>
       </c>
-      <c r="E1393" s="4">
+      <c r="E1393">
         <v>18607</v>
       </c>
       <c r="F1393" t="s">
@@ -64237,7 +64242,7 @@
       <c r="D1394" t="s">
         <v>1463</v>
       </c>
-      <c r="E1394" s="4">
+      <c r="E1394">
         <v>18722</v>
       </c>
       <c r="F1394" t="s">
@@ -64275,7 +64280,7 @@
       <c r="D1395" t="s">
         <v>1464</v>
       </c>
-      <c r="E1395" s="4">
+      <c r="E1395">
         <v>1904</v>
       </c>
       <c r="F1395" t="s">
@@ -64313,7 +64318,7 @@
       <c r="D1396" t="s">
         <v>1464</v>
       </c>
-      <c r="E1396" s="4">
+      <c r="E1396">
         <v>1908</v>
       </c>
       <c r="F1396" t="s">
@@ -64351,7 +64356,7 @@
       <c r="D1397" t="s">
         <v>1463</v>
       </c>
-      <c r="E1397" s="4">
+      <c r="E1397">
         <v>19198</v>
       </c>
       <c r="F1397" t="s">
@@ -64392,7 +64397,7 @@
       <c r="D1398" t="s">
         <v>1463</v>
       </c>
-      <c r="E1398" s="4">
+      <c r="E1398">
         <v>19251</v>
       </c>
       <c r="F1398" t="s">
@@ -64433,7 +64438,7 @@
       <c r="D1399" t="s">
         <v>1464</v>
       </c>
-      <c r="E1399" s="4">
+      <c r="E1399">
         <v>19254</v>
       </c>
       <c r="F1399" t="s">
@@ -64471,7 +64476,7 @@
       <c r="D1400" t="s">
         <v>1464</v>
       </c>
-      <c r="E1400" s="4">
+      <c r="E1400">
         <v>1930</v>
       </c>
       <c r="F1400" t="s">
@@ -64509,7 +64514,7 @@
       <c r="D1401" t="s">
         <v>1463</v>
       </c>
-      <c r="E1401" s="4">
+      <c r="E1401">
         <v>19703</v>
       </c>
       <c r="F1401" t="s">
@@ -64547,7 +64552,7 @@
       <c r="D1402" t="s">
         <v>1464</v>
       </c>
-      <c r="E1402" s="4">
+      <c r="E1402">
         <v>2154</v>
       </c>
       <c r="F1402" t="s">
@@ -64585,7 +64590,7 @@
       <c r="D1403" t="s">
         <v>1464</v>
       </c>
-      <c r="E1403" s="4">
+      <c r="E1403">
         <v>2167</v>
       </c>
       <c r="F1403" t="s">
@@ -64623,7 +64628,7 @@
       <c r="D1404" t="s">
         <v>1464</v>
       </c>
-      <c r="E1404" s="4">
+      <c r="E1404">
         <v>2231</v>
       </c>
       <c r="F1404" t="s">
@@ -64661,7 +64666,7 @@
       <c r="D1405" t="s">
         <v>1463</v>
       </c>
-      <c r="E1405" s="4">
+      <c r="E1405">
         <v>2280</v>
       </c>
       <c r="F1405" t="s">
@@ -64699,7 +64704,7 @@
       <c r="D1406" t="s">
         <v>1465</v>
       </c>
-      <c r="E1406" s="4">
+      <c r="E1406">
         <v>2396</v>
       </c>
       <c r="F1406" t="s">
@@ -64740,7 +64745,7 @@
       <c r="D1407" t="s">
         <v>1464</v>
       </c>
-      <c r="E1407" s="4">
+      <c r="E1407">
         <v>2530</v>
       </c>
       <c r="F1407" t="s">
@@ -64778,7 +64783,7 @@
       <c r="D1408" t="s">
         <v>1464</v>
       </c>
-      <c r="E1408" s="4">
+      <c r="E1408">
         <v>3086</v>
       </c>
       <c r="F1408" t="s">
@@ -64816,7 +64821,7 @@
       <c r="D1409" t="s">
         <v>1463</v>
       </c>
-      <c r="E1409" s="4">
+      <c r="E1409">
         <v>3361</v>
       </c>
       <c r="F1409" t="s">
@@ -79518,6 +79523,47 @@
       </c>
       <c r="M1779" t="s">
         <v>3310</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1780" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B1780" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>1462</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1780">
+        <v>21009</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>3313</v>
+      </c>
+      <c r="G1780" t="s">
+        <v>3229</v>
+      </c>
+      <c r="H1780" t="s">
+        <v>3313</v>
+      </c>
+      <c r="I1780" t="s">
+        <v>3313</v>
+      </c>
+      <c r="J1780" t="s">
+        <v>3313</v>
+      </c>
+      <c r="K1780">
+        <v>660844</v>
+      </c>
+      <c r="L1780" t="s">
+        <v>3313</v>
+      </c>
+      <c r="M1780" t="s">
+        <v>3313</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86D21ADD-BC67-4368-87DE-AE1AE6BAFF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E9B7DE-EDAB-4C86-89F4-0CD13D54C0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10367,8 +10367,8 @@
   <dimension ref="A1:M1780"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1756" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1780" sqref="A1780"/>
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19690,10 +19690,10 @@
         <v>662</v>
       </c>
       <c r="B240" t="s">
-        <v>3174</v>
+        <v>1413</v>
       </c>
       <c r="C240" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="D240" t="s">
         <v>1464</v>
@@ -46260,10 +46260,10 @@
         <v>574</v>
       </c>
       <c r="B929" t="s">
-        <v>1423</v>
+        <v>1417</v>
       </c>
       <c r="C929" t="s">
-        <v>1453</v>
+        <v>1447</v>
       </c>
       <c r="D929" t="s">
         <v>1463</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27920"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E9B7DE-EDAB-4C86-89F4-0CD13D54C0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E146FB-C784-46EF-9AC2-E159889EB7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20771" uniqueCount="3314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20782" uniqueCount="3315">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9975,6 +9975,9 @@
   </si>
   <si>
     <t>Leo Rivas</t>
+  </si>
+  <si>
+    <t>Dillon Dingler</t>
   </si>
 </sst>
 </file>
@@ -10364,11 +10367,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1780"/>
+  <dimension ref="A1:M1781"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D240" sqref="D240"/>
+      <pane ySplit="1" topLeftCell="A1156" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1164" sqref="B1164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13232,10 +13235,10 @@
         <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>1411</v>
+        <v>1422</v>
       </c>
       <c r="C73" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
       <c r="D73" t="s">
         <v>1463</v>
@@ -23104,10 +23107,10 @@
         <v>846</v>
       </c>
       <c r="B328" t="s">
-        <v>3174</v>
+        <v>1405</v>
       </c>
       <c r="C328" t="s">
-        <v>1443</v>
+        <v>1434</v>
       </c>
       <c r="D328" t="s">
         <v>1463</v>
@@ -26342,10 +26345,10 @@
         <v>1263</v>
       </c>
       <c r="B411" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
       <c r="C411" t="s">
-        <v>1445</v>
+        <v>1457</v>
       </c>
       <c r="D411" t="s">
         <v>1463</v>
@@ -35267,10 +35270,10 @@
         <v>729</v>
       </c>
       <c r="B644" t="s">
-        <v>1420</v>
+        <v>1408</v>
       </c>
       <c r="C644" t="s">
-        <v>1450</v>
+        <v>1437</v>
       </c>
       <c r="D644" t="s">
         <v>1463</v>
@@ -48519,10 +48522,10 @@
         <v>792</v>
       </c>
       <c r="B987" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="C987" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="D987" t="s">
         <v>1463</v>
@@ -54540,10 +54543,10 @@
         <v>1298</v>
       </c>
       <c r="B1143" t="s">
-        <v>1432</v>
+        <v>1409</v>
       </c>
       <c r="C1143" t="s">
-        <v>1462</v>
+        <v>1438</v>
       </c>
       <c r="D1143" t="s">
         <v>1463</v>
@@ -55306,10 +55309,10 @@
         <v>1272</v>
       </c>
       <c r="B1163" t="s">
-        <v>1424</v>
+        <v>3174</v>
       </c>
       <c r="C1163" t="s">
-        <v>1454</v>
+        <v>1443</v>
       </c>
       <c r="D1163" t="s">
         <v>1464</v>
@@ -63681,10 +63684,10 @@
         <v>749</v>
       </c>
       <c r="B1380" t="s">
-        <v>1416</v>
+        <v>1421</v>
       </c>
       <c r="C1380" t="s">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="D1380" t="s">
         <v>1465</v>
@@ -69555,10 +69558,10 @@
         <v>2985</v>
       </c>
       <c r="B1531" t="s">
-        <v>1410</v>
+        <v>1415</v>
       </c>
       <c r="C1531" t="s">
-        <v>1439</v>
+        <v>1445</v>
       </c>
       <c r="D1531" t="s">
         <v>1463</v>
@@ -72330,10 +72333,10 @@
         <v>3059</v>
       </c>
       <c r="B1600" t="s">
-        <v>1417</v>
+        <v>1423</v>
       </c>
       <c r="C1600" t="s">
-        <v>1447</v>
+        <v>1453</v>
       </c>
       <c r="D1600" t="s">
         <v>1463</v>
@@ -75148,10 +75151,10 @@
         <v>3183</v>
       </c>
       <c r="B1671" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="C1671" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="D1671" t="s">
         <v>1464</v>
@@ -79564,6 +79567,44 @@
       </c>
       <c r="M1780" t="s">
         <v>3313</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1781" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B1781" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1781">
+        <v>27464</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>3314</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1781" t="s">
+        <v>3314</v>
+      </c>
+      <c r="I1781" t="s">
+        <v>3314</v>
+      </c>
+      <c r="J1781" t="s">
+        <v>3314</v>
+      </c>
+      <c r="L1781" t="s">
+        <v>3314</v>
+      </c>
+      <c r="M1781" t="s">
+        <v>3314</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E146FB-C784-46EF-9AC2-E159889EB7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C107DF-A97E-49C2-AC1A-625F675C2909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20782" uniqueCount="3315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20794" uniqueCount="3317">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9978,6 +9978,12 @@
   </si>
   <si>
     <t>Dillon Dingler</t>
+  </si>
+  <si>
+    <t>Pedro Leon</t>
+  </si>
+  <si>
+    <t>sa3014838</t>
   </si>
 </sst>
 </file>
@@ -10367,11 +10373,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1781"/>
+  <dimension ref="A1:M1782"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1164" sqref="B1164"/>
+      <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B761" sqref="B761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13156,10 +13162,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>1423</v>
+        <v>1410</v>
       </c>
       <c r="C71" t="s">
-        <v>1453</v>
+        <v>1439</v>
       </c>
       <c r="D71" t="s">
         <v>1463</v>
@@ -13589,10 +13595,10 @@
         <v>1060</v>
       </c>
       <c r="B82" t="s">
-        <v>1415</v>
+        <v>1426</v>
       </c>
       <c r="C82" t="s">
-        <v>1445</v>
+        <v>1456</v>
       </c>
       <c r="D82" t="s">
         <v>1463</v>
@@ -38609,10 +38615,10 @@
         <v>239</v>
       </c>
       <c r="B730" t="s">
-        <v>1430</v>
+        <v>1407</v>
       </c>
       <c r="C730" t="s">
-        <v>1460</v>
+        <v>1436</v>
       </c>
       <c r="D730" t="s">
         <v>1463</v>
@@ -39770,10 +39776,10 @@
         <v>353</v>
       </c>
       <c r="B760" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="C760" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="D760" t="s">
         <v>1463</v>
@@ -52037,10 +52043,10 @@
         <v>1331</v>
       </c>
       <c r="B1078" t="s">
-        <v>1418</v>
+        <v>1408</v>
       </c>
       <c r="C1078" t="s">
-        <v>1448</v>
+        <v>1437</v>
       </c>
       <c r="D1078" t="s">
         <v>1463</v>
@@ -66951,10 +66957,10 @@
         <v>2912</v>
       </c>
       <c r="B1465" t="s">
-        <v>1416</v>
+        <v>1412</v>
       </c>
       <c r="C1465" t="s">
-        <v>1446</v>
+        <v>1441</v>
       </c>
       <c r="D1465" t="s">
         <v>1463</v>
@@ -71774,10 +71780,10 @@
         <v>3045</v>
       </c>
       <c r="B1586" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C1586" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D1586" t="s">
         <v>1464</v>
@@ -71799,6 +71805,9 @@
       </c>
       <c r="J1586" t="s">
         <v>3045</v>
+      </c>
+      <c r="K1586">
+        <v>669065</v>
       </c>
       <c r="L1586" t="s">
         <v>3045</v>
@@ -79605,6 +79614,47 @@
       </c>
       <c r="M1781" t="s">
         <v>3314</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1782" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B1782" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>3316</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>3315</v>
+      </c>
+      <c r="G1782" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1782" t="s">
+        <v>3315</v>
+      </c>
+      <c r="I1782" t="s">
+        <v>3315</v>
+      </c>
+      <c r="J1782" t="s">
+        <v>3315</v>
+      </c>
+      <c r="K1782">
+        <v>694175</v>
+      </c>
+      <c r="L1782" t="s">
+        <v>3315</v>
+      </c>
+      <c r="M1782" t="s">
+        <v>3315</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C107DF-A97E-49C2-AC1A-625F675C2909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9642835-3E4B-4338-8FE8-A77B5D084778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10376,8 +10376,8 @@
   <dimension ref="A1:M1782"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A747" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B761" sqref="B761"/>
+      <pane ySplit="1" topLeftCell="A1665" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1679" sqref="K1679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -75429,10 +75429,10 @@
         <v>3190</v>
       </c>
       <c r="B1678" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="C1678" t="s">
-        <v>1437</v>
+        <v>1446</v>
       </c>
       <c r="D1678" t="s">
         <v>1464</v>
@@ -75454,6 +75454,9 @@
       </c>
       <c r="J1678" t="s">
         <v>3190</v>
+      </c>
+      <c r="K1678">
+        <v>657088</v>
       </c>
       <c r="L1678" t="s">
         <v>3190</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27920"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9642835-3E4B-4338-8FE8-A77B5D084778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA71B30-5144-4CE3-B402-798D5FA03927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20794" uniqueCount="3317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20848" uniqueCount="3321">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9983,7 +9983,19 @@
     <t>Pedro Leon</t>
   </si>
   <si>
-    <t>sa3014838</t>
+    <t>Nick Sogard</t>
+  </si>
+  <si>
+    <t>Coby Mayo</t>
+  </si>
+  <si>
+    <t>Kameron Misner</t>
+  </si>
+  <si>
+    <t>Jerar Encarnacion</t>
+  </si>
+  <si>
+    <t>Luis De Los Santos</t>
   </si>
 </sst>
 </file>
@@ -10373,11 +10385,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1782"/>
+  <dimension ref="A1:M1787"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1665" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1679" sqref="K1679"/>
+      <pane ySplit="1" topLeftCell="A1543" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1557" sqref="B1557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15923,10 +15935,10 @@
         <v>2806</v>
       </c>
       <c r="B142" t="s">
-        <v>1427</v>
+        <v>1423</v>
       </c>
       <c r="C142" t="s">
-        <v>1457</v>
+        <v>1453</v>
       </c>
       <c r="D142" t="s">
         <v>1465</v>
@@ -22451,10 +22463,10 @@
         <v>127</v>
       </c>
       <c r="B311" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="C311" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
       <c r="D311" t="s">
         <v>1463</v>
@@ -23502,10 +23514,10 @@
         <v>455</v>
       </c>
       <c r="B338" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="C338" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="D338" t="s">
         <v>1463</v>
@@ -34027,10 +34039,10 @@
         <v>331</v>
       </c>
       <c r="B612" t="s">
-        <v>1418</v>
+        <v>1416</v>
       </c>
       <c r="C612" t="s">
-        <v>1448</v>
+        <v>1446</v>
       </c>
       <c r="D612" t="s">
         <v>1463</v>
@@ -36398,10 +36410,10 @@
         <v>576</v>
       </c>
       <c r="B673" t="s">
-        <v>1429</v>
+        <v>1412</v>
       </c>
       <c r="C673" t="s">
-        <v>1459</v>
+        <v>1441</v>
       </c>
       <c r="D673" t="s">
         <v>1463</v>
@@ -70583,10 +70595,10 @@
         <v>3010</v>
       </c>
       <c r="B1556" t="s">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="C1556" t="s">
-        <v>1452</v>
+        <v>1446</v>
       </c>
       <c r="D1556" t="s">
         <v>1463</v>
@@ -79612,6 +79624,9 @@
       <c r="J1781" t="s">
         <v>3314</v>
       </c>
+      <c r="K1781">
+        <v>693307</v>
+      </c>
       <c r="L1781" t="s">
         <v>3314</v>
       </c>
@@ -79632,8 +79647,8 @@
       <c r="D1782" t="s">
         <v>1463</v>
       </c>
-      <c r="E1782" t="s">
-        <v>3316</v>
+      <c r="E1782">
+        <v>27781</v>
       </c>
       <c r="F1782" t="s">
         <v>3315</v>
@@ -79658,6 +79673,211 @@
       </c>
       <c r="M1782" t="s">
         <v>3315</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1783" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B1783" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1783">
+        <v>25483</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>3316</v>
+      </c>
+      <c r="G1783" t="s">
+        <v>2760</v>
+      </c>
+      <c r="H1783" t="s">
+        <v>3316</v>
+      </c>
+      <c r="I1783" t="s">
+        <v>3316</v>
+      </c>
+      <c r="J1783" t="s">
+        <v>3316</v>
+      </c>
+      <c r="K1783">
+        <v>686765</v>
+      </c>
+      <c r="L1783" t="s">
+        <v>3316</v>
+      </c>
+      <c r="M1783" t="s">
+        <v>3316</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1784" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1784">
+        <v>28312</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>3317</v>
+      </c>
+      <c r="G1784" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H1784" t="s">
+        <v>3317</v>
+      </c>
+      <c r="I1784" t="s">
+        <v>3317</v>
+      </c>
+      <c r="J1784" t="s">
+        <v>3317</v>
+      </c>
+      <c r="K1784">
+        <v>691723</v>
+      </c>
+      <c r="L1784" t="s">
+        <v>3317</v>
+      </c>
+      <c r="M1784" t="s">
+        <v>3317</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1785" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B1785" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1785">
+        <v>26374</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>3318</v>
+      </c>
+      <c r="G1785" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1785" t="s">
+        <v>3318</v>
+      </c>
+      <c r="I1785" t="s">
+        <v>3318</v>
+      </c>
+      <c r="J1785" t="s">
+        <v>3318</v>
+      </c>
+      <c r="K1785">
+        <v>670244</v>
+      </c>
+      <c r="L1785" t="s">
+        <v>3318</v>
+      </c>
+      <c r="M1785" t="s">
+        <v>3318</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1786" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B1786" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1786">
+        <v>21871</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>3319</v>
+      </c>
+      <c r="G1786" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1786" t="s">
+        <v>3319</v>
+      </c>
+      <c r="I1786" t="s">
+        <v>3319</v>
+      </c>
+      <c r="J1786" t="s">
+        <v>3319</v>
+      </c>
+      <c r="K1786">
+        <v>666464</v>
+      </c>
+      <c r="L1786" t="s">
+        <v>3319</v>
+      </c>
+      <c r="M1786" t="s">
+        <v>3319</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1787" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B1787" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1787">
+        <v>21682</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>3320</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H1787" t="s">
+        <v>3320</v>
+      </c>
+      <c r="I1787" t="s">
+        <v>3320</v>
+      </c>
+      <c r="J1787" t="s">
+        <v>3320</v>
+      </c>
+      <c r="K1787">
+        <v>665782</v>
+      </c>
+      <c r="L1787" t="s">
+        <v>3320</v>
+      </c>
+      <c r="M1787" t="s">
+        <v>3320</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA71B30-5144-4CE3-B402-798D5FA03927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929CE05A-3D4D-4159-B5A5-BC76CE1FB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10388,8 +10388,8 @@
   <dimension ref="A1:M1787"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1543" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1557" sqref="B1557"/>
+      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17480,10 +17480,10 @@
         <v>898</v>
       </c>
       <c r="B182" t="s">
-        <v>1430</v>
+        <v>1420</v>
       </c>
       <c r="C182" t="s">
-        <v>1460</v>
+        <v>1450</v>
       </c>
       <c r="D182" t="s">
         <v>1463</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{929CE05A-3D4D-4159-B5A5-BC76CE1FB053}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4197B97E-653B-4EAA-B434-E6AF11090667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20848" uniqueCount="3321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20882" uniqueCount="3325">
   <si>
     <t>mlb_name</t>
   </si>
@@ -9996,6 +9996,18 @@
   </si>
   <si>
     <t>Luis De Los Santos</t>
+  </si>
+  <si>
+    <t>Zach Dezenzo</t>
+  </si>
+  <si>
+    <t>Adrian Del Castillo</t>
+  </si>
+  <si>
+    <t>sa3016957</t>
+  </si>
+  <si>
+    <t>Charles Leblanc</t>
   </si>
 </sst>
 </file>
@@ -10385,11 +10397,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1787"/>
+  <dimension ref="A1:M1790"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B183" sqref="B183"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1766" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1790" sqref="Q1790"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16980,10 +16992,10 @@
         <v>814</v>
       </c>
       <c r="B169" t="s">
-        <v>1429</v>
+        <v>1410</v>
       </c>
       <c r="C169" t="s">
-        <v>1459</v>
+        <v>1439</v>
       </c>
       <c r="D169" t="s">
         <v>1464</v>
@@ -34117,10 +34129,10 @@
         <v>395</v>
       </c>
       <c r="B614" t="s">
-        <v>1420</v>
+        <v>1416</v>
       </c>
       <c r="C614" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="D614" t="s">
         <v>1463</v>
@@ -79878,6 +79890,129 @@
       </c>
       <c r="M1787" t="s">
         <v>3320</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1788" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1788">
+        <v>31562</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>3321</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H1788" t="s">
+        <v>3321</v>
+      </c>
+      <c r="I1788" t="s">
+        <v>3321</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>3321</v>
+      </c>
+      <c r="K1788">
+        <v>701305</v>
+      </c>
+      <c r="L1788" t="s">
+        <v>3321</v>
+      </c>
+      <c r="M1788" t="s">
+        <v>3321</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1789" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>3323</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>3322</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1789" t="s">
+        <v>3322</v>
+      </c>
+      <c r="I1789" t="s">
+        <v>3322</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>3322</v>
+      </c>
+      <c r="K1789">
+        <v>680728</v>
+      </c>
+      <c r="L1789" t="s">
+        <v>3322</v>
+      </c>
+      <c r="M1789" t="s">
+        <v>3322</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1790" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1790">
+        <v>19813</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>3324</v>
+      </c>
+      <c r="G1790" t="s">
+        <v>2764</v>
+      </c>
+      <c r="H1790" t="s">
+        <v>3324</v>
+      </c>
+      <c r="I1790" t="s">
+        <v>3324</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>3324</v>
+      </c>
+      <c r="K1790">
+        <v>641779</v>
+      </c>
+      <c r="L1790" t="s">
+        <v>3324</v>
+      </c>
+      <c r="M1790" t="s">
+        <v>3324</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28011"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4197B97E-653B-4EAA-B434-E6AF11090667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5C31B1-368F-4DAA-BDEA-A56CFFD729E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20882" uniqueCount="3325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20928" uniqueCount="3331">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10008,6 +10008,24 @@
   </si>
   <si>
     <t>Charles Leblanc</t>
+  </si>
+  <si>
+    <t>Andres Chaparro</t>
+  </si>
+  <si>
+    <t>Junior Caminero</t>
+  </si>
+  <si>
+    <t>Trey Sweeney</t>
+  </si>
+  <si>
+    <t>sa3016973</t>
+  </si>
+  <si>
+    <t>Jace Jung</t>
+  </si>
+  <si>
+    <t>sa3019992</t>
   </si>
 </sst>
 </file>
@@ -10397,11 +10415,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1790"/>
+  <dimension ref="A1:M1794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1766" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1790" sqref="Q1790"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1770" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1794" sqref="G1794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -75532,10 +75550,10 @@
         <v>3192</v>
       </c>
       <c r="B1680" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
       <c r="C1680" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="D1680" t="s">
         <v>1464</v>
@@ -75722,10 +75740,10 @@
         <v>3196</v>
       </c>
       <c r="B1685" t="s">
-        <v>1405</v>
+        <v>3174</v>
       </c>
       <c r="C1685" t="s">
-        <v>1434</v>
+        <v>1443</v>
       </c>
       <c r="D1685" t="s">
         <v>1464</v>
@@ -80013,6 +80031,170 @@
       </c>
       <c r="M1790" t="s">
         <v>3324</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1791" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1791">
+        <v>28163</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>3326</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H1791" t="s">
+        <v>3326</v>
+      </c>
+      <c r="I1791" t="s">
+        <v>3326</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>3326</v>
+      </c>
+      <c r="K1791">
+        <v>691406</v>
+      </c>
+      <c r="L1791" t="s">
+        <v>3326</v>
+      </c>
+      <c r="M1791" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1792" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1792">
+        <v>21797</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>3325</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>1403</v>
+      </c>
+      <c r="H1792" t="s">
+        <v>3325</v>
+      </c>
+      <c r="I1792" t="s">
+        <v>3325</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>3325</v>
+      </c>
+      <c r="K1792">
+        <v>665953</v>
+      </c>
+      <c r="L1792" t="s">
+        <v>3325</v>
+      </c>
+      <c r="M1792" t="s">
+        <v>3325</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1793" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>3328</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>3327</v>
+      </c>
+      <c r="G1793" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H1793" t="s">
+        <v>3327</v>
+      </c>
+      <c r="I1793" t="s">
+        <v>3327</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>3327</v>
+      </c>
+      <c r="K1793">
+        <v>700242</v>
+      </c>
+      <c r="L1793" t="s">
+        <v>3327</v>
+      </c>
+      <c r="M1793" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1794" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B1794" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>3330</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>3329</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>2764</v>
+      </c>
+      <c r="H1794" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I1794" t="s">
+        <v>3329</v>
+      </c>
+      <c r="J1794" t="s">
+        <v>3329</v>
+      </c>
+      <c r="K1794">
+        <v>690291</v>
+      </c>
+      <c r="L1794" t="s">
+        <v>3329</v>
+      </c>
+      <c r="M1794" t="s">
+        <v>3329</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28015"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5C31B1-368F-4DAA-BDEA-A56CFFD729E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC171AA-0213-4338-BE0F-10D45530BBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20928" uniqueCount="3331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20947" uniqueCount="3330">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10004,9 +10004,6 @@
     <t>Adrian Del Castillo</t>
   </si>
   <si>
-    <t>sa3016957</t>
-  </si>
-  <si>
     <t>Charles Leblanc</t>
   </si>
   <si>
@@ -10019,13 +10016,13 @@
     <t>Trey Sweeney</t>
   </si>
   <si>
-    <t>sa3016973</t>
-  </si>
-  <si>
     <t>Jace Jung</t>
   </si>
   <si>
-    <t>sa3019992</t>
+    <t>Niko Kavadas</t>
+  </si>
+  <si>
+    <t>Grant McCray</t>
   </si>
 </sst>
 </file>
@@ -10415,11 +10412,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1794"/>
+  <dimension ref="A1:M1796"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1770" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1794" sqref="G1794"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A923" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O932" sqref="O932"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37364,10 +37361,10 @@
         <v>1112</v>
       </c>
       <c r="B697" t="s">
-        <v>1419</v>
+        <v>1423</v>
       </c>
       <c r="C697" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="D697" t="s">
         <v>1464</v>
@@ -37389,6 +37386,9 @@
       </c>
       <c r="J697" t="s">
         <v>1112</v>
+      </c>
+      <c r="K697">
+        <v>542963</v>
       </c>
       <c r="L697" t="s">
         <v>1112</v>
@@ -46432,10 +46432,10 @@
         <v>523</v>
       </c>
       <c r="B932" t="s">
-        <v>1430</v>
+        <v>1408</v>
       </c>
       <c r="C932" t="s">
-        <v>1460</v>
+        <v>1437</v>
       </c>
       <c r="D932" t="s">
         <v>1463</v>
@@ -78384,10 +78384,10 @@
         <v>3274</v>
       </c>
       <c r="B1750" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="C1750" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
       <c r="D1750" t="s">
         <v>1463</v>
@@ -79964,8 +79964,8 @@
       <c r="D1789" t="s">
         <v>1464</v>
       </c>
-      <c r="E1789" t="s">
-        <v>3323</v>
+      <c r="E1789">
+        <v>29554</v>
       </c>
       <c r="F1789" t="s">
         <v>3322</v>
@@ -79994,7 +79994,7 @@
     </row>
     <row r="1790" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1790" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="B1790" t="s">
         <v>1404</v>
@@ -80009,33 +80009,33 @@
         <v>19813</v>
       </c>
       <c r="F1790" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="G1790" t="s">
         <v>2764</v>
       </c>
       <c r="H1790" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="I1790" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="J1790" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="K1790">
         <v>641779</v>
       </c>
       <c r="L1790" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="M1790" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
     </row>
     <row r="1791" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1791" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="B1791" t="s">
         <v>1423</v>
@@ -80050,33 +80050,33 @@
         <v>28163</v>
       </c>
       <c r="F1791" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="G1791" t="s">
         <v>1400</v>
       </c>
       <c r="H1791" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="I1791" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="J1791" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="K1791">
         <v>691406</v>
       </c>
       <c r="L1791" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="M1791" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
     </row>
     <row r="1792" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1792" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="B1792" t="s">
         <v>3174</v>
@@ -80091,33 +80091,33 @@
         <v>21797</v>
       </c>
       <c r="F1792" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="G1792" t="s">
         <v>1403</v>
       </c>
       <c r="H1792" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="I1792" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="J1792" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="K1792">
         <v>665953</v>
       </c>
       <c r="L1792" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
       <c r="M1792" t="s">
-        <v>3325</v>
+        <v>3324</v>
       </c>
     </row>
     <row r="1793" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1793" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="B1793" t="s">
         <v>1430</v>
@@ -80128,37 +80128,37 @@
       <c r="D1793" t="s">
         <v>1464</v>
       </c>
-      <c r="E1793" t="s">
-        <v>3328</v>
+      <c r="E1793">
+        <v>29575</v>
       </c>
       <c r="F1793" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="G1793" t="s">
         <v>1399</v>
       </c>
       <c r="H1793" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="I1793" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="J1793" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="K1793">
         <v>700242</v>
       </c>
       <c r="L1793" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
       <c r="M1793" t="s">
-        <v>3327</v>
+        <v>3326</v>
       </c>
     </row>
     <row r="1794" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1794" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="B1794" t="s">
         <v>1430</v>
@@ -80169,31 +80169,107 @@
       <c r="D1794" t="s">
         <v>1464</v>
       </c>
-      <c r="E1794" t="s">
-        <v>3330</v>
+      <c r="E1794">
+        <v>31437</v>
       </c>
       <c r="F1794" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="G1794" t="s">
-        <v>2764</v>
+        <v>1400</v>
       </c>
       <c r="H1794" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="I1794" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="J1794" t="s">
-        <v>3329</v>
+        <v>3327</v>
       </c>
       <c r="K1794">
         <v>690291</v>
       </c>
       <c r="L1794" t="s">
+        <v>3327</v>
+      </c>
+      <c r="M1794" t="s">
+        <v>3327</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1795" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B1795" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1795">
+        <v>29782</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>3328</v>
+      </c>
+      <c r="G1795" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H1795" t="s">
+        <v>3328</v>
+      </c>
+      <c r="I1795" t="s">
+        <v>3328</v>
+      </c>
+      <c r="J1795" t="s">
+        <v>3328</v>
+      </c>
+      <c r="L1795" t="s">
+        <v>3328</v>
+      </c>
+      <c r="M1795" t="s">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1796" t="s">
         <v>3329</v>
       </c>
-      <c r="M1794" t="s">
+      <c r="B1796" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1796">
+        <v>25690</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>3329</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1796" t="s">
+        <v>3329</v>
+      </c>
+      <c r="I1796" t="s">
+        <v>3329</v>
+      </c>
+      <c r="J1796" t="s">
+        <v>3329</v>
+      </c>
+      <c r="L1796" t="s">
+        <v>3329</v>
+      </c>
+      <c r="M1796" t="s">
         <v>3329</v>
       </c>
     </row>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC171AA-0213-4338-BE0F-10D45530BBB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764ACA68-788E-47AB-B7C5-F5A7E9DA4499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20947" uniqueCount="3330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20980" uniqueCount="3333">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10023,6 +10023,15 @@
   </si>
   <si>
     <t>Grant McCray</t>
+  </si>
+  <si>
+    <t>Dylan Crews</t>
+  </si>
+  <si>
+    <t>Mason McCoy</t>
+  </si>
+  <si>
+    <t>Drew Romo</t>
   </si>
 </sst>
 </file>
@@ -10098,7 +10107,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10107,6 +10116,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10412,11 +10422,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1796"/>
+  <dimension ref="A1:M1799"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A923" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O932" sqref="O932"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1791" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1797" sqref="E1797"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13201,10 +13211,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="C71" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="D71" t="s">
         <v>1463</v>
@@ -18361,10 +18371,10 @@
         <v>133</v>
       </c>
       <c r="B204" t="s">
-        <v>1413</v>
+        <v>1422</v>
       </c>
       <c r="C204" t="s">
-        <v>1442</v>
+        <v>1452</v>
       </c>
       <c r="D204" t="s">
         <v>1464</v>
@@ -47874,10 +47884,10 @@
         <v>1258</v>
       </c>
       <c r="B969" t="s">
-        <v>1427</v>
+        <v>1410</v>
       </c>
       <c r="C969" t="s">
-        <v>1457</v>
+        <v>1439</v>
       </c>
       <c r="D969" t="s">
         <v>1465</v>
@@ -54509,10 +54519,10 @@
         <v>869</v>
       </c>
       <c r="B1141" t="s">
-        <v>1404</v>
+        <v>1421</v>
       </c>
       <c r="C1141" t="s">
-        <v>1433</v>
+        <v>1451</v>
       </c>
       <c r="D1141" t="s">
         <v>1464</v>
@@ -59695,10 +59705,10 @@
         <v>415</v>
       </c>
       <c r="B1275" t="s">
-        <v>1431</v>
+        <v>1409</v>
       </c>
       <c r="C1275" t="s">
-        <v>1461</v>
+        <v>1438</v>
       </c>
       <c r="D1275" t="s">
         <v>1464</v>
@@ -80228,6 +80238,9 @@
       <c r="J1795" t="s">
         <v>3328</v>
       </c>
+      <c r="K1795">
+        <v>694359</v>
+      </c>
       <c r="L1795" t="s">
         <v>3328</v>
       </c>
@@ -80266,11 +80279,137 @@
       <c r="J1796" t="s">
         <v>3329</v>
       </c>
+      <c r="K1796">
+        <v>687529</v>
+      </c>
       <c r="L1796" t="s">
         <v>3329</v>
       </c>
       <c r="M1796" t="s">
         <v>3329</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1797" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B1797" s="4" t="s">
+        <v>3174</v>
+      </c>
+      <c r="C1797" s="4" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D1797" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1797" s="4">
+        <v>33541</v>
+      </c>
+      <c r="F1797" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="G1797" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1797" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="I1797" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="J1797" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="K1797" s="4">
+        <v>686611</v>
+      </c>
+      <c r="L1797" s="4" t="s">
+        <v>3330</v>
+      </c>
+      <c r="M1797" s="4" t="s">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1798" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B1798" s="4" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C1798" s="4" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D1798" s="4" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1798" s="4">
+        <v>22232</v>
+      </c>
+      <c r="F1798" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="G1798" s="4" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H1798" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="I1798" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="J1798" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="K1798" s="4">
+        <v>669200</v>
+      </c>
+      <c r="L1798" s="4" t="s">
+        <v>3331</v>
+      </c>
+      <c r="M1798" s="4" t="s">
+        <v>3331</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1799" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B1799" s="4" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C1799" s="4" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D1799" s="4" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1799" s="4">
+        <v>27763</v>
+      </c>
+      <c r="F1799" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="G1799" s="4" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1799" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="I1799" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="J1799" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="K1799" s="4">
+        <v>691011</v>
+      </c>
+      <c r="L1799" s="4" t="s">
+        <v>3332</v>
+      </c>
+      <c r="M1799" s="4" t="s">
+        <v>3332</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{764ACA68-788E-47AB-B7C5-F5A7E9DA4499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F0FF4E-6C83-4A66-B438-3A133BA5DC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20980" uniqueCount="3333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20991" uniqueCount="3334">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10032,6 +10032,9 @@
   </si>
   <si>
     <t>Drew Romo</t>
+  </si>
+  <si>
+    <t>Tyler Gentry</t>
   </si>
 </sst>
 </file>
@@ -10107,7 +10110,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10116,7 +10119,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10422,11 +10424,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1799"/>
+  <dimension ref="A1:M1800"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1791" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1797" sqref="E1797"/>
+      <pane ySplit="1" topLeftCell="A1776" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1801" sqref="K1801"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28379,10 +28381,10 @@
         <v>629</v>
       </c>
       <c r="B463" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
       <c r="C463" t="s">
-        <v>1439</v>
+        <v>1452</v>
       </c>
       <c r="D463" t="s">
         <v>1464</v>
@@ -49583,7 +49585,7 @@
         <v>2893</v>
       </c>
       <c r="B1013" t="s">
-        <v>1416</v>
+        <v>1414</v>
       </c>
       <c r="C1013" t="s">
         <v>1446</v>
@@ -80289,127 +80291,168 @@
         <v>3329</v>
       </c>
     </row>
-    <row r="1797" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1797" s="4" t="s">
+    <row r="1797" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1797" t="s">
         <v>3330</v>
       </c>
-      <c r="B1797" s="4" t="s">
+      <c r="B1797" t="s">
         <v>3174</v>
       </c>
-      <c r="C1797" s="4" t="s">
+      <c r="C1797" t="s">
         <v>1443</v>
       </c>
-      <c r="D1797" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1797" s="4">
+      <c r="D1797" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1797">
         <v>33541</v>
       </c>
-      <c r="F1797" s="4" t="s">
+      <c r="F1797" t="s">
         <v>3330</v>
       </c>
-      <c r="G1797" s="4" t="s">
+      <c r="G1797" t="s">
         <v>1398</v>
       </c>
-      <c r="H1797" s="4" t="s">
+      <c r="H1797" t="s">
         <v>3330</v>
       </c>
-      <c r="I1797" s="4" t="s">
+      <c r="I1797" t="s">
         <v>3330</v>
       </c>
-      <c r="J1797" s="4" t="s">
+      <c r="J1797" t="s">
         <v>3330</v>
       </c>
-      <c r="K1797" s="4">
+      <c r="K1797">
         <v>686611</v>
       </c>
-      <c r="L1797" s="4" t="s">
+      <c r="L1797" t="s">
         <v>3330</v>
       </c>
-      <c r="M1797" s="4" t="s">
+      <c r="M1797" t="s">
         <v>3330</v>
       </c>
     </row>
-    <row r="1798" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1798" s="4" t="s">
+    <row r="1798" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1798" t="s">
         <v>3331</v>
       </c>
-      <c r="B1798" s="4" t="s">
+      <c r="B1798" t="s">
         <v>1406</v>
       </c>
-      <c r="C1798" s="4" t="s">
+      <c r="C1798" t="s">
         <v>1435</v>
       </c>
-      <c r="D1798" s="4" t="s">
-        <v>1463</v>
-      </c>
-      <c r="E1798" s="4">
+      <c r="D1798" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1798">
         <v>22232</v>
       </c>
-      <c r="F1798" s="4" t="s">
+      <c r="F1798" t="s">
         <v>3331</v>
       </c>
-      <c r="G1798" s="4" t="s">
+      <c r="G1798" t="s">
         <v>1399</v>
       </c>
-      <c r="H1798" s="4" t="s">
+      <c r="H1798" t="s">
         <v>3331</v>
       </c>
-      <c r="I1798" s="4" t="s">
+      <c r="I1798" t="s">
         <v>3331</v>
       </c>
-      <c r="J1798" s="4" t="s">
+      <c r="J1798" t="s">
         <v>3331</v>
       </c>
-      <c r="K1798" s="4">
+      <c r="K1798">
         <v>669200</v>
       </c>
-      <c r="L1798" s="4" t="s">
+      <c r="L1798" t="s">
         <v>3331</v>
       </c>
-      <c r="M1798" s="4" t="s">
+      <c r="M1798" t="s">
         <v>3331</v>
       </c>
     </row>
-    <row r="1799" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1799" s="4" t="s">
+    <row r="1799" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1799" t="s">
         <v>3332</v>
       </c>
-      <c r="B1799" s="4" t="s">
+      <c r="B1799" t="s">
         <v>1428</v>
       </c>
-      <c r="C1799" s="4" t="s">
+      <c r="C1799" t="s">
         <v>1458</v>
       </c>
-      <c r="D1799" s="4" t="s">
+      <c r="D1799" t="s">
         <v>1465</v>
       </c>
-      <c r="E1799" s="4">
+      <c r="E1799">
         <v>27763</v>
       </c>
-      <c r="F1799" s="4" t="s">
+      <c r="F1799" t="s">
         <v>3332</v>
       </c>
-      <c r="G1799" s="4" t="s">
+      <c r="G1799" t="s">
         <v>1397</v>
       </c>
-      <c r="H1799" s="4" t="s">
+      <c r="H1799" t="s">
         <v>3332</v>
       </c>
-      <c r="I1799" s="4" t="s">
+      <c r="I1799" t="s">
         <v>3332</v>
       </c>
-      <c r="J1799" s="4" t="s">
+      <c r="J1799" t="s">
         <v>3332</v>
       </c>
-      <c r="K1799" s="4">
+      <c r="K1799">
         <v>691011</v>
       </c>
-      <c r="L1799" s="4" t="s">
+      <c r="L1799" t="s">
         <v>3332</v>
       </c>
-      <c r="M1799" s="4" t="s">
+      <c r="M1799" t="s">
         <v>3332</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1800" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B1800" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1800">
+        <v>27784</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>3333</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1800" t="s">
+        <v>3333</v>
+      </c>
+      <c r="I1800" t="s">
+        <v>3333</v>
+      </c>
+      <c r="J1800" t="s">
+        <v>3333</v>
+      </c>
+      <c r="K1800">
+        <v>694355</v>
+      </c>
+      <c r="L1800" t="s">
+        <v>3333</v>
+      </c>
+      <c r="M1800" t="s">
+        <v>3333</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F0FF4E-6C83-4A66-B438-3A133BA5DC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56189E52-6A85-43F0-A117-7F3394AEC0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20991" uniqueCount="3334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21013" uniqueCount="3336">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10035,6 +10035,12 @@
   </si>
   <si>
     <t>Tyler Gentry</t>
+  </si>
+  <si>
+    <t>Brewer Hicklen</t>
+  </si>
+  <si>
+    <t>Griffin Conine</t>
   </si>
 </sst>
 </file>
@@ -10424,11 +10430,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1800"/>
+  <dimension ref="A1:M1802"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1776" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1801" sqref="K1801"/>
+      <pane ySplit="1" topLeftCell="A1000" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C1014" sqref="C1014"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26402,10 +26408,10 @@
         <v>1263</v>
       </c>
       <c r="B411" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C411" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="D411" t="s">
         <v>1463</v>
@@ -49588,7 +49594,7 @@
         <v>1414</v>
       </c>
       <c r="C1013" t="s">
-        <v>1446</v>
+        <v>1444</v>
       </c>
       <c r="D1013" t="s">
         <v>1463</v>
@@ -64411,10 +64417,10 @@
         <v>1384</v>
       </c>
       <c r="B1397" t="s">
-        <v>1416</v>
+        <v>1426</v>
       </c>
       <c r="C1397" t="s">
-        <v>1446</v>
+        <v>1456</v>
       </c>
       <c r="D1397" t="s">
         <v>1463</v>
@@ -73725,10 +73731,10 @@
         <v>3138</v>
       </c>
       <c r="B1633" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="C1633" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="D1633" t="s">
         <v>1463</v>
@@ -80453,6 +80459,88 @@
       </c>
       <c r="M1800" t="s">
         <v>3333</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1801" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B1801" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1801">
+        <v>20450</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>3334</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1801" t="s">
+        <v>3334</v>
+      </c>
+      <c r="I1801" t="s">
+        <v>3334</v>
+      </c>
+      <c r="J1801" t="s">
+        <v>3334</v>
+      </c>
+      <c r="K1801">
+        <v>676551</v>
+      </c>
+      <c r="L1801" t="s">
+        <v>3334</v>
+      </c>
+      <c r="M1801" t="s">
+        <v>3334</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1802" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1802">
+        <v>21626</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>3335</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1802" t="s">
+        <v>3335</v>
+      </c>
+      <c r="I1802" t="s">
+        <v>3335</v>
+      </c>
+      <c r="J1802" t="s">
+        <v>3335</v>
+      </c>
+      <c r="K1802">
+        <v>665052</v>
+      </c>
+      <c r="L1802" t="s">
+        <v>3335</v>
+      </c>
+      <c r="M1802" t="s">
+        <v>3335</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56189E52-6A85-43F0-A117-7F3394AEC0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED4C31-1510-4731-9F60-436C6FFA09D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21013" uniqueCount="3336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21048" uniqueCount="3340">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10041,6 +10041,18 @@
   </si>
   <si>
     <t>Griffin Conine</t>
+  </si>
+  <si>
+    <t>Michael Helman</t>
+  </si>
+  <si>
+    <t>sa123</t>
+  </si>
+  <si>
+    <t>Logan Driscoll</t>
+  </si>
+  <si>
+    <t>Tristan Gray</t>
   </si>
 </sst>
 </file>
@@ -10430,11 +10442,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1802"/>
+  <dimension ref="A1:M1805"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1000" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C1014" sqref="C1014"/>
+      <pane ySplit="1" topLeftCell="A1781" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1806" sqref="K1806"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -80543,6 +80555,123 @@
         <v>3335</v>
       </c>
     </row>
+    <row r="1803" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1803" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>3337</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>3336</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>2761</v>
+      </c>
+      <c r="H1803" t="s">
+        <v>3336</v>
+      </c>
+      <c r="I1803" t="s">
+        <v>3336</v>
+      </c>
+      <c r="J1803" t="s">
+        <v>3336</v>
+      </c>
+      <c r="L1803" t="s">
+        <v>3336</v>
+      </c>
+      <c r="M1803" t="s">
+        <v>3336</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1804" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>3337</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>3338</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1804" t="s">
+        <v>3338</v>
+      </c>
+      <c r="I1804" t="s">
+        <v>3338</v>
+      </c>
+      <c r="J1804" t="s">
+        <v>3338</v>
+      </c>
+      <c r="L1804" t="s">
+        <v>3338</v>
+      </c>
+      <c r="M1804" t="s">
+        <v>3338</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1805" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1805">
+        <v>19877</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>3339</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H1805" t="s">
+        <v>3339</v>
+      </c>
+      <c r="I1805" t="s">
+        <v>3339</v>
+      </c>
+      <c r="J1805" t="s">
+        <v>3339</v>
+      </c>
+      <c r="K1805">
+        <v>656484</v>
+      </c>
+      <c r="L1805" t="s">
+        <v>3339</v>
+      </c>
+      <c r="M1805" t="s">
+        <v>3339</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1395">
     <sortCondition ref="A2:A1395"/>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57ED4C31-1510-4731-9F60-436C6FFA09D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D416F17C-3BA7-4E16-BE41-178A32BA8CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -10445,8 +10445,8 @@
   <dimension ref="A1:M1805"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1781" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1806" sqref="K1806"/>
+      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B478" sqref="B478"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28937,10 +28937,10 @@
         <v>1115</v>
       </c>
       <c r="B477" t="s">
-        <v>1407</v>
+        <v>1426</v>
       </c>
       <c r="C477" t="s">
-        <v>1436</v>
+        <v>1456</v>
       </c>
       <c r="D477" t="s">
         <v>1465</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28028"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D416F17C-3BA7-4E16-BE41-178A32BA8CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50557B1F-C0C7-47C3-A069-35C4E3A9C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1776" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21048" uniqueCount="3340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21105" uniqueCount="3345">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10053,6 +10053,21 @@
   </si>
   <si>
     <t>Tristan Gray</t>
+  </si>
+  <si>
+    <t>Javier Sanoja</t>
+  </si>
+  <si>
+    <t>Bryce Teodosio</t>
+  </si>
+  <si>
+    <t>Jordyn Adams</t>
+  </si>
+  <si>
+    <t>Billy Cook</t>
+  </si>
+  <si>
+    <t>Isaac Collins</t>
   </si>
 </sst>
 </file>
@@ -10076,7 +10091,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -10086,6 +10101,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -10128,7 +10149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10137,6 +10158,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10442,11 +10464,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1805"/>
+  <dimension ref="A1:M1810"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A470" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B478" sqref="B478"/>
+      <pane ySplit="1" topLeftCell="A1719" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1733" sqref="B1733"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -51881,10 +51903,10 @@
         <v>2808</v>
       </c>
       <c r="B1072" t="s">
-        <v>1430</v>
+        <v>1414</v>
       </c>
       <c r="C1072" t="s">
-        <v>1460</v>
+        <v>1444</v>
       </c>
       <c r="D1072" t="s">
         <v>1464</v>
@@ -67848,10 +67870,10 @@
         <v>2935</v>
       </c>
       <c r="B1486" t="s">
-        <v>1431</v>
+        <v>1404</v>
       </c>
       <c r="C1486" t="s">
-        <v>1461</v>
+        <v>1433</v>
       </c>
       <c r="D1486" t="s">
         <v>1463</v>
@@ -77676,10 +77698,10 @@
         <v>3256</v>
       </c>
       <c r="B1732" t="s">
-        <v>1430</v>
+        <v>1418</v>
       </c>
       <c r="C1732" t="s">
-        <v>1460</v>
+        <v>1448</v>
       </c>
       <c r="D1732" t="s">
         <v>1463</v>
@@ -80670,6 +80692,211 @@
       </c>
       <c r="M1805" t="s">
         <v>3339</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1806" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>1446</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1806">
+        <v>28253</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>3340</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H1806" t="s">
+        <v>3340</v>
+      </c>
+      <c r="I1806" t="s">
+        <v>3340</v>
+      </c>
+      <c r="J1806" t="s">
+        <v>3340</v>
+      </c>
+      <c r="K1806">
+        <v>691594</v>
+      </c>
+      <c r="L1806" t="s">
+        <v>3340</v>
+      </c>
+      <c r="M1806" t="s">
+        <v>3340</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1807" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1807">
+        <v>29524</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>3341</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1807" t="s">
+        <v>3341</v>
+      </c>
+      <c r="I1807" t="s">
+        <v>3341</v>
+      </c>
+      <c r="J1807" t="s">
+        <v>3341</v>
+      </c>
+      <c r="K1807">
+        <v>669326</v>
+      </c>
+      <c r="L1807" t="s">
+        <v>3341</v>
+      </c>
+      <c r="M1807" t="s">
+        <v>3341</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1808" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1808">
+        <v>23788</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>3342</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1808" t="s">
+        <v>3342</v>
+      </c>
+      <c r="I1808" t="s">
+        <v>3342</v>
+      </c>
+      <c r="J1808" t="s">
+        <v>3342</v>
+      </c>
+      <c r="K1808">
+        <v>677941</v>
+      </c>
+      <c r="L1808" t="s">
+        <v>3342</v>
+      </c>
+      <c r="M1808" t="s">
+        <v>3342</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1809" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>3337</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>3343</v>
+      </c>
+      <c r="G1809" s="4" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1809" t="s">
+        <v>3343</v>
+      </c>
+      <c r="I1809" t="s">
+        <v>3343</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>3343</v>
+      </c>
+      <c r="K1809">
+        <v>695257</v>
+      </c>
+      <c r="L1809" t="s">
+        <v>3343</v>
+      </c>
+      <c r="M1809" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1810" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>3337</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>2761</v>
+      </c>
+      <c r="H1810" t="s">
+        <v>3344</v>
+      </c>
+      <c r="I1810" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>3344</v>
+      </c>
+      <c r="K1810">
+        <v>686555</v>
+      </c>
+      <c r="L1810" t="s">
+        <v>3344</v>
+      </c>
+      <c r="M1810" t="s">
+        <v>3344</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50557B1F-C0C7-47C3-A069-35C4E3A9C045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2633ECD8-1708-4BFA-9038-54FF45DE7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21105" uniqueCount="3345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21112" uniqueCount="3345">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10046,9 +10046,6 @@
     <t>Michael Helman</t>
   </si>
   <si>
-    <t>sa123</t>
-  </si>
-  <si>
     <t>Logan Driscoll</t>
   </si>
   <si>
@@ -10068,6 +10065,9 @@
   </si>
   <si>
     <t>Isaac Collins</t>
+  </si>
+  <si>
+    <t>Jasson Dominguez</t>
   </si>
 </sst>
 </file>
@@ -10464,11 +10464,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1810"/>
+  <dimension ref="A1:M1811"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1719" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1733" sqref="B1733"/>
+      <pane ySplit="1" topLeftCell="A1787" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1804" sqref="E1804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -80590,14 +80590,14 @@
       <c r="D1803" t="s">
         <v>1463</v>
       </c>
-      <c r="E1803" t="s">
-        <v>3337</v>
+      <c r="E1803">
+        <v>24605</v>
       </c>
       <c r="F1803" t="s">
         <v>3336</v>
       </c>
       <c r="G1803" t="s">
-        <v>2761</v>
+        <v>1398</v>
       </c>
       <c r="H1803" t="s">
         <v>3336</v>
@@ -80617,7 +80617,7 @@
     </row>
     <row r="1804" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1804" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="B1804" t="s">
         <v>1423</v>
@@ -80628,34 +80628,34 @@
       <c r="D1804" t="s">
         <v>1464</v>
       </c>
-      <c r="E1804" t="s">
+      <c r="E1804">
+        <v>25475</v>
+      </c>
+      <c r="F1804" t="s">
         <v>3337</v>
-      </c>
-      <c r="F1804" t="s">
-        <v>3338</v>
       </c>
       <c r="G1804" t="s">
         <v>1397</v>
       </c>
       <c r="H1804" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="I1804" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="J1804" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="L1804" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
       <c r="M1804" t="s">
-        <v>3338</v>
+        <v>3337</v>
       </c>
     </row>
     <row r="1805" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1805" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="B1805" t="s">
         <v>1411</v>
@@ -80670,33 +80670,33 @@
         <v>19877</v>
       </c>
       <c r="F1805" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="G1805" t="s">
         <v>1400</v>
       </c>
       <c r="H1805" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="I1805" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="J1805" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="K1805">
         <v>656484</v>
       </c>
       <c r="L1805" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
       <c r="M1805" t="s">
-        <v>3339</v>
+        <v>3338</v>
       </c>
     </row>
     <row r="1806" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1806" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="B1806" t="s">
         <v>1416</v>
@@ -80711,33 +80711,33 @@
         <v>28253</v>
       </c>
       <c r="F1806" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="G1806" t="s">
         <v>1402</v>
       </c>
       <c r="H1806" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="I1806" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="J1806" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="K1806">
         <v>691594</v>
       </c>
       <c r="L1806" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
       <c r="M1806" t="s">
-        <v>3340</v>
+        <v>3339</v>
       </c>
     </row>
     <row r="1807" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1807" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="B1807" t="s">
         <v>1404</v>
@@ -80752,33 +80752,33 @@
         <v>29524</v>
       </c>
       <c r="F1807" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="G1807" t="s">
         <v>1398</v>
       </c>
       <c r="H1807" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="I1807" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="J1807" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="K1807">
         <v>669326</v>
       </c>
       <c r="L1807" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
       <c r="M1807" t="s">
-        <v>3341</v>
+        <v>3340</v>
       </c>
     </row>
     <row r="1808" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1808" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="B1808" t="s">
         <v>1404</v>
@@ -80793,33 +80793,33 @@
         <v>23788</v>
       </c>
       <c r="F1808" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="G1808" t="s">
         <v>1398</v>
       </c>
       <c r="H1808" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="I1808" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="J1808" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="K1808">
         <v>677941</v>
       </c>
       <c r="L1808" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
       <c r="M1808" t="s">
-        <v>3342</v>
+        <v>3341</v>
       </c>
     </row>
     <row r="1809" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1809" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="B1809" t="s">
         <v>1412</v>
@@ -80830,37 +80830,37 @@
       <c r="D1809" t="s">
         <v>1463</v>
       </c>
-      <c r="E1809" t="s">
-        <v>3337</v>
+      <c r="E1809">
+        <v>29573</v>
       </c>
       <c r="F1809" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="G1809" s="4" t="s">
-        <v>1398</v>
+        <v>1403</v>
       </c>
       <c r="H1809" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="I1809" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="J1809" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="K1809">
         <v>695257</v>
       </c>
       <c r="L1809" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
       <c r="M1809" t="s">
-        <v>3343</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="1810" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1810" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="B1810" t="s">
         <v>1425</v>
@@ -80871,31 +80871,69 @@
       <c r="D1810" t="s">
         <v>1465</v>
       </c>
-      <c r="E1810" t="s">
-        <v>3337</v>
+      <c r="E1810">
+        <v>25477</v>
       </c>
       <c r="F1810" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="G1810" t="s">
-        <v>2761</v>
+        <v>1398</v>
       </c>
       <c r="H1810" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="I1810" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="J1810" t="s">
-        <v>3344</v>
+        <v>3343</v>
       </c>
       <c r="K1810">
         <v>686555</v>
       </c>
       <c r="L1810" t="s">
+        <v>3343</v>
+      </c>
+      <c r="M1810" t="s">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1811" t="s">
         <v>3344</v>
       </c>
-      <c r="M1810" t="s">
+      <c r="B1811" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1811">
+        <v>28080</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>3344</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1811" t="s">
+        <v>3344</v>
+      </c>
+      <c r="I1811" t="s">
+        <v>3344</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>3344</v>
+      </c>
+      <c r="L1811" t="s">
+        <v>3344</v>
+      </c>
+      <c r="M1811" t="s">
         <v>3344</v>
       </c>
     </row>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2633ECD8-1708-4BFA-9038-54FF45DE7F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2032A-B080-4596-96D1-3C5708BA3E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21112" uniqueCount="3345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21135" uniqueCount="3349">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10068,6 +10068,18 @@
   </si>
   <si>
     <t>Jasson Dominguez</t>
+  </si>
+  <si>
+    <t>DaShawn Keirsey</t>
+  </si>
+  <si>
+    <t>DaShawn Keirsey Jr</t>
+  </si>
+  <si>
+    <t>Thomas Saggese</t>
+  </si>
+  <si>
+    <t>sa123</t>
   </si>
 </sst>
 </file>
@@ -10464,11 +10476,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1811"/>
+  <dimension ref="A1:M1813"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1787" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1804" sqref="E1804"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1789" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1804" sqref="K1804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -68104,10 +68116,10 @@
         <v>2941</v>
       </c>
       <c r="B1492" t="s">
-        <v>1410</v>
+        <v>1413</v>
       </c>
       <c r="C1492" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="D1492" t="s">
         <v>1465</v>
@@ -68129,6 +68141,9 @@
       </c>
       <c r="J1492" t="s">
         <v>2941</v>
+      </c>
+      <c r="K1492">
+        <v>657193</v>
       </c>
       <c r="L1492" t="s">
         <v>2941</v>
@@ -80608,6 +80623,9 @@
       <c r="J1803" t="s">
         <v>3336</v>
       </c>
+      <c r="K1803">
+        <v>680737</v>
+      </c>
       <c r="L1803" t="s">
         <v>3336</v>
       </c>
@@ -80646,6 +80664,9 @@
       <c r="J1804" t="s">
         <v>3337</v>
       </c>
+      <c r="K1804">
+        <v>686482</v>
+      </c>
       <c r="L1804" t="s">
         <v>3337</v>
       </c>
@@ -80930,11 +80951,96 @@
       <c r="J1811" t="s">
         <v>3344</v>
       </c>
+      <c r="K1811">
+        <v>691176</v>
+      </c>
       <c r="L1811" t="s">
         <v>3344</v>
       </c>
       <c r="M1811" t="s">
         <v>3344</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1812" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1812">
+        <v>24496</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>3345</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1812" t="s">
+        <v>3345</v>
+      </c>
+      <c r="I1812" t="s">
+        <v>3345</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>3346</v>
+      </c>
+      <c r="K1812">
+        <v>680577</v>
+      </c>
+      <c r="L1812" t="s">
+        <v>3345</v>
+      </c>
+      <c r="M1812" t="s">
+        <v>3345</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1813" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>3347</v>
+      </c>
+      <c r="G1813" s="1" t="s">
+        <v>2763</v>
+      </c>
+      <c r="H1813" t="s">
+        <v>3347</v>
+      </c>
+      <c r="I1813" t="s">
+        <v>3347</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>3347</v>
+      </c>
+      <c r="K1813">
+        <v>695336</v>
+      </c>
+      <c r="L1813" t="s">
+        <v>3347</v>
+      </c>
+      <c r="M1813" t="s">
+        <v>3347</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB2032A-B080-4596-96D1-3C5708BA3E37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFBAAC3-74F0-42F7-BF5A-D6B45A200DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21135" uniqueCount="3349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21146" uniqueCount="3350">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10080,6 +10080,9 @@
   </si>
   <si>
     <t>sa123</t>
+  </si>
+  <si>
+    <t>Luisangel Acuna</t>
   </si>
 </sst>
 </file>
@@ -10476,11 +10479,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1813"/>
+  <dimension ref="A1:M1814"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1789" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1804" sqref="K1804"/>
+      <pane ySplit="1" topLeftCell="A1599" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1612" sqref="K1612"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -72910,6 +72913,9 @@
       <c r="J1611" t="s">
         <v>3070</v>
       </c>
+      <c r="K1611">
+        <v>677587</v>
+      </c>
       <c r="L1611" t="s">
         <v>3070</v>
       </c>
@@ -72922,10 +72928,10 @@
         <v>3071</v>
       </c>
       <c r="B1612" t="s">
-        <v>1409</v>
+        <v>1414</v>
       </c>
       <c r="C1612" t="s">
-        <v>1438</v>
+        <v>1444</v>
       </c>
       <c r="D1612" t="s">
         <v>1464</v>
@@ -72947,6 +72953,9 @@
       </c>
       <c r="J1612" t="s">
         <v>3071</v>
+      </c>
+      <c r="K1612">
+        <v>670869</v>
       </c>
       <c r="L1612" t="s">
         <v>3071</v>
@@ -81015,14 +81024,14 @@
       <c r="D1813" t="s">
         <v>1463</v>
       </c>
-      <c r="E1813" t="s">
-        <v>3348</v>
+      <c r="E1813">
+        <v>27883</v>
       </c>
       <c r="F1813" t="s">
         <v>3347</v>
       </c>
       <c r="G1813" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="H1813" t="s">
         <v>3347</v>
@@ -81041,6 +81050,47 @@
       </c>
       <c r="M1813" t="s">
         <v>3347</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1814" t="s">
+        <v>3349</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>1442</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1814" t="s">
+        <v>3348</v>
+      </c>
+      <c r="F1814" t="s">
+        <v>3349</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>2760</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>3349</v>
+      </c>
+      <c r="I1814" t="s">
+        <v>3349</v>
+      </c>
+      <c r="J1814" t="s">
+        <v>3349</v>
+      </c>
+      <c r="K1814">
+        <v>682668</v>
+      </c>
+      <c r="L1814" t="s">
+        <v>3349</v>
+      </c>
+      <c r="M1814" t="s">
+        <v>3349</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28112"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFBAAC3-74F0-42F7-BF5A-D6B45A200DC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5AB6E-09A0-4E1D-A17D-956538318D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21146" uniqueCount="3350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21234" uniqueCount="3357">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10079,10 +10079,31 @@
     <t>Thomas Saggese</t>
   </si>
   <si>
+    <t>Luisangel Acuna</t>
+  </si>
+  <si>
+    <t>Nick Yorke</t>
+  </si>
+  <si>
+    <t>Eric Wagaman</t>
+  </si>
+  <si>
+    <t>Gustavo Campero</t>
+  </si>
+  <si>
+    <t>Hunter Feduccia</t>
+  </si>
+  <si>
+    <t>Brandon Lockridge</t>
+  </si>
+  <si>
+    <t>Luis Vazquez</t>
+  </si>
+  <si>
+    <t>Dustin Harris</t>
+  </si>
+  <si>
     <t>sa123</t>
-  </si>
-  <si>
-    <t>Luisangel Acuna</t>
   </si>
 </sst>
 </file>
@@ -10479,11 +10500,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1814"/>
+  <dimension ref="A1:M1822"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1599" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1612" sqref="K1612"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1798" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1823" sqref="E1823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37858,10 +37879,10 @@
         <v>451</v>
       </c>
       <c r="B708" t="s">
-        <v>1428</v>
+        <v>1406</v>
       </c>
       <c r="C708" t="s">
-        <v>1458</v>
+        <v>1435</v>
       </c>
       <c r="D708" t="s">
         <v>1463</v>
@@ -77435,10 +77456,10 @@
         <v>3249</v>
       </c>
       <c r="B1725" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="C1725" t="s">
-        <v>1462</v>
+        <v>1459</v>
       </c>
       <c r="D1725" t="s">
         <v>1465</v>
@@ -81054,7 +81075,7 @@
     </row>
     <row r="1814" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1814" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="B1814" t="s">
         <v>1413</v>
@@ -81065,32 +81086,360 @@
       <c r="D1814" t="s">
         <v>1463</v>
       </c>
-      <c r="E1814" t="s">
+      <c r="E1814">
+        <v>26548</v>
+      </c>
+      <c r="F1814" t="s">
         <v>3348</v>
       </c>
-      <c r="F1814" t="s">
-        <v>3349</v>
-      </c>
       <c r="G1814" t="s">
-        <v>2760</v>
+        <v>1399</v>
       </c>
       <c r="H1814" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="I1814" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="J1814" t="s">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="K1814">
         <v>682668</v>
       </c>
       <c r="L1814" t="s">
+        <v>3348</v>
+      </c>
+      <c r="M1814" t="s">
+        <v>3348</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1815" t="s">
         <v>3349</v>
       </c>
-      <c r="M1814" t="s">
+      <c r="B1815" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1815">
+        <v>27504</v>
+      </c>
+      <c r="F1815" t="s">
         <v>3349</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>1401</v>
+      </c>
+      <c r="H1815" t="s">
+        <v>3349</v>
+      </c>
+      <c r="I1815" t="s">
+        <v>3349</v>
+      </c>
+      <c r="J1815" t="s">
+        <v>3349</v>
+      </c>
+      <c r="K1815">
+        <v>694377</v>
+      </c>
+      <c r="L1815" t="s">
+        <v>3349</v>
+      </c>
+      <c r="M1815" t="s">
+        <v>3349</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1816" t="s">
+        <v>3350</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1816">
+        <v>23395</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>3350</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>1400</v>
+      </c>
+      <c r="H1816" t="s">
+        <v>3350</v>
+      </c>
+      <c r="I1816" t="s">
+        <v>3350</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>3350</v>
+      </c>
+      <c r="K1816">
+        <v>676572</v>
+      </c>
+      <c r="L1816" t="s">
+        <v>3350</v>
+      </c>
+      <c r="M1816" t="s">
+        <v>3350</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1817" t="s">
+        <v>3351</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E1817">
+        <v>22707</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>3351</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1817" t="s">
+        <v>3351</v>
+      </c>
+      <c r="I1817" t="s">
+        <v>3351</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>3351</v>
+      </c>
+      <c r="K1817">
+        <v>672569</v>
+      </c>
+      <c r="L1817" t="s">
+        <v>3351</v>
+      </c>
+      <c r="M1817" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1818" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>1450</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1818">
+        <v>19314</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>2838</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>2760</v>
+      </c>
+      <c r="H1818" t="s">
+        <v>2838</v>
+      </c>
+      <c r="I1818" t="s">
+        <v>2838</v>
+      </c>
+      <c r="J1818" t="s">
+        <v>2838</v>
+      </c>
+      <c r="K1818">
+        <v>622268</v>
+      </c>
+      <c r="L1818" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M1818" t="s">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1819" t="s">
+        <v>3352</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1819">
+        <v>23372</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>3352</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>1397</v>
+      </c>
+      <c r="H1819" t="s">
+        <v>3352</v>
+      </c>
+      <c r="I1819" t="s">
+        <v>3352</v>
+      </c>
+      <c r="J1819" t="s">
+        <v>3352</v>
+      </c>
+      <c r="K1819">
+        <v>676439</v>
+      </c>
+      <c r="L1819" t="s">
+        <v>3352</v>
+      </c>
+      <c r="M1819" t="s">
+        <v>3352</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1820" t="s">
+        <v>3353</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1820">
+        <v>21496</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>3353</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1820" t="s">
+        <v>3353</v>
+      </c>
+      <c r="I1820" t="s">
+        <v>3353</v>
+      </c>
+      <c r="J1820" t="s">
+        <v>3353</v>
+      </c>
+      <c r="K1820">
+        <v>663604</v>
+      </c>
+      <c r="L1820" t="s">
+        <v>3353</v>
+      </c>
+      <c r="M1820" t="s">
+        <v>3353</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1821" t="s">
+        <v>3354</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1821">
+        <v>23442</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>3354</v>
+      </c>
+      <c r="G1821" t="s">
+        <v>2769</v>
+      </c>
+      <c r="H1821" t="s">
+        <v>3354</v>
+      </c>
+      <c r="I1821" t="s">
+        <v>3354</v>
+      </c>
+      <c r="J1821" t="s">
+        <v>3354</v>
+      </c>
+      <c r="K1821">
+        <v>676679</v>
+      </c>
+      <c r="L1821" t="s">
+        <v>3354</v>
+      </c>
+      <c r="M1821" t="s">
+        <v>3354</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1822" t="s">
+        <v>3355</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>1464</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>3356</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>3355</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>2768</v>
+      </c>
+      <c r="H1822" t="s">
+        <v>3355</v>
+      </c>
+      <c r="I1822" t="s">
+        <v>3355</v>
+      </c>
+      <c r="J1822" t="s">
+        <v>3355</v>
+      </c>
+      <c r="K1822">
+        <v>687957</v>
+      </c>
+      <c r="L1822" t="s">
+        <v>3355</v>
+      </c>
+      <c r="M1822" t="s">
+        <v>3355</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99A5AB6E-09A0-4E1D-A17D-956538318D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59419B38-7332-48FA-BD77-97449F79FE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21234" uniqueCount="3357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21245" uniqueCount="3358">
   <si>
     <t>mlb_name</t>
   </si>
@@ -10104,6 +10104,9 @@
   </si>
   <si>
     <t>sa123</t>
+  </si>
+  <si>
+    <t>Kevin Alcantara</t>
   </si>
 </sst>
 </file>
@@ -10500,11 +10503,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M1822"/>
+  <dimension ref="A1:M1823"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1798" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1823" sqref="E1823"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1799" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1824" sqref="K1824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -81442,6 +81445,47 @@
         <v>3355</v>
       </c>
     </row>
+    <row r="1823" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1823" t="s">
+        <v>3357</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>1463</v>
+      </c>
+      <c r="E1823">
+        <v>25971</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>3357</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>1398</v>
+      </c>
+      <c r="H1823" t="s">
+        <v>3357</v>
+      </c>
+      <c r="I1823" t="s">
+        <v>3357</v>
+      </c>
+      <c r="J1823" t="s">
+        <v>3357</v>
+      </c>
+      <c r="K1823">
+        <v>682634</v>
+      </c>
+      <c r="L1823" t="s">
+        <v>3357</v>
+      </c>
+      <c r="M1823" t="s">
+        <v>3357</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I1395">
     <sortCondition ref="A2:A1395"/>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A36FCCC8-C0B5-4948-8D80-C9D2F6C84BA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2EC3034-E5E0-4C6E-9363-39B3AD18980E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21562" uniqueCount="2124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21626" uniqueCount="2131">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6410,6 +6410,27 @@
   </si>
   <si>
     <t>Jake Mangum</t>
+  </si>
+  <si>
+    <t>Christian Koss</t>
+  </si>
+  <si>
+    <t>Isaac Collins</t>
+  </si>
+  <si>
+    <t>Zach Dezenzo</t>
+  </si>
+  <si>
+    <t>Hayden Senger</t>
+  </si>
+  <si>
+    <t>Carlos Narvaez</t>
+  </si>
+  <si>
+    <t>J.C. Escarra</t>
+  </si>
+  <si>
+    <t>JC Escarra</t>
   </si>
 </sst>
 </file>
@@ -6792,8 +6813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1871"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1763" workbookViewId="0">
-      <selection activeCell="K1789" sqref="K1789"/>
+    <sheetView tabSelected="1" topLeftCell="A1768" workbookViewId="0">
+      <selection activeCell="N1794" sqref="N1794"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -59691,11 +59712,11 @@
         <v>1887</v>
       </c>
       <c r="B1235" t="s">
-        <v>103</v>
+        <v>52</v>
       </c>
       <c r="C1235" t="str">
         <f>VLOOKUP(B1235,Teams!$A:$B,2,FALSE)</f>
-        <v>Los Angeles Angels</v>
+        <v>Colorado Rockies</v>
       </c>
       <c r="D1235" t="s">
         <v>61</v>
@@ -63423,11 +63444,11 @@
         <v>1449</v>
       </c>
       <c r="B1322" t="s">
-        <v>219</v>
+        <v>103</v>
       </c>
       <c r="C1322" t="str">
         <f>VLOOKUP(B1322,Teams!$A:$B,2,FALSE)</f>
-        <v>Chicago White Sox</v>
+        <v>Los Angeles Angels</v>
       </c>
       <c r="D1322" t="s">
         <v>61</v>
@@ -74100,11 +74121,11 @@
         <v>1752</v>
       </c>
       <c r="B1572" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C1572" t="str">
         <f>VLOOKUP(B1572,Teams!$A:$B,2,FALSE)</f>
-        <v>Cincinnati Reds</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="D1572" t="s">
         <v>16</v>
@@ -83304,8 +83325,8 @@
       <c r="D1787" t="s">
         <v>35</v>
       </c>
-      <c r="E1787" t="s">
-        <v>83</v>
+      <c r="E1787">
+        <v>26202</v>
       </c>
       <c r="F1787" t="s">
         <v>2123</v>
@@ -83336,72 +83357,270 @@
       </c>
     </row>
     <row r="1788" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1788" t="e">
+      <c r="A1788" t="s">
+        <v>2124</v>
+      </c>
+      <c r="B1788" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1788" t="str">
         <f>VLOOKUP(B1788,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>San Francisco Giants</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1788">
+        <v>27653</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>2124</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1788" t="s">
+        <v>2124</v>
+      </c>
+      <c r="I1788" t="s">
+        <v>2124</v>
+      </c>
+      <c r="J1788" t="s">
+        <v>2124</v>
+      </c>
+      <c r="K1788">
+        <v>683766</v>
+      </c>
+      <c r="L1788" t="s">
+        <v>2124</v>
+      </c>
+      <c r="M1788" t="s">
+        <v>2124</v>
+      </c>
+      <c r="N1788" t="s">
+        <v>2112</v>
       </c>
     </row>
     <row r="1789" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1789" t="e">
+      <c r="A1789" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1789" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1789" t="str">
         <f>VLOOKUP(B1789,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1789" t="e">
-        <f>VLOOKUP(B1789,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Milwaukee Brewers</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1789">
+        <v>25477</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>2125</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1789" t="s">
+        <v>2125</v>
+      </c>
+      <c r="I1789" t="s">
+        <v>2125</v>
+      </c>
+      <c r="J1789" t="s">
+        <v>2125</v>
+      </c>
+      <c r="L1789" t="s">
+        <v>2125</v>
+      </c>
+      <c r="M1789" t="s">
+        <v>2125</v>
       </c>
     </row>
     <row r="1790" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1790" t="e">
+      <c r="A1790" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B1790" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1790" t="str">
         <f>VLOOKUP(B1790,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1790" t="e">
-        <f>VLOOKUP(B1790,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Houston Astros</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1790">
+        <v>31562</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G1790" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1790" t="s">
+        <v>2126</v>
+      </c>
+      <c r="I1790" t="s">
+        <v>2126</v>
+      </c>
+      <c r="J1790" t="s">
+        <v>2126</v>
+      </c>
+      <c r="L1790" t="s">
+        <v>2126</v>
+      </c>
+      <c r="M1790" t="s">
+        <v>2126</v>
+      </c>
+      <c r="N1790" t="s">
+        <v>2092</v>
       </c>
     </row>
     <row r="1791" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1791" t="e">
+      <c r="A1791" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1791" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1791" t="str">
         <f>VLOOKUP(B1791,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1791" t="e">
-        <f>VLOOKUP(B1791,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>New York Mets</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1791">
+        <v>21489</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>2127</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1791" t="s">
+        <v>2127</v>
+      </c>
+      <c r="I1791" t="s">
+        <v>2127</v>
+      </c>
+      <c r="J1791" t="s">
+        <v>2127</v>
+      </c>
+      <c r="L1791" t="s">
+        <v>2127</v>
+      </c>
+      <c r="M1791" t="s">
+        <v>2127</v>
+      </c>
+      <c r="N1791" t="s">
+        <v>2110</v>
       </c>
     </row>
     <row r="1792" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1792" t="e">
+      <c r="A1792" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B1792" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1792" t="str">
         <f>VLOOKUP(B1792,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1792" t="e">
-        <f>VLOOKUP(B1792,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1793" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1793" t="e">
+        <v>Boston Red Sox</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1792">
+        <v>19722</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>2128</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1792" t="s">
+        <v>2128</v>
+      </c>
+      <c r="I1792" t="s">
+        <v>2128</v>
+      </c>
+      <c r="J1792" t="s">
+        <v>2128</v>
+      </c>
+      <c r="K1792">
+        <v>665966</v>
+      </c>
+      <c r="L1792" t="s">
+        <v>2128</v>
+      </c>
+      <c r="M1792" t="s">
+        <v>2128</v>
+      </c>
+      <c r="N1792" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1793" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1793" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1793" t="str">
         <f>VLOOKUP(B1793,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1793" t="e">
-        <f>VLOOKUP(B1793,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1794" spans="3:14" x14ac:dyDescent="0.3">
+        <v>New York Yankees</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1793">
+        <v>20084</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>2130</v>
+      </c>
+      <c r="G1793" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1793" t="s">
+        <v>2129</v>
+      </c>
+      <c r="I1793" t="s">
+        <v>2129</v>
+      </c>
+      <c r="J1793" t="s">
+        <v>2129</v>
+      </c>
+      <c r="K1793">
+        <v>641555</v>
+      </c>
+      <c r="L1793" t="s">
+        <v>2129</v>
+      </c>
+      <c r="M1793" t="s">
+        <v>2129</v>
+      </c>
+      <c r="N1793" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1794" t="e">
         <f>VLOOKUP(B1794,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N1794" t="e">
-        <f>VLOOKUP(B1794,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1795" spans="3:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="1795" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1795" t="e">
         <f>VLOOKUP(B1795,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83411,7 +83630,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1796" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1796" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1796" t="e">
         <f>VLOOKUP(B1796,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83421,7 +83640,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1797" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1797" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1797" t="e">
         <f>VLOOKUP(B1797,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83431,7 +83650,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1798" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1798" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1798" t="e">
         <f>VLOOKUP(B1798,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83441,7 +83660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1799" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1799" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1799" t="e">
         <f>VLOOKUP(B1799,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83451,7 +83670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1800" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1800" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1800" t="e">
         <f>VLOOKUP(B1800,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83461,7 +83680,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1801" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1801" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1801" t="e">
         <f>VLOOKUP(B1801,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83471,7 +83690,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1802" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1802" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1802" t="e">
         <f>VLOOKUP(B1802,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83481,7 +83700,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1803" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1803" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1803" t="e">
         <f>VLOOKUP(B1803,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83491,7 +83710,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1804" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1804" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1804" t="e">
         <f>VLOOKUP(B1804,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83501,7 +83720,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1805" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1805" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1805" t="e">
         <f>VLOOKUP(B1805,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83511,7 +83730,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1806" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1806" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1806" t="e">
         <f>VLOOKUP(B1806,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83521,7 +83740,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1807" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1807" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1807" t="e">
         <f>VLOOKUP(B1807,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -83531,7 +83750,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1808" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1808" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1808" t="e">
         <f>VLOOKUP(B1808,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C91568AE-6283-4602-A386-AC63D4E5D6D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85851048-5C0E-4572-B3B8-17202FF590E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21702" uniqueCount="2136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21723" uniqueCount="2138">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6446,6 +6446,12 @@
   </si>
   <si>
     <t>Leo Rivas</t>
+  </si>
+  <si>
+    <t>Ben Williamson</t>
+  </si>
+  <si>
+    <t>Gage Workman</t>
   </si>
 </sst>
 </file>
@@ -6828,8 +6834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
-      <selection activeCell="E277" sqref="E277"/>
+    <sheetView tabSelected="1" topLeftCell="A1790" workbookViewId="0">
+      <selection activeCell="E1804" sqref="E1804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -83988,23 +83994,89 @@
       </c>
     </row>
     <row r="1802" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1802" t="e">
+      <c r="A1802" t="s">
+        <v>2136</v>
+      </c>
+      <c r="B1802" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1802" t="str">
         <f>VLOOKUP(B1802,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1802" t="e">
+        <v>Seattle Mariners</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>2136</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1802" t="s">
+        <v>2136</v>
+      </c>
+      <c r="I1802" t="s">
+        <v>2136</v>
+      </c>
+      <c r="J1802" t="s">
+        <v>2136</v>
+      </c>
+      <c r="L1802" t="s">
+        <v>2136</v>
+      </c>
+      <c r="M1802" t="s">
+        <v>2136</v>
+      </c>
+      <c r="N1802" t="str">
         <f>VLOOKUP(B1802,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seattle</v>
       </c>
     </row>
     <row r="1803" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1803" t="e">
+      <c r="A1803" t="s">
+        <v>2137</v>
+      </c>
+      <c r="B1803" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1803" t="str">
         <f>VLOOKUP(B1803,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1803" t="e">
+        <v>Chicago Cubs</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1803">
+        <v>27573</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>2137</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H1803" t="s">
+        <v>2137</v>
+      </c>
+      <c r="I1803" t="s">
+        <v>2137</v>
+      </c>
+      <c r="J1803" t="s">
+        <v>2137</v>
+      </c>
+      <c r="L1803" t="s">
+        <v>2137</v>
+      </c>
+      <c r="M1803" t="s">
+        <v>2137</v>
+      </c>
+      <c r="N1803" t="str">
         <f>VLOOKUP(B1803,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1804" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85851048-5C0E-4572-B3B8-17202FF590E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BC1C80-A8E2-4EF4-9F53-C0433A6B0002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21723" uniqueCount="2138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21754" uniqueCount="2143">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6452,6 +6452,21 @@
   </si>
   <si>
     <t>Gage Workman</t>
+  </si>
+  <si>
+    <t>Luke Keaschall</t>
+  </si>
+  <si>
+    <t>DaShawn Keirsey</t>
+  </si>
+  <si>
+    <t>Caleb Durbin</t>
+  </si>
+  <si>
+    <t>DaShawn Keirsey jr</t>
+  </si>
+  <si>
+    <t>sa345</t>
   </si>
 </sst>
 </file>
@@ -6832,10 +6847,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1864"/>
+  <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1790" workbookViewId="0">
-      <selection activeCell="E1804" sqref="E1804"/>
+    <sheetView tabSelected="1" topLeftCell="A1752" workbookViewId="0">
+      <selection activeCell="K1803" sqref="K1803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9847,11 +9862,11 @@
         <v>453</v>
       </c>
       <c r="B71" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP(B71,Teams!$A:$B,2,FALSE)</f>
-        <v>New York Yankees</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="D71" t="s">
         <v>61</v>
@@ -9884,7 +9899,7 @@
         <v>453</v>
       </c>
       <c r="N71" t="s">
-        <v>2109</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
@@ -84007,8 +84022,8 @@
       <c r="D1802" t="s">
         <v>16</v>
       </c>
-      <c r="E1802" t="s">
-        <v>83</v>
+      <c r="E1802">
+        <v>33197</v>
       </c>
       <c r="F1802" t="s">
         <v>2136</v>
@@ -84024,6 +84039,9 @@
       </c>
       <c r="J1802" t="s">
         <v>2136</v>
+      </c>
+      <c r="K1802">
+        <v>810938</v>
       </c>
       <c r="L1802" t="s">
         <v>2136</v>
@@ -84068,6 +84086,9 @@
       <c r="J1803" t="s">
         <v>2137</v>
       </c>
+      <c r="K1803">
+        <v>669398</v>
+      </c>
       <c r="L1803" t="s">
         <v>2137</v>
       </c>
@@ -84080,33 +84101,138 @@
       </c>
     </row>
     <row r="1804" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1804" t="e">
+      <c r="A1804" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B1804" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1804" t="str">
         <f>VLOOKUP(B1804,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1804" t="e">
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>2138</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1804" t="s">
+        <v>2138</v>
+      </c>
+      <c r="I1804" t="s">
+        <v>2138</v>
+      </c>
+      <c r="J1804" t="s">
+        <v>2138</v>
+      </c>
+      <c r="K1804">
+        <v>807712</v>
+      </c>
+      <c r="L1804" t="s">
+        <v>2138</v>
+      </c>
+      <c r="M1804" t="s">
+        <v>2138</v>
+      </c>
+      <c r="N1804" t="str">
         <f>VLOOKUP(B1804,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1805" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1805" t="e">
+      <c r="A1805" t="s">
+        <v>2139</v>
+      </c>
+      <c r="B1805" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1805" t="str">
         <f>VLOOKUP(B1805,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1805" t="e">
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1805">
+        <v>24496</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>2141</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1805" t="s">
+        <v>2139</v>
+      </c>
+      <c r="I1805" t="s">
+        <v>2139</v>
+      </c>
+      <c r="J1805" t="s">
+        <v>2139</v>
+      </c>
+      <c r="K1805">
+        <v>680577</v>
+      </c>
+      <c r="L1805" t="s">
+        <v>2139</v>
+      </c>
+      <c r="M1805" t="s">
+        <v>2139</v>
+      </c>
+      <c r="N1805" t="str">
         <f>VLOOKUP(B1805,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1806" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1806" t="e">
+      <c r="A1806" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B1806" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1806" t="str">
         <f>VLOOKUP(B1806,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1806" t="e">
+        <v>Milwaukee Brewers</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>2140</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1806" t="s">
+        <v>2140</v>
+      </c>
+      <c r="I1806" t="s">
+        <v>2140</v>
+      </c>
+      <c r="J1806" t="s">
+        <v>2140</v>
+      </c>
+      <c r="L1806" t="s">
+        <v>2140</v>
+      </c>
+      <c r="M1806" t="s">
+        <v>2140</v>
+      </c>
+      <c r="N1806" t="str">
         <f>VLOOKUP(B1806,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Milwaukee</v>
       </c>
     </row>
     <row r="1807" spans="1:14" x14ac:dyDescent="0.3">
@@ -84144,10 +84270,6 @@
         <f>VLOOKUP(B1810,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N1810" t="e">
-        <f>VLOOKUP(B1810,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
     </row>
     <row r="1811" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1811" t="e">
@@ -84464,12 +84586,6 @@
     <row r="1863" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C1863" t="e">
         <f>VLOOKUP(B1863,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1864" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1864" t="e">
-        <f>VLOOKUP(B1864,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BC1C80-A8E2-4EF4-9F53-C0433A6B0002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34428FA-FEF5-4873-9B80-FF421BE3A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21754" uniqueCount="2143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21802" uniqueCount="2147">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6466,7 +6466,19 @@
     <t>DaShawn Keirsey jr</t>
   </si>
   <si>
-    <t>sa345</t>
+    <t>Mason McCoy</t>
+  </si>
+  <si>
+    <t>Agustin Ramirez</t>
+  </si>
+  <si>
+    <t>Aaron Schunk</t>
+  </si>
+  <si>
+    <t>Edgar Quero</t>
+  </si>
+  <si>
+    <t>Chandler Simpson</t>
   </si>
 </sst>
 </file>
@@ -6849,8 +6861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1752" workbookViewId="0">
-      <selection activeCell="K1803" sqref="K1803"/>
+    <sheetView tabSelected="1" topLeftCell="A1786" workbookViewId="0">
+      <selection activeCell="E1812" sqref="E1812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84114,14 +84126,14 @@
       <c r="D1804" t="s">
         <v>16</v>
       </c>
-      <c r="E1804" t="s">
-        <v>83</v>
+      <c r="E1804">
+        <v>33321</v>
       </c>
       <c r="F1804" t="s">
         <v>2138</v>
       </c>
       <c r="G1804" t="s">
-        <v>72</v>
+        <v>1329</v>
       </c>
       <c r="H1804" t="s">
         <v>2138</v>
@@ -84206,14 +84218,14 @@
       <c r="D1806" t="s">
         <v>16</v>
       </c>
-      <c r="E1806" t="s">
-        <v>2142</v>
+      <c r="E1806">
+        <v>29646</v>
       </c>
       <c r="F1806" t="s">
         <v>2140</v>
       </c>
       <c r="G1806" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H1806" t="s">
         <v>2140</v>
@@ -84236,216 +84248,497 @@
       </c>
     </row>
     <row r="1807" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1807" t="e">
+      <c r="A1807" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B1807" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1807" t="str">
         <f>VLOOKUP(B1807,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1807" t="e">
+        <v>San Diego Padres</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1807">
+        <v>22232</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1807" t="s">
+        <v>2142</v>
+      </c>
+      <c r="I1807" t="s">
+        <v>2142</v>
+      </c>
+      <c r="J1807" t="s">
+        <v>2142</v>
+      </c>
+      <c r="L1807" t="s">
+        <v>2142</v>
+      </c>
+      <c r="M1807" t="s">
+        <v>2142</v>
+      </c>
+      <c r="N1807" t="str">
         <f>VLOOKUP(B1807,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>San Diego</v>
       </c>
     </row>
     <row r="1808" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1808" t="e">
+      <c r="A1808" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B1808" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1808" t="str">
         <f>VLOOKUP(B1808,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1808" t="e">
+        <v>Miami Marlins</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1808">
+        <v>26546</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>2143</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1808" t="s">
+        <v>2143</v>
+      </c>
+      <c r="I1808" t="s">
+        <v>2143</v>
+      </c>
+      <c r="J1808" t="s">
+        <v>2143</v>
+      </c>
+      <c r="L1808" t="s">
+        <v>2143</v>
+      </c>
+      <c r="M1808" t="s">
+        <v>2143</v>
+      </c>
+      <c r="N1808" t="str">
         <f>VLOOKUP(B1808,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1809" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1809" t="e">
+        <v>Miami</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1809" t="s">
+        <v>2144</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1809" t="str">
         <f>VLOOKUP(B1809,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1809" t="e">
+        <v>Colorado Rockies</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1809">
+        <v>25524</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1809" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H1809" t="s">
+        <v>2144</v>
+      </c>
+      <c r="I1809" t="s">
+        <v>2144</v>
+      </c>
+      <c r="J1809" t="s">
+        <v>2144</v>
+      </c>
+      <c r="L1809" t="s">
+        <v>2144</v>
+      </c>
+      <c r="M1809" t="s">
+        <v>2144</v>
+      </c>
+      <c r="N1809" t="str">
         <f>VLOOKUP(B1809,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1810" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1810" t="e">
+        <v>Colorado</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1810" t="s">
+        <v>2145</v>
+      </c>
+      <c r="B1810" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1810" t="str">
         <f>VLOOKUP(B1810,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1811" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1811" t="e">
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1810">
+        <v>28022</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>2145</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1810" t="s">
+        <v>2145</v>
+      </c>
+      <c r="I1810" t="s">
+        <v>2145</v>
+      </c>
+      <c r="J1810" t="s">
+        <v>2145</v>
+      </c>
+      <c r="L1810" t="s">
+        <v>2145</v>
+      </c>
+      <c r="M1810" t="s">
+        <v>2145</v>
+      </c>
+      <c r="N1810" t="str">
+        <f>VLOOKUP(B1810,Teams!A:C,3,FALSE)</f>
+        <v>Chicago</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1811" t="s">
+        <v>2146</v>
+      </c>
+      <c r="B1811" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1811" t="str">
         <f>VLOOKUP(B1811,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1812" spans="3:14" x14ac:dyDescent="0.3">
+        <v>Tampa Bay Rays</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1811">
+        <v>31912</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>2146</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1811" t="s">
+        <v>2146</v>
+      </c>
+      <c r="I1811" t="s">
+        <v>2146</v>
+      </c>
+      <c r="J1811" t="s">
+        <v>2146</v>
+      </c>
+      <c r="L1811" t="s">
+        <v>2146</v>
+      </c>
+      <c r="M1811" t="s">
+        <v>2146</v>
+      </c>
+      <c r="N1811" t="str">
+        <f>VLOOKUP(B1811,Teams!A:C,3,FALSE)</f>
+        <v>Tampa Bay</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1812" t="e">
         <f>VLOOKUP(B1812,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1813" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1812" t="e">
+        <f>VLOOKUP(B1812,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1813" t="e">
         <f>VLOOKUP(B1813,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1814" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1813" t="e">
+        <f>VLOOKUP(B1813,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1814" t="e">
         <f>VLOOKUP(B1814,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1815" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1814" t="e">
+        <f>VLOOKUP(B1814,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1815" t="e">
         <f>VLOOKUP(B1815,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1816" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1815" t="e">
+        <f>VLOOKUP(B1815,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1816" t="e">
         <f>VLOOKUP(B1816,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1817" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1816" t="e">
+        <f>VLOOKUP(B1816,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1817" t="e">
         <f>VLOOKUP(B1817,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1818" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1817" t="e">
+        <f>VLOOKUP(B1817,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1818" t="e">
         <f>VLOOKUP(B1818,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1819" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1818" t="e">
+        <f>VLOOKUP(B1818,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1819" t="e">
         <f>VLOOKUP(B1819,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1820" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1819" t="e">
+        <f>VLOOKUP(B1819,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1820" t="e">
         <f>VLOOKUP(B1820,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1821" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1820" t="e">
+        <f>VLOOKUP(B1820,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1821" t="e">
         <f>VLOOKUP(B1821,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1822" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1821" t="e">
+        <f>VLOOKUP(B1821,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1822" t="e">
         <f>VLOOKUP(B1822,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1823" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1822" t="e">
+        <f>VLOOKUP(B1822,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1823" t="e">
         <f>VLOOKUP(B1823,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1824" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="N1823" t="e">
+        <f>VLOOKUP(B1823,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1824" t="e">
         <f>VLOOKUP(B1824,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1825" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1824" t="e">
+        <f>VLOOKUP(B1824,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1825" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1825" t="e">
         <f>VLOOKUP(B1825,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1826" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1825" t="e">
+        <f>VLOOKUP(B1825,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1826" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1826" t="e">
         <f>VLOOKUP(B1826,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1827" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1826" t="e">
+        <f>VLOOKUP(B1826,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1827" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1827" t="e">
         <f>VLOOKUP(B1827,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1828" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1827" t="e">
+        <f>VLOOKUP(B1827,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1828" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1828" t="e">
         <f>VLOOKUP(B1828,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1829" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1828" t="e">
+        <f>VLOOKUP(B1828,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1829" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1829" t="e">
         <f>VLOOKUP(B1829,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1830" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1829" t="e">
+        <f>VLOOKUP(B1829,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1830" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1830" t="e">
         <f>VLOOKUP(B1830,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1831" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1830" t="e">
+        <f>VLOOKUP(B1830,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1831" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1831" t="e">
         <f>VLOOKUP(B1831,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1832" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1831" t="e">
+        <f>VLOOKUP(B1831,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1832" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1832" t="e">
         <f>VLOOKUP(B1832,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1833" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1832" t="e">
+        <f>VLOOKUP(B1832,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1833" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1833" t="e">
         <f>VLOOKUP(B1833,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1834" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1833" t="e">
+        <f>VLOOKUP(B1833,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1834" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1834" t="e">
         <f>VLOOKUP(B1834,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1835" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1834" t="e">
+        <f>VLOOKUP(B1834,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1835" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1835" t="e">
         <f>VLOOKUP(B1835,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1836" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1835" t="e">
+        <f>VLOOKUP(B1835,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1836" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1836" t="e">
         <f>VLOOKUP(B1836,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1837" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1836" t="e">
+        <f>VLOOKUP(B1836,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1837" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1837" t="e">
         <f>VLOOKUP(B1837,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1838" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1837" t="e">
+        <f>VLOOKUP(B1837,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1838" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1838" t="e">
         <f>VLOOKUP(B1838,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1839" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1838" t="e">
+        <f>VLOOKUP(B1838,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1839" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1839" t="e">
         <f>VLOOKUP(B1839,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1840" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1840" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1840" t="e">
         <f>VLOOKUP(B1840,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E34428FA-FEF5-4873-9B80-FF421BE3A26F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A9CD6-0AA4-4C39-A2C1-30501C875361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21802" uniqueCount="2147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21822" uniqueCount="2149">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6479,6 +6479,12 @@
   </si>
   <si>
     <t>Chandler Simpson</t>
+  </si>
+  <si>
+    <t>Tirso Ornelas</t>
+  </si>
+  <si>
+    <t>Nick Kurtz</t>
   </si>
 </sst>
 </file>
@@ -6861,8 +6867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1786" workbookViewId="0">
-      <selection activeCell="E1812" sqref="E1812"/>
+    <sheetView tabSelected="1" topLeftCell="A1788" workbookViewId="0">
+      <selection activeCell="K1814" sqref="K1814"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84463,23 +84469,95 @@
       </c>
     </row>
     <row r="1812" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1812" t="e">
+      <c r="A1812" t="s">
+        <v>2147</v>
+      </c>
+      <c r="B1812" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1812" t="str">
         <f>VLOOKUP(B1812,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1812" t="e">
+        <v>San Diego Padres</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1812">
+        <v>22566</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1812" t="s">
+        <v>2147</v>
+      </c>
+      <c r="I1812" t="s">
+        <v>2147</v>
+      </c>
+      <c r="J1812" t="s">
+        <v>2147</v>
+      </c>
+      <c r="K1812">
+        <v>672359</v>
+      </c>
+      <c r="L1812" t="s">
+        <v>2147</v>
+      </c>
+      <c r="M1812" t="s">
+        <v>2147</v>
+      </c>
+      <c r="N1812" t="str">
         <f>VLOOKUP(B1812,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>San Diego</v>
       </c>
     </row>
     <row r="1813" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1813" t="e">
+      <c r="A1813" t="s">
+        <v>2148</v>
+      </c>
+      <c r="B1813" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1813" t="str">
         <f>VLOOKUP(B1813,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1813" t="e">
+        <v>ATH</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1813">
+        <v>35110</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>2148</v>
+      </c>
+      <c r="G1813" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1813" t="s">
+        <v>2148</v>
+      </c>
+      <c r="I1813" t="s">
+        <v>2148</v>
+      </c>
+      <c r="J1813" t="s">
+        <v>2148</v>
+      </c>
+      <c r="K1813">
+        <v>701762</v>
+      </c>
+      <c r="L1813" t="s">
+        <v>2148</v>
+      </c>
+      <c r="M1813" t="s">
+        <v>2148</v>
+      </c>
+      <c r="N1813" t="str">
         <f>VLOOKUP(B1813,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>ATH</v>
       </c>
     </row>
     <row r="1814" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A3A9CD6-0AA4-4C39-A2C1-30501C875361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2CD05-CF7F-45CC-80D6-F138CE18A5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21822" uniqueCount="2149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21842" uniqueCount="2150">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6485,6 +6485,9 @@
   </si>
   <si>
     <t>Nick Kurtz</t>
+  </si>
+  <si>
+    <t>Ronny Simon</t>
   </si>
 </sst>
 </file>
@@ -6867,8 +6870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1788" workbookViewId="0">
-      <selection activeCell="K1814" sqref="K1814"/>
+    <sheetView tabSelected="1" topLeftCell="A1790" workbookViewId="0">
+      <selection activeCell="K1816" sqref="K1816"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84561,23 +84564,95 @@
       </c>
     </row>
     <row r="1814" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1814" t="e">
+      <c r="A1814" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B1814" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1814" t="str">
         <f>VLOOKUP(B1814,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1814" t="e">
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1814">
+        <v>24703</v>
+      </c>
+      <c r="F1814" t="s">
+        <v>1898</v>
+      </c>
+      <c r="G1814" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>1898</v>
+      </c>
+      <c r="I1814" t="s">
+        <v>1898</v>
+      </c>
+      <c r="J1814" t="s">
+        <v>1898</v>
+      </c>
+      <c r="K1814">
+        <v>681146</v>
+      </c>
+      <c r="L1814" t="s">
+        <v>1898</v>
+      </c>
+      <c r="M1814" t="s">
+        <v>1898</v>
+      </c>
+      <c r="N1814" t="str">
         <f>VLOOKUP(B1814,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1815" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1815" t="e">
+      <c r="A1815" t="s">
+        <v>2149</v>
+      </c>
+      <c r="B1815" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1815" t="str">
         <f>VLOOKUP(B1815,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1815" t="e">
+        <v>Miami Marlins</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1815">
+        <v>25346</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>2149</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1815" t="s">
+        <v>2149</v>
+      </c>
+      <c r="I1815" t="s">
+        <v>2149</v>
+      </c>
+      <c r="J1815" t="s">
+        <v>2149</v>
+      </c>
+      <c r="K1815">
+        <v>682927</v>
+      </c>
+      <c r="L1815" t="s">
+        <v>2149</v>
+      </c>
+      <c r="M1815" t="s">
+        <v>2149</v>
+      </c>
+      <c r="N1815" t="str">
         <f>VLOOKUP(B1815,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Miami</v>
       </c>
     </row>
     <row r="1816" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC2CD05-CF7F-45CC-80D6-F138CE18A5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9309BB6-B6FE-43A5-9BBC-9E0579B4CF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21842" uniqueCount="2150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21873" uniqueCount="2154">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6488,6 +6488,18 @@
   </si>
   <si>
     <t>Ronny Simon</t>
+  </si>
+  <si>
+    <t>Will Wilson</t>
+  </si>
+  <si>
+    <t>Rhylan Thomas</t>
+  </si>
+  <si>
+    <t>Gustavo Campero</t>
+  </si>
+  <si>
+    <t>sa12</t>
   </si>
 </sst>
 </file>
@@ -6870,12 +6882,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1790" workbookViewId="0">
-      <selection activeCell="K1816" sqref="K1816"/>
+    <sheetView tabSelected="1" topLeftCell="A1793" workbookViewId="0">
+      <selection activeCell="K1819" sqref="K1819"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
@@ -52195,11 +52208,11 @@
         <v>1858</v>
       </c>
       <c r="B1059" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C1059" t="str">
         <f>VLOOKUP(B1059,Teams!$A:$B,2,FALSE)</f>
-        <v>Philadelphia Phillies</v>
+        <v>Minnesota Twins</v>
       </c>
       <c r="D1059" t="s">
         <v>61</v>
@@ -52211,7 +52224,7 @@
         <v>1858</v>
       </c>
       <c r="G1059" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="H1059" t="s">
         <v>1858</v>
@@ -63547,11 +63560,11 @@
         <v>1449</v>
       </c>
       <c r="B1323" t="s">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="C1323" t="str">
         <f>VLOOKUP(B1323,Teams!$A:$B,2,FALSE)</f>
-        <v>Los Angeles Angels</v>
+        <v>Chicago Cubs</v>
       </c>
       <c r="D1323" t="s">
         <v>61</v>
@@ -63563,7 +63576,7 @@
         <v>1449</v>
       </c>
       <c r="G1323" t="s">
-        <v>40</v>
+        <v>1227</v>
       </c>
       <c r="H1323" t="s">
         <v>1449</v>
@@ -76402,11 +76415,11 @@
         <v>362</v>
       </c>
       <c r="B1624" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C1624" t="str">
         <f>VLOOKUP(B1624,Teams!$A:$B,2,FALSE)</f>
-        <v>Chicago White Sox</v>
+        <v>Tampa Bay Rays</v>
       </c>
       <c r="D1624" t="s">
         <v>61</v>
@@ -84656,33 +84669,141 @@
       </c>
     </row>
     <row r="1816" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1816" t="e">
+      <c r="A1816" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B1816" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1816" t="str">
         <f>VLOOKUP(B1816,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1816" t="e">
+        <v>Cleveland Indians</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1816">
+        <v>25434</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>1351</v>
+      </c>
+      <c r="H1816" t="s">
+        <v>2150</v>
+      </c>
+      <c r="I1816" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J1816" t="s">
+        <v>2150</v>
+      </c>
+      <c r="K1816">
+        <v>669717</v>
+      </c>
+      <c r="L1816" t="s">
+        <v>2150</v>
+      </c>
+      <c r="M1816" t="s">
+        <v>2150</v>
+      </c>
+      <c r="N1816" t="str">
         <f>VLOOKUP(B1816,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Cleveland</v>
       </c>
     </row>
     <row r="1817" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1817" t="e">
+      <c r="A1817" t="s">
+        <v>2151</v>
+      </c>
+      <c r="B1817" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1817" t="str">
         <f>VLOOKUP(B1817,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1817" t="e">
+        <v>Seattle Mariners</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>2151</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1817" t="s">
+        <v>2151</v>
+      </c>
+      <c r="I1817" t="s">
+        <v>2151</v>
+      </c>
+      <c r="J1817" t="s">
+        <v>2151</v>
+      </c>
+      <c r="K1817">
+        <v>689041</v>
+      </c>
+      <c r="L1817" t="s">
+        <v>2151</v>
+      </c>
+      <c r="M1817" t="s">
+        <v>2151</v>
+      </c>
+      <c r="N1817" t="str">
         <f>VLOOKUP(B1817,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seattle</v>
       </c>
     </row>
     <row r="1818" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1818" t="e">
+      <c r="A1818" t="s">
+        <v>2152</v>
+      </c>
+      <c r="B1818" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1818" t="str">
         <f>VLOOKUP(B1818,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1818" t="e">
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1818">
+        <v>22707</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>2152</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1818" t="s">
+        <v>2152</v>
+      </c>
+      <c r="I1818" t="s">
+        <v>2152</v>
+      </c>
+      <c r="J1818" t="s">
+        <v>2152</v>
+      </c>
+      <c r="K1818">
+        <v>672569</v>
+      </c>
+      <c r="L1818" t="s">
+        <v>2152</v>
+      </c>
+      <c r="M1818" t="s">
+        <v>2152</v>
+      </c>
+      <c r="N1818" t="str">
         <f>VLOOKUP(B1818,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1819" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9309BB6-B6FE-43A5-9BBC-9E0579B4CF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03235C41-2695-4159-91F2-763DE196868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21873" uniqueCount="2154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21912" uniqueCount="2157">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6499,7 +6499,16 @@
     <t>Gustavo Campero</t>
   </si>
   <si>
-    <t>sa12</t>
+    <t>Jorbit Vivas</t>
+  </si>
+  <si>
+    <t>Blaine Crim</t>
+  </si>
+  <si>
+    <t>Maverick Handley</t>
+  </si>
+  <si>
+    <t>Hyeseong Kim</t>
   </si>
 </sst>
 </file>
@@ -6882,8 +6891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1793" workbookViewId="0">
-      <selection activeCell="K1819" sqref="K1819"/>
+    <sheetView tabSelected="1" topLeftCell="A1797" workbookViewId="0">
+      <selection activeCell="K1823" sqref="K1823"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -84728,8 +84737,8 @@
       <c r="D1817" t="s">
         <v>61</v>
       </c>
-      <c r="E1817" t="s">
-        <v>2153</v>
+      <c r="E1817">
+        <v>31793</v>
       </c>
       <c r="F1817" t="s">
         <v>2151</v>
@@ -84807,43 +84816,187 @@
       </c>
     </row>
     <row r="1819" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1819" t="e">
+      <c r="A1819" t="s">
+        <v>2153</v>
+      </c>
+      <c r="B1819" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1819" t="str">
         <f>VLOOKUP(B1819,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1819" t="e">
+        <v>New York Yankees</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1819">
+        <v>23917</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1819" t="s">
+        <v>2153</v>
+      </c>
+      <c r="I1819" t="s">
+        <v>2153</v>
+      </c>
+      <c r="J1819" t="s">
+        <v>2153</v>
+      </c>
+      <c r="K1819">
+        <v>678391</v>
+      </c>
+      <c r="L1819" t="s">
+        <v>2153</v>
+      </c>
+      <c r="M1819" t="s">
+        <v>2153</v>
+      </c>
+      <c r="N1819" t="str">
         <f>VLOOKUP(B1819,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="1820" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1820" t="e">
+      <c r="A1820" t="s">
+        <v>2154</v>
+      </c>
+      <c r="B1820" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1820" t="str">
         <f>VLOOKUP(B1820,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1820" t="e">
+        <v>Texas Rangers</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1820">
+        <v>25714</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>2154</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1820" t="s">
+        <v>2154</v>
+      </c>
+      <c r="I1820" t="s">
+        <v>2154</v>
+      </c>
+      <c r="J1820" t="s">
+        <v>2154</v>
+      </c>
+      <c r="K1820">
+        <v>688760</v>
+      </c>
+      <c r="L1820" t="s">
+        <v>2154</v>
+      </c>
+      <c r="M1820" t="s">
+        <v>2154</v>
+      </c>
+      <c r="N1820" t="str">
         <f>VLOOKUP(B1820,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Texas</v>
       </c>
     </row>
     <row r="1821" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1821" t="e">
+      <c r="A1821" t="s">
+        <v>2155</v>
+      </c>
+      <c r="B1821" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1821" t="str">
         <f>VLOOKUP(B1821,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1821" t="e">
+        <v>Baltimore Orioles</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1821">
+        <v>26106</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>2155</v>
+      </c>
+      <c r="G1821" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1821" t="s">
+        <v>2155</v>
+      </c>
+      <c r="I1821" t="s">
+        <v>2155</v>
+      </c>
+      <c r="J1821" t="s">
+        <v>2155</v>
+      </c>
+      <c r="K1821">
+        <v>668974</v>
+      </c>
+      <c r="L1821" t="s">
+        <v>2155</v>
+      </c>
+      <c r="M1821" t="s">
+        <v>2155</v>
+      </c>
+      <c r="N1821" t="str">
         <f>VLOOKUP(B1821,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Baltimore</v>
       </c>
     </row>
     <row r="1822" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1822" t="e">
+      <c r="A1822" t="s">
+        <v>2156</v>
+      </c>
+      <c r="B1822" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1822" t="str">
         <f>VLOOKUP(B1822,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1822" t="e">
+        <v>Los Angeles Dodgers</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1822">
+        <v>35322</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1822" t="s">
+        <v>2156</v>
+      </c>
+      <c r="I1822" t="s">
+        <v>2156</v>
+      </c>
+      <c r="J1822" t="s">
+        <v>2156</v>
+      </c>
+      <c r="K1822">
+        <v>808975</v>
+      </c>
+      <c r="L1822" t="s">
+        <v>2156</v>
+      </c>
+      <c r="M1822" t="s">
+        <v>2156</v>
+      </c>
+      <c r="N1822" t="str">
         <f>VLOOKUP(B1822,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1823" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03235C41-2695-4159-91F2-763DE196868F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4369684-6610-4831-A9B0-9BFA9F9E0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21912" uniqueCount="2157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21922" uniqueCount="2158">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6509,6 +6509,9 @@
   </si>
   <si>
     <t>Hyeseong Kim</t>
+  </si>
+  <si>
+    <t>Matt Gorski</t>
   </si>
 </sst>
 </file>
@@ -6891,8 +6894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1797" workbookViewId="0">
-      <selection activeCell="K1823" sqref="K1823"/>
+    <sheetView tabSelected="1" topLeftCell="A1800" workbookViewId="0">
+      <selection activeCell="K1824" sqref="K1824"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85000,13 +85003,49 @@
       </c>
     </row>
     <row r="1823" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1823" t="e">
+      <c r="A1823" t="s">
+        <v>2157</v>
+      </c>
+      <c r="B1823" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1823" t="str">
         <f>VLOOKUP(B1823,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1823" t="e">
+        <v>Pittsburgh Pirates</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1823">
+        <v>25855</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>2157</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1823" t="s">
+        <v>2157</v>
+      </c>
+      <c r="I1823" t="s">
+        <v>2157</v>
+      </c>
+      <c r="J1823" t="s">
+        <v>2157</v>
+      </c>
+      <c r="K1823">
+        <v>685301</v>
+      </c>
+      <c r="L1823" t="s">
+        <v>2157</v>
+      </c>
+      <c r="M1823" t="s">
+        <v>2157</v>
+      </c>
+      <c r="N1823" t="str">
         <f>VLOOKUP(B1823,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Pittsburgh</v>
       </c>
     </row>
     <row r="1824" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28829"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4369684-6610-4831-A9B0-9BFA9F9E0453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114C8E0D-0BB9-4DB0-BB9D-1756F6D5F564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6894,8 +6894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1800" workbookViewId="0">
-      <selection activeCell="K1824" sqref="K1824"/>
+    <sheetView tabSelected="1" topLeftCell="C1082" workbookViewId="0">
+      <selection activeCell="N1096" sqref="N1096"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53780,11 +53780,11 @@
         <v>239</v>
       </c>
       <c r="B1095" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C1095" t="str">
         <f>VLOOKUP(B1095,Teams!$A:$B,2,FALSE)</f>
-        <v>Texas Rangers</v>
+        <v>Seattle Mariners</v>
       </c>
       <c r="D1095" t="s">
         <v>35</v>
@@ -53817,7 +53817,7 @@
         <v>239</v>
       </c>
       <c r="N1095" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
     </row>
     <row r="1096" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28829"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114C8E0D-0BB9-4DB0-BB9D-1756F6D5F564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99901F53-4A45-415B-8661-4A68C109E570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21922" uniqueCount="2158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22003" uniqueCount="2165">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6512,6 +6512,27 @@
   </si>
   <si>
     <t>Matt Gorski</t>
+  </si>
+  <si>
+    <t>Nick Sogard</t>
+  </si>
+  <si>
+    <t>Tim Elko</t>
+  </si>
+  <si>
+    <t>Moises Ballesteros</t>
+  </si>
+  <si>
+    <t>Jordan Lawlar</t>
+  </si>
+  <si>
+    <t>Rece Hinds</t>
+  </si>
+  <si>
+    <t>Matthew Lugo</t>
+  </si>
+  <si>
+    <t>Dalton Rushing</t>
   </si>
 </sst>
 </file>
@@ -6894,8 +6915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1082" workbookViewId="0">
-      <selection activeCell="N1096" sqref="N1096"/>
+    <sheetView tabSelected="1" topLeftCell="A1806" workbookViewId="0">
+      <selection activeCell="K1832" sqref="K1832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -23858,11 +23879,11 @@
         <v>443</v>
       </c>
       <c r="B397" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C397" t="str">
         <f>VLOOKUP(B397,Teams!$A:$B,2,FALSE)</f>
-        <v>San Diego Padres</v>
+        <v>Cincinnati Reds</v>
       </c>
       <c r="D397" t="s">
         <v>16</v>
@@ -23895,7 +23916,7 @@
         <v>443</v>
       </c>
       <c r="N397" t="s">
-        <v>2110</v>
+        <v>2099</v>
       </c>
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.3">
@@ -27662,11 +27683,11 @@
         <v>773</v>
       </c>
       <c r="B486" t="s">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="C486" t="str">
         <f>VLOOKUP(B486,Teams!$A:$B,2,FALSE)</f>
-        <v>Baltimore Orioles</v>
+        <v>Milwaukee Brewers</v>
       </c>
       <c r="D486" t="s">
         <v>16</v>
@@ -27696,7 +27717,7 @@
         <v>773</v>
       </c>
       <c r="N486" t="s">
-        <v>2105</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="487" spans="1:14" x14ac:dyDescent="0.3">
@@ -85049,86 +85070,374 @@
       </c>
     </row>
     <row r="1824" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1824" t="e">
+      <c r="A1824" t="s">
+        <v>2158</v>
+      </c>
+      <c r="B1824" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1824" t="str">
         <f>VLOOKUP(B1824,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1824" t="e">
+        <v>Boston Red Sox</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1824">
+        <v>25483</v>
+      </c>
+      <c r="F1824" t="s">
+        <v>2158</v>
+      </c>
+      <c r="G1824" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1824" t="s">
+        <v>2158</v>
+      </c>
+      <c r="I1824" t="s">
+        <v>2158</v>
+      </c>
+      <c r="J1824" t="s">
+        <v>2158</v>
+      </c>
+      <c r="K1824">
+        <v>686765</v>
+      </c>
+      <c r="L1824" t="s">
+        <v>2158</v>
+      </c>
+      <c r="M1824" t="s">
+        <v>2158</v>
+      </c>
+      <c r="N1824" t="str">
         <f>VLOOKUP(B1824,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1825" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1825" t="e">
+        <v>Boston</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1825" t="s">
+        <v>2159</v>
+      </c>
+      <c r="B1825" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1825" t="str">
         <f>VLOOKUP(B1825,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1825" t="e">
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1825">
+        <v>31522</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>2159</v>
+      </c>
+      <c r="G1825" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H1825" t="s">
+        <v>2159</v>
+      </c>
+      <c r="I1825" t="s">
+        <v>2159</v>
+      </c>
+      <c r="J1825" t="s">
+        <v>2159</v>
+      </c>
+      <c r="K1825">
+        <v>671284</v>
+      </c>
+      <c r="L1825" t="s">
+        <v>2159</v>
+      </c>
+      <c r="M1825" t="s">
+        <v>2159</v>
+      </c>
+      <c r="N1825" t="str">
         <f>VLOOKUP(B1825,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1826" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1826" t="e">
+        <v>Chicago</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1826" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B1826" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1826" t="str">
         <f>VLOOKUP(B1826,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1826" t="e">
+        <v>Chicago Cubs</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1826">
+        <v>28820</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>2160</v>
+      </c>
+      <c r="G1826" t="s">
+        <v>824</v>
+      </c>
+      <c r="H1826" t="s">
+        <v>2160</v>
+      </c>
+      <c r="I1826" t="s">
+        <v>2160</v>
+      </c>
+      <c r="J1826" t="s">
+        <v>2160</v>
+      </c>
+      <c r="K1826">
+        <v>694208</v>
+      </c>
+      <c r="L1826" t="s">
+        <v>2160</v>
+      </c>
+      <c r="M1826" t="s">
+        <v>2160</v>
+      </c>
+      <c r="N1826" t="str">
         <f>VLOOKUP(B1826,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1827" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1827" t="e">
+        <v>Chicago</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1827" t="s">
+        <v>2161</v>
+      </c>
+      <c r="B1827" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1827" t="str">
         <f>VLOOKUP(B1827,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1827" t="e">
+        <v>Arizona Diamondbacks</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1827">
+        <v>29976</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>2161</v>
+      </c>
+      <c r="G1827" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1827" t="s">
+        <v>2161</v>
+      </c>
+      <c r="I1827" t="s">
+        <v>2161</v>
+      </c>
+      <c r="J1827" t="s">
+        <v>2161</v>
+      </c>
+      <c r="K1827">
+        <v>691783</v>
+      </c>
+      <c r="L1827" t="s">
+        <v>2161</v>
+      </c>
+      <c r="M1827" t="s">
+        <v>2161</v>
+      </c>
+      <c r="N1827" t="str">
         <f>VLOOKUP(B1827,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1828" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1828" t="e">
+        <v>Arizona</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1828" t="s">
+        <v>2016</v>
+      </c>
+      <c r="B1828" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1828" t="str">
         <f>VLOOKUP(B1828,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1828" t="e">
+        <v>Toronto Blue Jays</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1828">
+        <v>26599</v>
+      </c>
+      <c r="F1828" t="s">
+        <v>2016</v>
+      </c>
+      <c r="G1828" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1828" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I1828" t="s">
+        <v>2016</v>
+      </c>
+      <c r="J1828" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K1828">
+        <v>682729</v>
+      </c>
+      <c r="L1828" t="s">
+        <v>2016</v>
+      </c>
+      <c r="M1828" t="s">
+        <v>2016</v>
+      </c>
+      <c r="N1828" t="str">
         <f>VLOOKUP(B1828,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1829" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1829" t="e">
+        <v>Toronto</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1829" t="s">
+        <v>2162</v>
+      </c>
+      <c r="B1829" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1829" t="str">
         <f>VLOOKUP(B1829,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1829" t="e">
+        <v>Cincinnati Reds</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1829">
+        <v>27493</v>
+      </c>
+      <c r="F1829" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G1829" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1829" t="s">
+        <v>2162</v>
+      </c>
+      <c r="I1829" t="s">
+        <v>2162</v>
+      </c>
+      <c r="J1829" t="s">
+        <v>2162</v>
+      </c>
+      <c r="K1829">
+        <v>677956</v>
+      </c>
+      <c r="L1829" t="s">
+        <v>2162</v>
+      </c>
+      <c r="M1829" t="s">
+        <v>2162</v>
+      </c>
+      <c r="N1829" t="str">
         <f>VLOOKUP(B1829,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1830" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1830" t="e">
+        <v>Cincinnati</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1830" t="s">
+        <v>2163</v>
+      </c>
+      <c r="B1830" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1830" t="str">
         <f>VLOOKUP(B1830,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1830" t="e">
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1830">
+        <v>25980</v>
+      </c>
+      <c r="F1830" t="s">
+        <v>2163</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1830" t="s">
+        <v>2163</v>
+      </c>
+      <c r="I1830" t="s">
+        <v>2163</v>
+      </c>
+      <c r="J1830" t="s">
+        <v>2163</v>
+      </c>
+      <c r="K1830">
+        <v>683090</v>
+      </c>
+      <c r="L1830" t="s">
+        <v>2163</v>
+      </c>
+      <c r="M1830" t="s">
+        <v>2163</v>
+      </c>
+      <c r="N1830" t="str">
         <f>VLOOKUP(B1830,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1831" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1831" t="e">
+        <v>Los Angeles</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1831" t="s">
+        <v>2164</v>
+      </c>
+      <c r="B1831" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1831" t="str">
         <f>VLOOKUP(B1831,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1831" t="e">
+        <v>Los Angeles Dodgers</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1831" t="s">
+        <v>2164</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1831" t="s">
+        <v>2164</v>
+      </c>
+      <c r="I1831" t="s">
+        <v>2164</v>
+      </c>
+      <c r="J1831" t="s">
+        <v>2164</v>
+      </c>
+      <c r="K1831">
+        <v>687221</v>
+      </c>
+      <c r="L1831" t="s">
+        <v>2164</v>
+      </c>
+      <c r="M1831" t="s">
+        <v>2164</v>
+      </c>
+      <c r="N1831" t="str">
         <f>VLOOKUP(B1831,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1832" spans="3:14" x14ac:dyDescent="0.3">
+        <v>Los Angeles</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1832" t="e">
         <f>VLOOKUP(B1832,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -85138,7 +85447,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1833" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1833" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1833" t="e">
         <f>VLOOKUP(B1833,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -85148,7 +85457,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1834" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1834" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1834" t="e">
         <f>VLOOKUP(B1834,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -85158,7 +85467,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1835" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1835" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1835" t="e">
         <f>VLOOKUP(B1835,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -85168,7 +85477,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1836" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1836" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1836" t="e">
         <f>VLOOKUP(B1836,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -85178,7 +85487,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1837" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1837" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1837" t="e">
         <f>VLOOKUP(B1837,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -85188,7 +85497,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1838" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1838" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1838" t="e">
         <f>VLOOKUP(B1838,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -85198,13 +85507,13 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1839" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1839" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1839" t="e">
         <f>VLOOKUP(B1839,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1840" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1840" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1840" t="e">
         <f>VLOOKUP(B1840,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99901F53-4A45-415B-8661-4A68C109E570}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E7C252-D34E-4EF6-9469-505A44A86C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6915,8 +6915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1806" workbookViewId="0">
-      <selection activeCell="K1832" sqref="K1832"/>
+    <sheetView tabSelected="1" topLeftCell="A1534" workbookViewId="0">
+      <selection activeCell="K1548" sqref="K1548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -73160,11 +73160,11 @@
         <v>1914</v>
       </c>
       <c r="B1547" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C1547" t="str">
         <f>VLOOKUP(B1547,Teams!$A:$B,2,FALSE)</f>
-        <v>Toronto Blue Jays</v>
+        <v>Pittsburgh Pirates</v>
       </c>
       <c r="D1547" t="s">
         <v>61</v>
@@ -73186,6 +73186,9 @@
       </c>
       <c r="J1547" t="s">
         <v>1914</v>
+      </c>
+      <c r="K1547">
+        <v>687462</v>
       </c>
       <c r="L1547" t="s">
         <v>1914</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45E7C252-D34E-4EF6-9469-505A44A86C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E35E70-A332-4CD9-84D5-82D56F531297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22003" uniqueCount="2165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22003" uniqueCount="2166">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6533,6 +6533,9 @@
   </si>
   <si>
     <t>Dalton Rushing</t>
+  </si>
+  <si>
+    <t>Iván Herrera</t>
   </si>
 </sst>
 </file>
@@ -6915,8 +6918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1534" workbookViewId="0">
-      <selection activeCell="K1548" sqref="K1548"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A717" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J730" sqref="J730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6927,7 +6931,7 @@
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -38157,13 +38161,13 @@
         <v>1930</v>
       </c>
       <c r="J730" t="s">
-        <v>1930</v>
+        <v>2165</v>
       </c>
       <c r="K730">
         <v>671056</v>
       </c>
       <c r="L730" t="s">
-        <v>1930</v>
+        <v>2165</v>
       </c>
       <c r="M730" t="s">
         <v>1930</v>
@@ -58467,7 +58471,7 @@
         <v>1312</v>
       </c>
       <c r="J1203" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="K1203">
         <v>643289</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E35E70-A332-4CD9-84D5-82D56F531297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D13B0-4109-47E7-B8C6-2C56C952ADF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22003" uniqueCount="2166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22013" uniqueCount="2167">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6536,6 +6536,9 @@
   </si>
   <si>
     <t>Iván Herrera</t>
+  </si>
+  <si>
+    <t>Robert Hassell</t>
   </si>
 </sst>
 </file>
@@ -6918,9 +6921,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A717" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J730" sqref="J730"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1832" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1833" sqref="B1833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85412,8 +85415,8 @@
       <c r="D1831" t="s">
         <v>61</v>
       </c>
-      <c r="E1831" t="s">
-        <v>83</v>
+      <c r="E1831">
+        <v>31382</v>
       </c>
       <c r="F1831" t="s">
         <v>2164</v>
@@ -85445,13 +85448,49 @@
       </c>
     </row>
     <row r="1832" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1832" t="e">
+      <c r="A1832" t="s">
+        <v>2166</v>
+      </c>
+      <c r="B1832" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1832" t="str">
         <f>VLOOKUP(B1832,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1832" t="e">
+        <v>Washington Nationals</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1832" t="s">
+        <v>2166</v>
+      </c>
+      <c r="G1832" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1832" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I1832" t="s">
+        <v>2166</v>
+      </c>
+      <c r="J1832" t="s">
+        <v>2166</v>
+      </c>
+      <c r="K1832">
+        <v>690987</v>
+      </c>
+      <c r="L1832" t="s">
+        <v>2166</v>
+      </c>
+      <c r="M1832" t="s">
+        <v>2166</v>
+      </c>
+      <c r="N1832" t="str">
         <f>VLOOKUP(B1832,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Washington</v>
       </c>
     </row>
     <row r="1833" spans="1:14" x14ac:dyDescent="0.3">
@@ -85665,6 +85704,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E0D13B0-4109-47E7-B8C6-2C56C952ADF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5418B-FB40-494B-8734-6ED41F13EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22013" uniqueCount="2167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22023" uniqueCount="2169">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6539,6 +6539,12 @@
   </si>
   <si>
     <t>Robert Hassell</t>
+  </si>
+  <si>
+    <t>Denzel Clarke</t>
+  </si>
+  <si>
+    <t>Robert Hassell iii</t>
   </si>
 </sst>
 </file>
@@ -6921,9 +6927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1832" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1833" sqref="B1833"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1809" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1834" sqref="K1834"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -41923,7 +41929,7 @@
         <v>1240</v>
       </c>
       <c r="J817" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="K817">
         <v>595879</v>
@@ -85461,11 +85467,11 @@
       <c r="D1832" t="s">
         <v>61</v>
       </c>
-      <c r="E1832" t="s">
-        <v>83</v>
+      <c r="E1832">
+        <v>27482</v>
       </c>
       <c r="F1832" t="s">
-        <v>2166</v>
+        <v>2168</v>
       </c>
       <c r="G1832" t="s">
         <v>238</v>
@@ -85494,13 +85500,49 @@
       </c>
     </row>
     <row r="1833" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1833" t="e">
+      <c r="A1833" t="s">
+        <v>2167</v>
+      </c>
+      <c r="B1833" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1833" t="str">
         <f>VLOOKUP(B1833,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1833" t="e">
+        <v>ATH</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1833" t="s">
+        <v>2167</v>
+      </c>
+      <c r="G1833" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1833" t="s">
+        <v>2167</v>
+      </c>
+      <c r="I1833" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J1833" t="s">
+        <v>2167</v>
+      </c>
+      <c r="K1833">
+        <v>672016</v>
+      </c>
+      <c r="L1833" t="s">
+        <v>2167</v>
+      </c>
+      <c r="M1833" t="s">
+        <v>2167</v>
+      </c>
+      <c r="N1833" t="str">
         <f>VLOOKUP(B1833,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>ATH</v>
       </c>
     </row>
     <row r="1834" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD5418B-FB40-494B-8734-6ED41F13EC45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E439FB6-72D9-4179-948B-280E156E6D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22023" uniqueCount="2169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22076" uniqueCount="2174">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6545,6 +6545,21 @@
   </si>
   <si>
     <t>Robert Hassell iii</t>
+  </si>
+  <si>
+    <t>Marcelo Mayer</t>
+  </si>
+  <si>
+    <t>Daylen Lile</t>
+  </si>
+  <si>
+    <t>Alejandro Osuna</t>
+  </si>
+  <si>
+    <t>Carson McCusker</t>
+  </si>
+  <si>
+    <t>SA123</t>
   </si>
 </sst>
 </file>
@@ -6927,9 +6942,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1809" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1834" sqref="K1834"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1816" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1833" sqref="F1833"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -85546,53 +85561,218 @@
       </c>
     </row>
     <row r="1834" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1834" t="e">
+      <c r="A1834" t="s">
+        <v>2169</v>
+      </c>
+      <c r="B1834" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1834" t="str">
         <f>VLOOKUP(B1834,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1834" t="e">
+        <v>Boston Red Sox</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>2169</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1834" t="s">
+        <v>2169</v>
+      </c>
+      <c r="I1834" t="s">
+        <v>2169</v>
+      </c>
+      <c r="J1834" t="s">
+        <v>2169</v>
+      </c>
+      <c r="L1834" t="s">
+        <v>2169</v>
+      </c>
+      <c r="M1834" t="s">
+        <v>2169</v>
+      </c>
+      <c r="N1834" t="str">
         <f>VLOOKUP(B1834,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Boston</v>
       </c>
     </row>
     <row r="1835" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1835" t="e">
+      <c r="A1835" t="s">
+        <v>2170</v>
+      </c>
+      <c r="B1835" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1835" t="str">
         <f>VLOOKUP(B1835,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1835" t="e">
+        <v>Washington Nationals</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F1835" t="s">
+        <v>2170</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1835" t="s">
+        <v>2170</v>
+      </c>
+      <c r="I1835" t="s">
+        <v>2170</v>
+      </c>
+      <c r="J1835" t="s">
+        <v>2170</v>
+      </c>
+      <c r="L1835" t="s">
+        <v>2170</v>
+      </c>
+      <c r="M1835" t="s">
+        <v>2170</v>
+      </c>
+      <c r="N1835" t="str">
         <f>VLOOKUP(B1835,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Washington</v>
       </c>
     </row>
     <row r="1836" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1836" t="e">
+      <c r="A1836" t="s">
+        <v>2171</v>
+      </c>
+      <c r="B1836" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1836" t="str">
         <f>VLOOKUP(B1836,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1836" t="e">
+        <v>Texas Rangers</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>2171</v>
+      </c>
+      <c r="G1836" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1836" t="s">
+        <v>2171</v>
+      </c>
+      <c r="I1836" t="s">
+        <v>2171</v>
+      </c>
+      <c r="J1836" t="s">
+        <v>2171</v>
+      </c>
+      <c r="L1836" t="s">
+        <v>2171</v>
+      </c>
+      <c r="M1836" t="s">
+        <v>2171</v>
+      </c>
+      <c r="N1836" t="str">
         <f>VLOOKUP(B1836,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Texas</v>
       </c>
     </row>
     <row r="1837" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1837" t="e">
+      <c r="A1837" t="s">
+        <v>2068</v>
+      </c>
+      <c r="B1837" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1837" t="str">
         <f>VLOOKUP(B1837,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1837" t="e">
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1837">
+        <v>25040</v>
+      </c>
+      <c r="F1837" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1837" t="s">
+        <v>2068</v>
+      </c>
+      <c r="I1837" t="s">
+        <v>2068</v>
+      </c>
+      <c r="J1837" t="s">
+        <v>2068</v>
+      </c>
+      <c r="L1837" t="s">
+        <v>2068</v>
+      </c>
+      <c r="M1837" t="s">
+        <v>2068</v>
+      </c>
+      <c r="N1837" t="str">
         <f>VLOOKUP(B1837,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1838" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1838" t="e">
+      <c r="A1838" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B1838" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1838" t="str">
         <f>VLOOKUP(B1838,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1838" t="e">
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1838">
+        <v>33098</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1838" t="s">
+        <v>2172</v>
+      </c>
+      <c r="I1838" t="s">
+        <v>2172</v>
+      </c>
+      <c r="J1838" t="s">
+        <v>2172</v>
+      </c>
+      <c r="L1838" t="s">
+        <v>2172</v>
+      </c>
+      <c r="M1838" t="s">
+        <v>2172</v>
+      </c>
+      <c r="N1838" t="str">
         <f>VLOOKUP(B1838,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Minnesota</v>
       </c>
     </row>
     <row r="1839" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E439FB6-72D9-4179-948B-280E156E6D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262DA80B-37A1-4240-800F-0C39EE3555D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22076" uniqueCount="2174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22082" uniqueCount="2174">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6559,7 +6559,7 @@
     <t>Carson McCusker</t>
   </si>
   <si>
-    <t>SA123</t>
+    <t>Victor Mesa</t>
   </si>
 </sst>
 </file>
@@ -6943,8 +6943,8 @@
   <dimension ref="A1:N1863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1816" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1833" sqref="F1833"/>
+      <pane ySplit="1" topLeftCell="A1815" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1837" sqref="E1837"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22101,11 +22101,11 @@
         <v>95</v>
       </c>
       <c r="B355" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C355" t="str">
         <f>VLOOKUP(B355,Teams!$A:$B,2,FALSE)</f>
-        <v>Los Angeles Dodgers</v>
+        <v>Los Angeles Angels</v>
       </c>
       <c r="D355" t="s">
         <v>16</v>
@@ -22117,7 +22117,7 @@
         <v>95</v>
       </c>
       <c r="G355" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="H355" t="s">
         <v>95</v>
@@ -85528,8 +85528,8 @@
       <c r="D1833" t="s">
         <v>16</v>
       </c>
-      <c r="E1833" t="s">
-        <v>83</v>
+      <c r="E1833">
+        <v>29858</v>
       </c>
       <c r="F1833" t="s">
         <v>2167</v>
@@ -85574,14 +85574,14 @@
       <c r="D1834" t="s">
         <v>61</v>
       </c>
-      <c r="E1834" t="s">
-        <v>83</v>
+      <c r="E1834">
+        <v>29668</v>
       </c>
       <c r="F1834" t="s">
         <v>2169</v>
       </c>
       <c r="G1834" t="s">
-        <v>238</v>
+        <v>1089</v>
       </c>
       <c r="H1834" t="s">
         <v>2169</v>
@@ -85617,8 +85617,8 @@
       <c r="D1835" t="s">
         <v>61</v>
       </c>
-      <c r="E1835" t="s">
-        <v>2173</v>
+      <c r="E1835">
+        <v>29995</v>
       </c>
       <c r="F1835" t="s">
         <v>2170</v>
@@ -85660,8 +85660,8 @@
       <c r="D1836" t="s">
         <v>61</v>
       </c>
-      <c r="E1836" t="s">
-        <v>83</v>
+      <c r="E1836">
+        <v>27915</v>
       </c>
       <c r="F1836" t="s">
         <v>2171</v>
@@ -85776,9 +85776,46 @@
       </c>
     </row>
     <row r="1839" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1839" t="e">
+      <c r="A1839" t="s">
+        <v>2173</v>
+      </c>
+      <c r="B1839" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1839" t="str">
         <f>VLOOKUP(B1839,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Miami Marlins</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1839">
+        <v>25999</v>
+      </c>
+      <c r="F1839" t="s">
+        <v>2173</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1839" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I1839" t="s">
+        <v>2173</v>
+      </c>
+      <c r="J1839" t="s">
+        <v>2173</v>
+      </c>
+      <c r="L1839" t="s">
+        <v>2173</v>
+      </c>
+      <c r="M1839" t="s">
+        <v>2173</v>
+      </c>
+      <c r="N1839" t="str">
+        <f>VLOOKUP(B1839,Teams!A:C,3,FALSE)</f>
+        <v>Miami</v>
       </c>
     </row>
     <row r="1840" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262DA80B-37A1-4240-800F-0C39EE3555D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE079D70-EC3F-458E-B003-F4B68D3F339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22082" uniqueCount="2174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22102" uniqueCount="2175">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6560,6 +6560,9 @@
   </si>
   <si>
     <t>Victor Mesa</t>
+  </si>
+  <si>
+    <t>John Rave</t>
   </si>
 </sst>
 </file>
@@ -6943,8 +6946,8 @@
   <dimension ref="A1:N1863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1815" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1837" sqref="E1837"/>
+      <pane ySplit="1" topLeftCell="A1817" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1842" sqref="E1842"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20496,11 +20499,11 @@
         <v>858</v>
       </c>
       <c r="B317" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C317" t="str">
         <f>VLOOKUP(B317,Teams!$A:$B,2,FALSE)</f>
-        <v>Atlanta Braves</v>
+        <v>Baltimore Orioles</v>
       </c>
       <c r="D317" t="s">
         <v>16</v>
@@ -85819,102 +85822,168 @@
       </c>
     </row>
     <row r="1840" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1840" t="e">
+      <c r="A1840" t="s">
+        <v>1926</v>
+      </c>
+      <c r="B1840" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1840" t="str">
         <f>VLOOKUP(B1840,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1841" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C1841" t="e">
+        <v>New York Mets</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1840">
+        <v>20404</v>
+      </c>
+      <c r="F1840" t="s">
+        <v>1926</v>
+      </c>
+      <c r="G1840" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H1840" t="s">
+        <v>1926</v>
+      </c>
+      <c r="I1840" t="s">
+        <v>1926</v>
+      </c>
+      <c r="J1840" t="s">
+        <v>1926</v>
+      </c>
+      <c r="L1840" t="s">
+        <v>1926</v>
+      </c>
+      <c r="M1840" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1841" t="s">
+        <v>2174</v>
+      </c>
+      <c r="B1841" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1841" t="str">
         <f>VLOOKUP(B1841,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1842" spans="3:3" x14ac:dyDescent="0.3">
+        <v>Kansas City Royals</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1841">
+        <v>26284</v>
+      </c>
+      <c r="F1841" t="s">
+        <v>2174</v>
+      </c>
+      <c r="G1841" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1841" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I1841" t="s">
+        <v>2174</v>
+      </c>
+      <c r="J1841" t="s">
+        <v>2174</v>
+      </c>
+      <c r="L1841" t="s">
+        <v>2174</v>
+      </c>
+      <c r="M1841" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1842" t="e">
         <f>VLOOKUP(B1842,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1843" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1843" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1843" t="e">
         <f>VLOOKUP(B1843,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1844" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1844" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1844" t="e">
         <f>VLOOKUP(B1844,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1845" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1845" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1845" t="e">
         <f>VLOOKUP(B1845,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1846" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1846" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1846" t="e">
         <f>VLOOKUP(B1846,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1847" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1847" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1847" t="e">
         <f>VLOOKUP(B1847,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1848" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1848" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1848" t="e">
         <f>VLOOKUP(B1848,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1849" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1849" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1849" t="e">
         <f>VLOOKUP(B1849,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1850" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1850" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1850" t="e">
         <f>VLOOKUP(B1850,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1851" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1851" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1851" t="e">
         <f>VLOOKUP(B1851,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1852" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1852" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1852" t="e">
         <f>VLOOKUP(B1852,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1853" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1853" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1853" t="e">
         <f>VLOOKUP(B1853,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1854" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1854" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1854" t="e">
         <f>VLOOKUP(B1854,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1855" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1855" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1855" t="e">
         <f>VLOOKUP(B1855,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1856" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="1856" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C1856" t="e">
         <f>VLOOKUP(B1856,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE079D70-EC3F-458E-B003-F4B68D3F339F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83B225-2633-48C7-A4E7-10461A6B4DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6946,8 +6946,8 @@
   <dimension ref="A1:N1863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1817" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1842" sqref="E1842"/>
+      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1006" sqref="L1006"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8194,7 +8194,7 @@
         <v>509</v>
       </c>
       <c r="J29" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="K29">
         <v>666969</v>
@@ -50047,7 +50047,7 @@
         <v>1774</v>
       </c>
       <c r="J1006" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="K1006">
         <v>677594</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F83B225-2633-48C7-A4E7-10461A6B4DBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98164193-4415-45D4-BBA4-90EE40D56F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22102" uniqueCount="2175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22155" uniqueCount="2184">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6563,6 +6563,33 @@
   </si>
   <si>
     <t>John Rave</t>
+  </si>
+  <si>
+    <t>Drew Avans</t>
+  </si>
+  <si>
+    <t>Heriberto Hernandez</t>
+  </si>
+  <si>
+    <t>sa234</t>
+  </si>
+  <si>
+    <t>Jack Winkler</t>
+  </si>
+  <si>
+    <t>SA123</t>
+  </si>
+  <si>
+    <t>Willie MacIver</t>
+  </si>
+  <si>
+    <t>Jacob Melton</t>
+  </si>
+  <si>
+    <t>P/C</t>
+  </si>
+  <si>
+    <t>sA123</t>
   </si>
 </sst>
 </file>
@@ -6945,9 +6972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A991" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1006" sqref="L1006"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1825" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1847" sqref="G1847"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58170,11 +58197,11 @@
         <v>1174</v>
       </c>
       <c r="B1196" t="s">
-        <v>219</v>
+        <v>194</v>
       </c>
       <c r="C1196" t="str">
         <f>VLOOKUP(B1196,Teams!$A:$B,2,FALSE)</f>
-        <v>Chicago White Sox</v>
+        <v>Tampa Bay Rays</v>
       </c>
       <c r="D1196" t="s">
         <v>61</v>
@@ -64575,11 +64602,11 @@
         <v>132</v>
       </c>
       <c r="B1345" t="s">
-        <v>120</v>
+        <v>52</v>
       </c>
       <c r="C1345" t="str">
         <f>VLOOKUP(B1345,Teams!$A:$B,2,FALSE)</f>
-        <v>Atlanta Braves</v>
+        <v>Colorado Rockies</v>
       </c>
       <c r="D1345" t="s">
         <v>16</v>
@@ -85595,6 +85622,9 @@
       <c r="J1834" t="s">
         <v>2169</v>
       </c>
+      <c r="K1834">
+        <v>691785</v>
+      </c>
       <c r="L1834" t="s">
         <v>2169</v>
       </c>
@@ -85638,6 +85668,9 @@
       <c r="J1835" t="s">
         <v>2170</v>
       </c>
+      <c r="K1835">
+        <v>695734</v>
+      </c>
       <c r="L1835" t="s">
         <v>2170</v>
       </c>
@@ -85681,6 +85714,9 @@
       <c r="J1836" t="s">
         <v>2171</v>
       </c>
+      <c r="K1836">
+        <v>696030</v>
+      </c>
       <c r="L1836" t="s">
         <v>2171</v>
       </c>
@@ -85724,6 +85760,9 @@
       <c r="J1837" t="s">
         <v>2068</v>
       </c>
+      <c r="K1837">
+        <v>681962</v>
+      </c>
       <c r="L1837" t="s">
         <v>2068</v>
       </c>
@@ -85767,6 +85806,9 @@
       <c r="J1838" t="s">
         <v>2172</v>
       </c>
+      <c r="K1838">
+        <v>676812</v>
+      </c>
       <c r="L1838" t="s">
         <v>2172</v>
       </c>
@@ -85810,6 +85852,9 @@
       <c r="J1839" t="s">
         <v>2173</v>
       </c>
+      <c r="K1839">
+        <v>683748</v>
+      </c>
       <c r="L1839" t="s">
         <v>2173</v>
       </c>
@@ -85853,14 +85898,21 @@
       <c r="J1840" t="s">
         <v>1926</v>
       </c>
+      <c r="K1840">
+        <v>676724</v>
+      </c>
       <c r="L1840" t="s">
         <v>1926</v>
       </c>
       <c r="M1840" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="1841" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1840" t="str">
+        <f>VLOOKUP(B1840,Teams!A:C,3,FALSE)</f>
+        <v>New York</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1841" t="s">
         <v>2174</v>
       </c>
@@ -85892,142 +85944,408 @@
       <c r="J1841" t="s">
         <v>2174</v>
       </c>
+      <c r="K1841">
+        <v>670231</v>
+      </c>
       <c r="L1841" t="s">
         <v>2174</v>
       </c>
       <c r="M1841" t="s">
         <v>2174</v>
       </c>
-    </row>
-    <row r="1842" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1842" t="e">
+      <c r="N1841" t="str">
+        <f>VLOOKUP(B1841,Teams!A:C,3,FALSE)</f>
+        <v>Kansas City</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1842" t="s">
+        <v>2175</v>
+      </c>
+      <c r="B1842" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1842" t="str">
         <f>VLOOKUP(B1842,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1843" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1843" t="e">
+        <v>ATH</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1842">
+        <v>25183</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>2175</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1842" t="s">
+        <v>2175</v>
+      </c>
+      <c r="I1842" t="s">
+        <v>2175</v>
+      </c>
+      <c r="J1842" t="s">
+        <v>2175</v>
+      </c>
+      <c r="K1842">
+        <v>682183</v>
+      </c>
+      <c r="L1842" t="s">
+        <v>2175</v>
+      </c>
+      <c r="M1842" t="s">
+        <v>2175</v>
+      </c>
+      <c r="N1842" t="str">
+        <f>VLOOKUP(B1842,Teams!A:C,3,FALSE)</f>
+        <v>ATH</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1843" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B1843" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1843" t="str">
         <f>VLOOKUP(B1843,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1844" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1844" t="e">
+        <v>Miami Marlins</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>2176</v>
+      </c>
+      <c r="G1843" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1843" t="s">
+        <v>2176</v>
+      </c>
+      <c r="I1843" t="s">
+        <v>2176</v>
+      </c>
+      <c r="J1843" t="s">
+        <v>2176</v>
+      </c>
+      <c r="K1843">
+        <v>681715</v>
+      </c>
+      <c r="L1843" t="s">
+        <v>2176</v>
+      </c>
+      <c r="M1843" t="s">
+        <v>2176</v>
+      </c>
+      <c r="N1843" t="str">
+        <f>VLOOKUP(B1843,Teams!A:C,3,FALSE)</f>
+        <v>Miami</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1844" t="s">
+        <v>2178</v>
+      </c>
+      <c r="B1844" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1844" t="str">
         <f>VLOOKUP(B1844,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1845" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1845" t="e">
+        <v>Miami Marlins</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1844" t="s">
+        <v>2178</v>
+      </c>
+      <c r="I1844" t="s">
+        <v>2178</v>
+      </c>
+      <c r="J1844" t="s">
+        <v>2178</v>
+      </c>
+      <c r="L1844" t="s">
+        <v>2178</v>
+      </c>
+      <c r="M1844" t="s">
+        <v>2178</v>
+      </c>
+      <c r="N1844" t="str">
+        <f>VLOOKUP(B1844,Teams!A:C,3,FALSE)</f>
+        <v>Miami</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1845" t="s">
+        <v>2180</v>
+      </c>
+      <c r="B1845" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1845" t="str">
         <f>VLOOKUP(B1845,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1846" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="C1846" t="e">
+        <v>ATH</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1845">
+        <v>24641</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>2182</v>
+      </c>
+      <c r="H1845" t="s">
+        <v>2180</v>
+      </c>
+      <c r="I1845" t="s">
+        <v>2180</v>
+      </c>
+      <c r="J1845" t="s">
+        <v>2180</v>
+      </c>
+      <c r="L1845" t="s">
+        <v>2180</v>
+      </c>
+      <c r="M1845" t="s">
+        <v>2180</v>
+      </c>
+      <c r="N1845" t="str">
+        <f>VLOOKUP(B1845,Teams!A:C,3,FALSE)</f>
+        <v>ATH</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1846" t="s">
+        <v>2181</v>
+      </c>
+      <c r="B1846" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1846" t="str">
         <f>VLOOKUP(B1846,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1847" spans="1:13" x14ac:dyDescent="0.3">
+        <v>Houston Astros</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>2183</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>2181</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1846" t="s">
+        <v>2181</v>
+      </c>
+      <c r="I1846" t="s">
+        <v>2181</v>
+      </c>
+      <c r="J1846" t="s">
+        <v>2181</v>
+      </c>
+      <c r="L1846" t="s">
+        <v>2181</v>
+      </c>
+      <c r="M1846" t="s">
+        <v>2181</v>
+      </c>
+      <c r="N1846" t="str">
+        <f>VLOOKUP(B1846,Teams!A:C,3,FALSE)</f>
+        <v>Houston</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1847" t="e">
         <f>VLOOKUP(B1847,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1848" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1847" t="e">
+        <f>VLOOKUP(B1847,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1848" t="e">
         <f>VLOOKUP(B1848,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1849" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1848" t="e">
+        <f>VLOOKUP(B1848,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1849" t="e">
         <f>VLOOKUP(B1849,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1850" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1849" t="e">
+        <f>VLOOKUP(B1849,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1850" t="e">
         <f>VLOOKUP(B1850,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1851" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1850" t="e">
+        <f>VLOOKUP(B1850,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1851" t="e">
         <f>VLOOKUP(B1851,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1852" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1851" t="e">
+        <f>VLOOKUP(B1851,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1852" t="e">
         <f>VLOOKUP(B1852,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1853" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1852" t="e">
+        <f>VLOOKUP(B1852,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1853" t="e">
         <f>VLOOKUP(B1853,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1854" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1853" t="e">
+        <f>VLOOKUP(B1853,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1854" t="e">
         <f>VLOOKUP(B1854,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1855" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1854" t="e">
+        <f>VLOOKUP(B1854,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1855" t="e">
         <f>VLOOKUP(B1855,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1856" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N1855" t="e">
+        <f>VLOOKUP(B1855,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1856" t="e">
         <f>VLOOKUP(B1856,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1857" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1856" t="e">
+        <f>VLOOKUP(B1856,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1857" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1857" t="e">
         <f>VLOOKUP(B1857,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1858" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1857" t="e">
+        <f>VLOOKUP(B1857,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1858" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1858" t="e">
         <f>VLOOKUP(B1858,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1859" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1858" t="e">
+        <f>VLOOKUP(B1858,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1859" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1859" t="e">
         <f>VLOOKUP(B1859,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1860" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1859" t="e">
+        <f>VLOOKUP(B1859,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1860" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1860" t="e">
         <f>VLOOKUP(B1860,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1861" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1860" t="e">
+        <f>VLOOKUP(B1860,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1861" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1861" t="e">
         <f>VLOOKUP(B1861,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1862" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1861" t="e">
+        <f>VLOOKUP(B1861,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1862" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1862" t="e">
         <f>VLOOKUP(B1862,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1863" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="N1862" t="e">
+        <f>VLOOKUP(B1862,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1863" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C1863" t="e">
         <f>VLOOKUP(B1863,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N1863" t="e">
+        <f>VLOOKUP(B1863,Teams!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98164193-4415-45D4-BBA4-90EE40D56F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F13CD2-8812-46EA-9EBA-D54C67C0646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22155" uniqueCount="2184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22165" uniqueCount="2184">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6571,9 +6571,6 @@
     <t>Heriberto Hernandez</t>
   </si>
   <si>
-    <t>sa234</t>
-  </si>
-  <si>
     <t>Jack Winkler</t>
   </si>
   <si>
@@ -6590,6 +6587,9 @@
   </si>
   <si>
     <t>sA123</t>
+  </si>
+  <si>
+    <t>Cole Young</t>
   </si>
 </sst>
 </file>
@@ -6972,9 +6972,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1825" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1847" sqref="G1847"/>
+      <selection pane="bottomLeft" activeCell="G1843" sqref="G1843"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -86018,8 +86018,8 @@
       <c r="D1843" t="s">
         <v>16</v>
       </c>
-      <c r="E1843" t="s">
-        <v>2177</v>
+      <c r="E1843">
+        <v>24878</v>
       </c>
       <c r="F1843" t="s">
         <v>2176</v>
@@ -86052,7 +86052,7 @@
     </row>
     <row r="1844" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1844" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="B1844" t="s">
         <v>43</v>
@@ -86065,28 +86065,28 @@
         <v>16</v>
       </c>
       <c r="E1844" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="F1844" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="G1844" t="s">
         <v>40</v>
       </c>
       <c r="H1844" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="I1844" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="J1844" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="L1844" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="M1844" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="N1844" t="str">
         <f>VLOOKUP(B1844,Teams!A:C,3,FALSE)</f>
@@ -86095,7 +86095,7 @@
     </row>
     <row r="1845" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1845" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1845" t="s">
         <v>156</v>
@@ -86111,25 +86111,25 @@
         <v>24641</v>
       </c>
       <c r="F1845" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="G1845" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="H1845" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="I1845" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="J1845" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="L1845" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="M1845" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="N1845" t="str">
         <f>VLOOKUP(B1845,Teams!A:C,3,FALSE)</f>
@@ -86138,7 +86138,7 @@
     </row>
     <row r="1846" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1846" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="B1846" t="s">
         <v>49</v>
@@ -86151,28 +86151,28 @@
         <v>61</v>
       </c>
       <c r="E1846" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="F1846" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="G1846" t="s">
         <v>238</v>
       </c>
       <c r="H1846" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="I1846" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="J1846" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="L1846" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="M1846" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="N1846" t="str">
         <f>VLOOKUP(B1846,Teams!A:C,3,FALSE)</f>
@@ -86180,13 +86180,46 @@
       </c>
     </row>
     <row r="1847" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1847" t="e">
+      <c r="A1847" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1847" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1847" t="str">
         <f>VLOOKUP(B1847,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1847" t="e">
+        <v>Seattle Mariners</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1847" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1847" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I1847" t="s">
+        <v>2183</v>
+      </c>
+      <c r="J1847" t="s">
+        <v>2183</v>
+      </c>
+      <c r="L1847" t="s">
+        <v>2183</v>
+      </c>
+      <c r="M1847" t="s">
+        <v>2183</v>
+      </c>
+      <c r="N1847" t="str">
         <f>VLOOKUP(B1847,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Seattle</v>
       </c>
     </row>
     <row r="1848" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F13CD2-8812-46EA-9EBA-D54C67C0646F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6EC10-EAD1-498D-AD82-0A08DA1AEB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6973,8 +6973,8 @@
   <dimension ref="A1:N1863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1825" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1843" sqref="G1843"/>
+      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B642" sqref="B642"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34368,11 +34368,11 @@
         <v>1314</v>
       </c>
       <c r="B641" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="C641" t="str">
         <f>VLOOKUP(B641,Teams!$A:$B,2,FALSE)</f>
-        <v>Arizona Diamondbacks</v>
+        <v>Cincinnati Reds</v>
       </c>
       <c r="D641" t="s">
         <v>16</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A6EC10-EAD1-498D-AD82-0A08DA1AEB42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2D7DB2-4596-46CC-BFDA-BFFDCF63BDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22165" uniqueCount="2184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22192" uniqueCount="2185">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6574,9 +6574,6 @@
     <t>Jack Winkler</t>
   </si>
   <si>
-    <t>SA123</t>
-  </si>
-  <si>
     <t>Willie MacIver</t>
   </si>
   <si>
@@ -6586,10 +6583,16 @@
     <t>P/C</t>
   </si>
   <si>
-    <t>sA123</t>
-  </si>
-  <si>
     <t>Cole Young</t>
+  </si>
+  <si>
+    <t>Jac Caglianone</t>
+  </si>
+  <si>
+    <t>Ronny Mauricio</t>
+  </si>
+  <si>
+    <t>Carlos Narváez</t>
   </si>
 </sst>
 </file>
@@ -6972,9 +6975,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A628" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B642" sqref="B642"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1780" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L1793" sqref="L1793"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11097,11 +11100,11 @@
         <v>954</v>
       </c>
       <c r="B97" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP(B97,Teams!$A:$B,2,FALSE)</f>
-        <v>Washington Nationals</v>
+        <v>San Francisco Giants</v>
       </c>
       <c r="D97" t="s">
         <v>16</v>
@@ -11134,7 +11137,7 @@
         <v>954</v>
       </c>
       <c r="N97" t="s">
-        <v>2095</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
@@ -29184,11 +29187,11 @@
         <v>1519</v>
       </c>
       <c r="B520" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="C520" t="str">
         <f>VLOOKUP(B520,Teams!$A:$B,2,FALSE)</f>
-        <v>New York Yankees</v>
+        <v>San Francisco Giants</v>
       </c>
       <c r="D520" t="s">
         <v>61</v>
@@ -29221,7 +29224,7 @@
         <v>1519</v>
       </c>
       <c r="N520" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="521" spans="1:14" x14ac:dyDescent="0.3">
@@ -73255,7 +73258,7 @@
         <v>1914</v>
       </c>
       <c r="N1547" t="s">
-        <v>2085</v>
+        <v>2082</v>
       </c>
     </row>
     <row r="1548" spans="1:14" x14ac:dyDescent="0.3">
@@ -83770,13 +83773,13 @@
         <v>2127</v>
       </c>
       <c r="J1793" t="s">
-        <v>2127</v>
+        <v>2184</v>
       </c>
       <c r="K1793">
         <v>665966</v>
       </c>
       <c r="L1793" t="s">
-        <v>2127</v>
+        <v>2184</v>
       </c>
       <c r="M1793" t="s">
         <v>2127</v>
@@ -86064,14 +86067,14 @@
       <c r="D1844" t="s">
         <v>16</v>
       </c>
-      <c r="E1844" t="s">
-        <v>2178</v>
+      <c r="E1844">
+        <v>29830</v>
       </c>
       <c r="F1844" t="s">
         <v>2177</v>
       </c>
       <c r="G1844" t="s">
-        <v>40</v>
+        <v>1621</v>
       </c>
       <c r="H1844" t="s">
         <v>2177</v>
@@ -86095,7 +86098,7 @@
     </row>
     <row r="1845" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1845" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="B1845" t="s">
         <v>156</v>
@@ -86111,25 +86114,25 @@
         <v>24641</v>
       </c>
       <c r="F1845" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="G1845" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="H1845" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="I1845" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="J1845" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="L1845" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="M1845" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="N1845" t="str">
         <f>VLOOKUP(B1845,Teams!A:C,3,FALSE)</f>
@@ -86138,7 +86141,7 @@
     </row>
     <row r="1846" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1846" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="B1846" t="s">
         <v>49</v>
@@ -86150,29 +86153,29 @@
       <c r="D1846" t="s">
         <v>61</v>
       </c>
-      <c r="E1846" t="s">
-        <v>2182</v>
+      <c r="E1846">
+        <v>31661</v>
       </c>
       <c r="F1846" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="G1846" t="s">
         <v>238</v>
       </c>
       <c r="H1846" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="I1846" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="J1846" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="L1846" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="M1846" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="N1846" t="str">
         <f>VLOOKUP(B1846,Teams!A:C,3,FALSE)</f>
@@ -86181,7 +86184,7 @@
     </row>
     <row r="1847" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1847" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="B1847" t="s">
         <v>19</v>
@@ -86193,29 +86196,29 @@
       <c r="D1847" t="s">
         <v>61</v>
       </c>
-      <c r="E1847" t="s">
-        <v>83</v>
+      <c r="E1847">
+        <v>31680</v>
       </c>
       <c r="F1847" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="G1847" t="s">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="H1847" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="I1847" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="J1847" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="L1847" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="M1847" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="N1847" t="str">
         <f>VLOOKUP(B1847,Teams!A:C,3,FALSE)</f>
@@ -86223,33 +86226,132 @@
       </c>
     </row>
     <row r="1848" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1848" t="e">
+      <c r="A1848" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B1848" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1848" t="str">
         <f>VLOOKUP(B1848,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1848" t="e">
+        <v>Kansas City Royals</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1848">
+        <v>35041</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>2182</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1848" t="s">
+        <v>2182</v>
+      </c>
+      <c r="I1848" t="s">
+        <v>2182</v>
+      </c>
+      <c r="J1848" t="s">
+        <v>2182</v>
+      </c>
+      <c r="L1848" t="s">
+        <v>2182</v>
+      </c>
+      <c r="M1848" t="s">
+        <v>2182</v>
+      </c>
+      <c r="N1848" t="str">
         <f>VLOOKUP(B1848,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Kansas City</v>
       </c>
     </row>
     <row r="1849" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1849" t="e">
+      <c r="A1849" t="s">
+        <v>2183</v>
+      </c>
+      <c r="B1849" t="s">
+        <v>129</v>
+      </c>
+      <c r="C1849" t="str">
         <f>VLOOKUP(B1849,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1849" t="e">
+        <v>New York Mets</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1849">
+        <v>23698</v>
+      </c>
+      <c r="F1849" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1849" t="s">
+        <v>2183</v>
+      </c>
+      <c r="I1849" t="s">
+        <v>2183</v>
+      </c>
+      <c r="J1849" t="s">
+        <v>2183</v>
+      </c>
+      <c r="L1849" t="s">
+        <v>2183</v>
+      </c>
+      <c r="M1849" t="s">
+        <v>2183</v>
+      </c>
+      <c r="N1849" t="str">
         <f>VLOOKUP(B1849,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>New York</v>
       </c>
     </row>
     <row r="1850" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1850" t="e">
+      <c r="A1850" t="s">
+        <v>240</v>
+      </c>
+      <c r="B1850" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1850" t="str">
         <f>VLOOKUP(B1850,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1850" t="e">
+        <v>San Francisco Giants</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1850">
+        <v>19643</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>240</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1850" t="s">
+        <v>240</v>
+      </c>
+      <c r="I1850" t="s">
+        <v>240</v>
+      </c>
+      <c r="J1850" t="s">
+        <v>240</v>
+      </c>
+      <c r="L1850" t="s">
+        <v>240</v>
+      </c>
+      <c r="M1850" t="s">
+        <v>240</v>
+      </c>
+      <c r="N1850" t="str">
         <f>VLOOKUP(B1850,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="1851" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD2D7DB2-4596-46CC-BFDA-BFFDCF63BDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291D926-D324-4232-98FE-DAB9D52A1602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22192" uniqueCount="2185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22202" uniqueCount="2186">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6593,6 +6593,9 @@
   </si>
   <si>
     <t>Carlos Narváez</t>
+  </si>
+  <si>
+    <t>Ryan Ritter</t>
   </si>
 </sst>
 </file>
@@ -6975,9 +6978,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1780" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L1793" sqref="L1793"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1826" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1845" sqref="K1845"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -43465,7 +43468,7 @@
         <v>242</v>
       </c>
       <c r="J852" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K852">
         <v>660821</v>
@@ -86085,6 +86088,9 @@
       <c r="J1844" t="s">
         <v>2177</v>
       </c>
+      <c r="K1844">
+        <v>676466</v>
+      </c>
       <c r="L1844" t="s">
         <v>2177</v>
       </c>
@@ -86128,6 +86134,9 @@
       <c r="J1845" t="s">
         <v>2178</v>
       </c>
+      <c r="K1845">
+        <v>680862</v>
+      </c>
       <c r="L1845" t="s">
         <v>2178</v>
       </c>
@@ -86171,6 +86180,9 @@
       <c r="J1846" t="s">
         <v>2179</v>
       </c>
+      <c r="K1846">
+        <v>689200</v>
+      </c>
       <c r="L1846" t="s">
         <v>2179</v>
       </c>
@@ -86214,6 +86226,9 @@
       <c r="J1847" t="s">
         <v>2181</v>
       </c>
+      <c r="K1847">
+        <v>702284</v>
+      </c>
       <c r="L1847" t="s">
         <v>2181</v>
       </c>
@@ -86257,6 +86272,9 @@
       <c r="J1848" t="s">
         <v>2182</v>
       </c>
+      <c r="K1848">
+        <v>695506</v>
+      </c>
       <c r="L1848" t="s">
         <v>2182</v>
       </c>
@@ -86300,6 +86318,9 @@
       <c r="J1849" t="s">
         <v>2183</v>
       </c>
+      <c r="K1849">
+        <v>677595</v>
+      </c>
       <c r="L1849" t="s">
         <v>2183</v>
       </c>
@@ -86343,6 +86364,9 @@
       <c r="J1850" t="s">
         <v>240</v>
       </c>
+      <c r="K1850">
+        <v>669288</v>
+      </c>
       <c r="L1850" t="s">
         <v>240</v>
       </c>
@@ -86355,13 +86379,49 @@
       </c>
     </row>
     <row r="1851" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1851" t="e">
+      <c r="A1851" t="s">
+        <v>2185</v>
+      </c>
+      <c r="B1851" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1851" t="str">
         <f>VLOOKUP(B1851,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1851" t="e">
+        <v>Colorado Rockies</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1851">
+        <v>31500</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>2185</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1851" t="s">
+        <v>2185</v>
+      </c>
+      <c r="I1851" t="s">
+        <v>2185</v>
+      </c>
+      <c r="J1851" t="s">
+        <v>2185</v>
+      </c>
+      <c r="K1851">
+        <v>690022</v>
+      </c>
+      <c r="L1851" t="s">
+        <v>2185</v>
+      </c>
+      <c r="M1851" t="s">
+        <v>2185</v>
+      </c>
+      <c r="N1851" t="str">
         <f>VLOOKUP(B1851,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Colorado</v>
       </c>
     </row>
     <row r="1852" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A291D926-D324-4232-98FE-DAB9D52A1602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CB4198-4ED1-4B9B-B6FF-E640FBB0CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22202" uniqueCount="2186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22223" uniqueCount="2189">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6596,6 +6596,15 @@
   </si>
   <si>
     <t>Ryan Ritter</t>
+  </si>
+  <si>
+    <t>Otto Kemp</t>
+  </si>
+  <si>
+    <t>Kyle Teel</t>
+  </si>
+  <si>
+    <t>sa213</t>
   </si>
 </sst>
 </file>
@@ -6979,8 +6988,8 @@
   <dimension ref="A1:N1863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1826" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1845" sqref="K1845"/>
+      <pane ySplit="1" topLeftCell="A1829" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1854" sqref="E1854"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -86425,23 +86434,89 @@
       </c>
     </row>
     <row r="1852" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1852" t="e">
+      <c r="A1852" t="s">
+        <v>2186</v>
+      </c>
+      <c r="B1852" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1852" t="str">
         <f>VLOOKUP(B1852,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1852" t="e">
+        <v>Philadelphia Phillies</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1852" t="s">
+        <v>2186</v>
+      </c>
+      <c r="I1852" t="s">
+        <v>2186</v>
+      </c>
+      <c r="J1852" t="s">
+        <v>2186</v>
+      </c>
+      <c r="L1852" t="s">
+        <v>2186</v>
+      </c>
+      <c r="M1852" t="s">
+        <v>2186</v>
+      </c>
+      <c r="N1852" t="str">
         <f>VLOOKUP(B1852,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Philadelphia</v>
       </c>
     </row>
     <row r="1853" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1853" t="e">
+      <c r="A1853" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B1853" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1853" t="str">
         <f>VLOOKUP(B1853,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1853" t="e">
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1853">
+        <v>33549</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>2187</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1853" t="s">
+        <v>2187</v>
+      </c>
+      <c r="I1853" t="s">
+        <v>2187</v>
+      </c>
+      <c r="J1853" t="s">
+        <v>2187</v>
+      </c>
+      <c r="L1853" t="s">
+        <v>2187</v>
+      </c>
+      <c r="M1853" t="s">
+        <v>2187</v>
+      </c>
+      <c r="N1853" t="str">
         <f>VLOOKUP(B1853,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1854" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CB4198-4ED1-4B9B-B6FF-E640FBB0CDE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC35004-9FCE-4193-8625-F5EEA9CB1C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22223" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22232" uniqueCount="2189">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6604,7 +6604,7 @@
     <t>Kyle Teel</t>
   </si>
   <si>
-    <t>sa213</t>
+    <t>Braxton Fulford</t>
   </si>
 </sst>
 </file>
@@ -6989,7 +6989,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1829" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1854" sqref="E1854"/>
+      <selection pane="bottomLeft" activeCell="F1852" sqref="F1852"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -86447,8 +86447,8 @@
       <c r="D1852" t="s">
         <v>16</v>
       </c>
-      <c r="E1852" t="s">
-        <v>2188</v>
+      <c r="E1852">
+        <v>31792</v>
       </c>
       <c r="F1852" t="s">
         <v>2186</v>
@@ -86520,13 +86520,46 @@
       </c>
     </row>
     <row r="1854" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1854" t="e">
+      <c r="A1854" t="s">
+        <v>2188</v>
+      </c>
+      <c r="B1854" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1854" t="str">
         <f>VLOOKUP(B1854,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1854" t="e">
+        <v>Colorado Rockies</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1854">
+        <v>29704</v>
+      </c>
+      <c r="F1854" t="s">
+        <v>2188</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1854" t="s">
+        <v>2188</v>
+      </c>
+      <c r="I1854" t="s">
+        <v>2188</v>
+      </c>
+      <c r="J1854" t="s">
+        <v>2188</v>
+      </c>
+      <c r="L1854" t="s">
+        <v>2188</v>
+      </c>
+      <c r="M1854" t="s">
+        <v>2188</v>
+      </c>
+      <c r="N1854" t="str">
         <f>VLOOKUP(B1854,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Colorado</v>
       </c>
     </row>
     <row r="1855" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29009"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC35004-9FCE-4193-8625-F5EEA9CB1C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E88009-52FA-48D2-860C-F2470A0CE466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22232" uniqueCount="2189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22261" uniqueCount="2191">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6605,6 +6605,12 @@
   </si>
   <si>
     <t>Braxton Fulford</t>
+  </si>
+  <si>
+    <t>Roman Anthony</t>
+  </si>
+  <si>
+    <t>Logan Porter</t>
   </si>
 </sst>
 </file>
@@ -6988,8 +6994,8 @@
   <dimension ref="A1:N1863"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1829" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1852" sqref="F1852"/>
+      <pane ySplit="1" topLeftCell="A1378" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1391" sqref="A1391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -66594,11 +66600,11 @@
         <v>1169</v>
       </c>
       <c r="B1391" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C1391" t="str">
         <f>VLOOKUP(B1391,Teams!$A:$B,2,FALSE)</f>
-        <v>Boston Red Sox</v>
+        <v>San Francisco Giants</v>
       </c>
       <c r="D1391" t="s">
         <v>61</v>
@@ -66630,8 +66636,9 @@
       <c r="M1391" t="s">
         <v>1169</v>
       </c>
-      <c r="N1391" t="s">
-        <v>2086</v>
+      <c r="N1391" t="str">
+        <f>VLOOKUP(B1391,Teams!A:C,3,FALSE)</f>
+        <v>San Francisco</v>
       </c>
     </row>
     <row r="1392" spans="1:14" x14ac:dyDescent="0.3">
@@ -86563,36 +86570,135 @@
       </c>
     </row>
     <row r="1855" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1855" t="e">
+      <c r="A1855" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1855" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1855" t="str">
         <f>VLOOKUP(B1855,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1855" t="e">
+        <v>Pittsburgh Pirates</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1855">
+        <v>18217</v>
+      </c>
+      <c r="F1855" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1855" t="s">
+        <v>1859</v>
+      </c>
+      <c r="I1855" t="s">
+        <v>1859</v>
+      </c>
+      <c r="J1855" t="s">
+        <v>1859</v>
+      </c>
+      <c r="L1855" t="s">
+        <v>1859</v>
+      </c>
+      <c r="M1855" t="s">
+        <v>1859</v>
+      </c>
+      <c r="N1855" t="str">
         <f>VLOOKUP(B1855,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Pittsburgh</v>
       </c>
     </row>
     <row r="1856" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1856" t="e">
+      <c r="A1856" t="s">
+        <v>2189</v>
+      </c>
+      <c r="B1856" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1856" t="str">
         <f>VLOOKUP(B1856,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1856" t="e">
+        <v>Boston Red Sox</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1856">
+        <v>31812</v>
+      </c>
+      <c r="F1856" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1856" t="s">
+        <v>2189</v>
+      </c>
+      <c r="I1856" t="s">
+        <v>2189</v>
+      </c>
+      <c r="J1856" t="s">
+        <v>2189</v>
+      </c>
+      <c r="L1856" t="s">
+        <v>2189</v>
+      </c>
+      <c r="M1856" t="s">
+        <v>2189</v>
+      </c>
+      <c r="N1856" t="str">
         <f>VLOOKUP(B1856,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1857" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1857" t="e">
+        <v>Boston</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1857" t="s">
+        <v>2190</v>
+      </c>
+      <c r="B1857" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1857" t="str">
         <f>VLOOKUP(B1857,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1857" t="e">
+        <v>San Francisco Giants</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1857">
+        <v>20626</v>
+      </c>
+      <c r="F1857" t="s">
+        <v>2190</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1857" t="s">
+        <v>2190</v>
+      </c>
+      <c r="I1857" t="s">
+        <v>2190</v>
+      </c>
+      <c r="J1857" t="s">
+        <v>2190</v>
+      </c>
+      <c r="L1857" t="s">
+        <v>2190</v>
+      </c>
+      <c r="M1857" t="s">
+        <v>2190</v>
+      </c>
+      <c r="N1857" t="str">
         <f>VLOOKUP(B1857,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1858" spans="3:14" x14ac:dyDescent="0.3">
+        <v>San Francisco</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1858" t="e">
         <f>VLOOKUP(B1858,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -86602,7 +86708,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1859" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1859" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1859" t="e">
         <f>VLOOKUP(B1859,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -86612,7 +86718,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1860" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1860" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1860" t="e">
         <f>VLOOKUP(B1860,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -86622,7 +86728,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1861" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1861" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1861" t="e">
         <f>VLOOKUP(B1861,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -86632,7 +86738,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1862" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1862" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1862" t="e">
         <f>VLOOKUP(B1862,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
@@ -86642,7 +86748,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1863" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1863" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1863" t="e">
         <f>VLOOKUP(B1863,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1E88009-52FA-48D2-860C-F2470A0CE466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6940ACCB-0DBB-4F3F-99BE-1C0D8F53E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22261" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22301" uniqueCount="2193">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6611,6 +6611,12 @@
   </si>
   <si>
     <t>Logan Porter</t>
+  </si>
+  <si>
+    <t>Brady House</t>
+  </si>
+  <si>
+    <t>Christian Moore</t>
   </si>
 </sst>
 </file>
@@ -6993,9 +6999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1863"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1378" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1391" sqref="A1391"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1837" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1862" sqref="K1862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13350,11 +13356,11 @@
         <v>926</v>
       </c>
       <c r="B149" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C149" t="str">
         <f>VLOOKUP(B149,Teams!$A:$B,2,FALSE)</f>
-        <v>Cincinnati Reds</v>
+        <v>ATH</v>
       </c>
       <c r="D149" t="s">
         <v>16</v>
@@ -13384,7 +13390,7 @@
         <v>926</v>
       </c>
       <c r="N149" t="s">
-        <v>2099</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
@@ -86472,6 +86478,9 @@
       <c r="J1852" t="s">
         <v>2186</v>
       </c>
+      <c r="K1852">
+        <v>805249</v>
+      </c>
       <c r="L1852" t="s">
         <v>2186</v>
       </c>
@@ -86515,6 +86524,9 @@
       <c r="J1853" t="s">
         <v>2187</v>
       </c>
+      <c r="K1853">
+        <v>691019</v>
+      </c>
       <c r="L1853" t="s">
         <v>2187</v>
       </c>
@@ -86558,6 +86570,9 @@
       <c r="J1854" t="s">
         <v>2188</v>
       </c>
+      <c r="K1854">
+        <v>690924</v>
+      </c>
       <c r="L1854" t="s">
         <v>2188</v>
       </c>
@@ -86601,6 +86616,9 @@
       <c r="J1855" t="s">
         <v>1859</v>
       </c>
+      <c r="K1855">
+        <v>664954</v>
+      </c>
       <c r="L1855" t="s">
         <v>1859</v>
       </c>
@@ -86644,6 +86662,9 @@
       <c r="J1856" t="s">
         <v>2189</v>
       </c>
+      <c r="K1856">
+        <v>701350</v>
+      </c>
       <c r="L1856" t="s">
         <v>2189</v>
       </c>
@@ -86687,6 +86708,9 @@
       <c r="J1857" t="s">
         <v>2190</v>
       </c>
+      <c r="K1857">
+        <v>682515</v>
+      </c>
       <c r="L1857" t="s">
         <v>2190</v>
       </c>
@@ -86699,43 +86723,187 @@
       </c>
     </row>
     <row r="1858" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1858" t="e">
+      <c r="A1858" t="s">
+        <v>2191</v>
+      </c>
+      <c r="B1858" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1858" t="str">
         <f>VLOOKUP(B1858,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1858" t="e">
+        <v>Washington Nationals</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1858">
+        <v>29993</v>
+      </c>
+      <c r="F1858" t="s">
+        <v>2191</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1858" t="s">
+        <v>2191</v>
+      </c>
+      <c r="I1858" t="s">
+        <v>2191</v>
+      </c>
+      <c r="J1858" t="s">
+        <v>2191</v>
+      </c>
+      <c r="K1858">
+        <v>691781</v>
+      </c>
+      <c r="L1858" t="s">
+        <v>2191</v>
+      </c>
+      <c r="M1858" t="s">
+        <v>2191</v>
+      </c>
+      <c r="N1858" t="str">
         <f>VLOOKUP(B1858,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Washington</v>
       </c>
     </row>
     <row r="1859" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1859" t="e">
+      <c r="A1859" t="s">
+        <v>2192</v>
+      </c>
+      <c r="B1859" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1859" t="str">
         <f>VLOOKUP(B1859,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1859" t="e">
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1859">
+        <v>34979</v>
+      </c>
+      <c r="F1859" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G1859" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1859" t="s">
+        <v>2192</v>
+      </c>
+      <c r="I1859" t="s">
+        <v>2192</v>
+      </c>
+      <c r="J1859" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K1859">
+        <v>695681</v>
+      </c>
+      <c r="L1859" t="s">
+        <v>2192</v>
+      </c>
+      <c r="M1859" t="s">
+        <v>2192</v>
+      </c>
+      <c r="N1859" t="str">
         <f>VLOOKUP(B1859,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1860" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1860" t="e">
+      <c r="A1860" t="s">
+        <v>1839</v>
+      </c>
+      <c r="B1860" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1860" t="str">
         <f>VLOOKUP(B1860,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1860" t="e">
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1860">
+        <v>23312</v>
+      </c>
+      <c r="F1860" t="s">
+        <v>1839</v>
+      </c>
+      <c r="G1860" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1860" t="s">
+        <v>1839</v>
+      </c>
+      <c r="I1860" t="s">
+        <v>1839</v>
+      </c>
+      <c r="J1860" t="s">
+        <v>1839</v>
+      </c>
+      <c r="K1860">
+        <v>676116</v>
+      </c>
+      <c r="L1860" t="s">
+        <v>1839</v>
+      </c>
+      <c r="M1860" t="s">
+        <v>1839</v>
+      </c>
+      <c r="N1860" t="str">
         <f>VLOOKUP(B1860,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1861" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1861" t="e">
+      <c r="A1861" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B1861" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1861" t="str">
         <f>VLOOKUP(B1861,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1861" t="e">
+        <v>San Diego Padres</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1861">
+        <v>19384</v>
+      </c>
+      <c r="F1861" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G1861" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1861" t="s">
+        <v>2039</v>
+      </c>
+      <c r="I1861" t="s">
+        <v>2039</v>
+      </c>
+      <c r="J1861" t="s">
+        <v>2039</v>
+      </c>
+      <c r="K1861">
+        <v>670092</v>
+      </c>
+      <c r="L1861" t="s">
+        <v>2039</v>
+      </c>
+      <c r="M1861" t="s">
+        <v>2039</v>
+      </c>
+      <c r="N1861" t="str">
         <f>VLOOKUP(B1861,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>San Diego</v>
       </c>
     </row>
     <row r="1862" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6940ACCB-0DBB-4F3F-99BE-1C0D8F53E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC2BAFB-2194-47FB-965D-DF21D99E4D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22301" uniqueCount="2193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22330" uniqueCount="2197">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6617,6 +6617,18 @@
   </si>
   <si>
     <t>Christian Moore</t>
+  </si>
+  <si>
+    <t>Billy Cook</t>
+  </si>
+  <si>
+    <t>Luis Vazquez</t>
+  </si>
+  <si>
+    <t>Luis Vázquez</t>
+  </si>
+  <si>
+    <t>Andres Chaparro</t>
   </si>
 </sst>
 </file>
@@ -6997,11 +7009,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1863"/>
+  <dimension ref="A1:N1896"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1837" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1862" sqref="K1862"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1846" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1865" sqref="E1865"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53493,11 +53505,11 @@
         <v>483</v>
       </c>
       <c r="B1086" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="C1086" t="str">
         <f>VLOOKUP(B1086,Teams!$A:$B,2,FALSE)</f>
-        <v>San Francisco Giants</v>
+        <v>Los Angeles Angels</v>
       </c>
       <c r="D1086" t="s">
         <v>61</v>
@@ -53529,8 +53541,9 @@
       <c r="M1086" t="s">
         <v>483</v>
       </c>
-      <c r="N1086" t="s">
-        <v>2111</v>
+      <c r="N1086" t="str">
+        <f>VLOOKUP(B1862,Teams!A:C,3,FALSE)</f>
+        <v>Pittsburgh</v>
       </c>
     </row>
     <row r="1087" spans="1:14" x14ac:dyDescent="0.3">
@@ -86907,22 +86920,340 @@
       </c>
     </row>
     <row r="1862" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1862" t="e">
+      <c r="A1862" t="s">
+        <v>2193</v>
+      </c>
+      <c r="B1862" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1862" t="str">
         <f>VLOOKUP(B1862,Teams!$A:$B,2,FALSE)</f>
+        <v>Pittsburgh Pirates</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1862">
+        <v>29573</v>
+      </c>
+      <c r="F1862" t="s">
+        <v>2193</v>
+      </c>
+      <c r="G1862" t="s">
+        <v>484</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>2193</v>
+      </c>
+      <c r="I1862" t="s">
+        <v>2193</v>
+      </c>
+      <c r="J1862" t="s">
+        <v>2193</v>
+      </c>
+      <c r="K1862">
+        <v>695257</v>
+      </c>
+      <c r="L1862" t="s">
+        <v>2193</v>
+      </c>
+      <c r="M1862" t="s">
+        <v>2193</v>
+      </c>
+      <c r="N1862" t="str">
+        <f>VLOOKUP(B1862,Teams!A:C,3,FALSE)</f>
+        <v>Pittsburgh</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1863" t="s">
+        <v>2194</v>
+      </c>
+      <c r="B1863" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1863" t="str">
+        <f>VLOOKUP(B1863,Teams!$A:$B,2,FALSE)</f>
+        <v>Baltimore Orioles</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1863">
+        <v>23442</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>2194</v>
+      </c>
+      <c r="G1863" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H1863" t="s">
+        <v>2194</v>
+      </c>
+      <c r="I1863" t="s">
+        <v>2194</v>
+      </c>
+      <c r="J1863" t="s">
+        <v>2195</v>
+      </c>
+      <c r="K1863">
+        <v>676679</v>
+      </c>
+      <c r="L1863" t="s">
+        <v>2195</v>
+      </c>
+      <c r="M1863" t="s">
+        <v>2194</v>
+      </c>
+      <c r="N1863" t="str">
+        <f>VLOOKUP(B1863,Teams!A:C,3,FALSE)</f>
+        <v>Baltimore</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1864" t="s">
+        <v>2196</v>
+      </c>
+      <c r="B1864" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1864" t="str">
+        <f>VLOOKUP(B1864,Teams!$A:$B,2,FALSE)</f>
+        <v>Washington Nationals</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1864">
+        <v>21797</v>
+      </c>
+      <c r="F1864" t="s">
+        <v>2196</v>
+      </c>
+      <c r="G1864" t="s">
+        <v>1559</v>
+      </c>
+      <c r="H1864" t="s">
+        <v>2196</v>
+      </c>
+      <c r="I1864" t="s">
+        <v>2196</v>
+      </c>
+      <c r="J1864" t="s">
+        <v>2196</v>
+      </c>
+      <c r="K1864">
+        <v>665953</v>
+      </c>
+      <c r="L1864" t="s">
+        <v>2196</v>
+      </c>
+      <c r="M1864" t="s">
+        <v>2196</v>
+      </c>
+      <c r="N1864" t="str">
+        <f>VLOOKUP(B1864,Teams!A:C,3,FALSE)</f>
+        <v>Washington</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1865" t="e">
+        <f>VLOOKUP(B1865,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N1862" t="e">
-        <f>VLOOKUP(B1862,Teams!A:C,3,FALSE)</f>
+      <c r="N1865" t="e">
+        <f>VLOOKUP(B1865,Teams!A:C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1863" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1863" t="e">
-        <f>VLOOKUP(B1863,Teams!$A:$B,2,FALSE)</f>
+    <row r="1866" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1866" t="e">
+        <f>VLOOKUP(B1866,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="N1863" t="e">
-        <f>VLOOKUP(B1863,Teams!A:C,3,FALSE)</f>
+      <c r="N1866" t="e">
+        <f>VLOOKUP(B1866,Teams!A:C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1867" t="e">
+        <f>VLOOKUP(B1867,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1868" t="e">
+        <f>VLOOKUP(B1868,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1869" t="e">
+        <f>VLOOKUP(B1869,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1870" t="e">
+        <f>VLOOKUP(B1870,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1871" t="e">
+        <f>VLOOKUP(B1871,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1872" t="e">
+        <f>VLOOKUP(B1872,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1873" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1873" t="e">
+        <f>VLOOKUP(B1873,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1874" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1874" t="e">
+        <f>VLOOKUP(B1874,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1875" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1875" t="e">
+        <f>VLOOKUP(B1875,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1876" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1876" t="e">
+        <f>VLOOKUP(B1876,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1877" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1877" t="e">
+        <f>VLOOKUP(B1877,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1878" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1878" t="e">
+        <f>VLOOKUP(B1878,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1879" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1879" t="e">
+        <f>VLOOKUP(B1879,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1880" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1880" t="e">
+        <f>VLOOKUP(B1880,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1881" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1881" t="e">
+        <f>VLOOKUP(B1881,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1882" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1882" t="e">
+        <f>VLOOKUP(B1882,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1883" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1883" t="e">
+        <f>VLOOKUP(B1883,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1884" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1884" t="e">
+        <f>VLOOKUP(B1884,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1885" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1885" t="e">
+        <f>VLOOKUP(B1885,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1886" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1886" t="e">
+        <f>VLOOKUP(B1886,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1887" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1887" t="e">
+        <f>VLOOKUP(B1887,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1888" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1888" t="e">
+        <f>VLOOKUP(B1888,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1889" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1889" t="e">
+        <f>VLOOKUP(B1889,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1890" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1890" t="e">
+        <f>VLOOKUP(B1890,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1891" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1891" t="e">
+        <f>VLOOKUP(B1891,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1892" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1892" t="e">
+        <f>VLOOKUP(B1892,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1893" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1893" t="e">
+        <f>VLOOKUP(B1893,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1894" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1894" t="e">
+        <f>VLOOKUP(B1894,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1895" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1895" t="e">
+        <f>VLOOKUP(B1895,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1896" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1896" t="e">
+        <f>VLOOKUP(B1896,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CC2BAFB-2194-47FB-965D-DF21D99E4D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1491DAD3-583D-4B47-9B4D-3B511E0FC5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22330" uniqueCount="2197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22360" uniqueCount="2200">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6629,6 +6629,15 @@
   </si>
   <si>
     <t>Andres Chaparro</t>
+  </si>
+  <si>
+    <t>Yanquiel Fernandez</t>
+  </si>
+  <si>
+    <t>Colson Montgomery</t>
+  </si>
+  <si>
+    <t>Chad Stevens</t>
   </si>
 </sst>
 </file>
@@ -7011,9 +7020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1896"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1846" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1865" sqref="E1865"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O692" sqref="O692"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9771,11 +9780,11 @@
         <v>945</v>
       </c>
       <c r="B65" t="s">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="C65" t="str">
         <f>VLOOKUP(B65,Teams!$A:$B,2,FALSE)</f>
-        <v>New York Yankees</v>
+        <v>Baltimore Orioles</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -9805,7 +9814,7 @@
         <v>945</v>
       </c>
       <c r="N65" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
@@ -36609,11 +36618,11 @@
         <v>115</v>
       </c>
       <c r="B692" t="s">
-        <v>100</v>
+        <v>194</v>
       </c>
       <c r="C692" t="str">
         <f>VLOOKUP(B692,Teams!$A:$B,2,FALSE)</f>
-        <v>San Diego Padres</v>
+        <v>Tampa Bay Rays</v>
       </c>
       <c r="D692" t="s">
         <v>16</v>
@@ -36646,7 +36655,7 @@
         <v>115</v>
       </c>
       <c r="N692" t="s">
-        <v>2110</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="693" spans="1:14" x14ac:dyDescent="0.3">
@@ -39393,11 +39402,11 @@
         <v>909</v>
       </c>
       <c r="B757" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C757" t="str">
         <f>VLOOKUP(B757,Teams!$A:$B,2,FALSE)</f>
-        <v>Colorado Rockies</v>
+        <v>Baltimore Orioles</v>
       </c>
       <c r="D757" t="s">
         <v>16</v>
@@ -39430,7 +39439,7 @@
         <v>909</v>
       </c>
       <c r="N757" t="s">
-        <v>2092</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="758" spans="1:14" x14ac:dyDescent="0.3">
@@ -40695,11 +40704,11 @@
         <v>896</v>
       </c>
       <c r="B787" t="s">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="C787" t="str">
         <f>VLOOKUP(B787,Teams!$A:$B,2,FALSE)</f>
-        <v>Baltimore Orioles</v>
+        <v>Arizona Diamondbacks</v>
       </c>
       <c r="D787" t="s">
         <v>16</v>
@@ -40729,7 +40738,7 @@
         <v>896</v>
       </c>
       <c r="N787" t="s">
-        <v>2105</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="788" spans="1:14" x14ac:dyDescent="0.3">
@@ -87058,29 +87067,141 @@
       </c>
     </row>
     <row r="1865" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1865" t="e">
+      <c r="A1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B1865" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1865" t="str">
         <f>VLOOKUP(B1865,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1865" t="e">
+        <v>Colorado Rockies</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1865">
+        <v>28552</v>
+      </c>
+      <c r="F1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="G1865" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="I1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="J1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="K1865">
+        <v>692585</v>
+      </c>
+      <c r="L1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="M1865" t="s">
+        <v>2197</v>
+      </c>
+      <c r="N1865" t="str">
         <f>VLOOKUP(B1865,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Colorado</v>
       </c>
     </row>
     <row r="1866" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1866" t="e">
+      <c r="A1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="B1866" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1866" t="str">
         <f>VLOOKUP(B1866,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1866" t="e">
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1866">
+        <v>29712</v>
+      </c>
+      <c r="F1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G1866" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="I1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="J1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="K1866">
+        <v>695657</v>
+      </c>
+      <c r="L1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="M1866" t="s">
+        <v>2198</v>
+      </c>
+      <c r="N1866" t="str">
         <f>VLOOKUP(B1866,Teams!A:C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Chicago</v>
       </c>
     </row>
     <row r="1867" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1867" t="e">
+      <c r="A1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="B1867" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1867" t="str">
         <f>VLOOKUP(B1867,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1867">
+        <v>29614</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="G1867" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="I1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="J1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="K1867">
+        <v>677060</v>
+      </c>
+      <c r="L1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="M1867" t="s">
+        <v>2199</v>
+      </c>
+      <c r="N1867" t="str">
+        <f>VLOOKUP(B1867,Teams!A:C,3,FALSE)</f>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1868" spans="1:14" x14ac:dyDescent="0.3">
@@ -87267,11 +87388,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEF7779-B884-49D6-8148-3CA6CC27A4F7}">
   <dimension ref="A1:A1780"/>
   <sheetViews>
-    <sheetView topLeftCell="A1754" workbookViewId="0">
-      <selection sqref="A1:A1780"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A438" sqref="A438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -96182,8 +96306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F1FBCE-CBDD-48AA-9BEB-8AAE23BDCD4C}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29101"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1491DAD3-583D-4B47-9B4D-3B511E0FC5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00888288-C5F9-460B-9B48-30E1DD91B467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="384" windowWidth="23016" windowHeight="12216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22360" uniqueCount="2200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22380" uniqueCount="2203">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6638,6 +6638,15 @@
   </si>
   <si>
     <t>Chad Stevens</t>
+  </si>
+  <si>
+    <t>Anthony Seigler</t>
+  </si>
+  <si>
+    <t>Nacho Alvarez</t>
+  </si>
+  <si>
+    <t>Nacho Alvarez Jr</t>
   </si>
 </sst>
 </file>
@@ -7020,9 +7029,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1896"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A680" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O692" sqref="O692"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1845" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1869" sqref="K1869"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -32820,11 +32829,11 @@
         <v>1808</v>
       </c>
       <c r="B604" t="s">
-        <v>156</v>
+        <v>96</v>
       </c>
       <c r="C604" t="str">
         <f>VLOOKUP(B604,Teams!$A:$B,2,FALSE)</f>
-        <v>ATH</v>
+        <v>Los Angeles Dodgers</v>
       </c>
       <c r="D604" t="s">
         <v>16</v>
@@ -32857,7 +32866,7 @@
         <v>1808</v>
       </c>
       <c r="N604" t="s">
-        <v>156</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="605" spans="1:14" x14ac:dyDescent="0.3">
@@ -74891,11 +74900,11 @@
         <v>791</v>
       </c>
       <c r="B1585" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C1585" t="str">
         <f>VLOOKUP(B1585,Teams!$A:$B,2,FALSE)</f>
-        <v>Seattle Mariners</v>
+        <v>Houston Astros</v>
       </c>
       <c r="D1585" t="s">
         <v>61</v>
@@ -74928,7 +74937,7 @@
         <v>791</v>
       </c>
       <c r="N1585" t="s">
-        <v>2083</v>
+        <v>2091</v>
       </c>
     </row>
     <row r="1586" spans="1:14" x14ac:dyDescent="0.3">
@@ -87205,15 +87214,95 @@
       </c>
     </row>
     <row r="1868" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1868" t="e">
+      <c r="A1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="B1868" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1868" t="str">
         <f>VLOOKUP(B1868,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Milwaukee Brewers</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1868">
+        <v>23802</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="I1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="J1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="K1868">
+        <v>678011</v>
+      </c>
+      <c r="L1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="M1868" t="s">
+        <v>2200</v>
+      </c>
+      <c r="N1868" t="str">
+        <f>VLOOKUP(B1868,Teams!A:C,3,FALSE)</f>
+        <v>Milwaukee</v>
       </c>
     </row>
     <row r="1869" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1869" t="e">
+      <c r="A1869" t="s">
+        <v>2201</v>
+      </c>
+      <c r="B1869" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1869" t="str">
         <f>VLOOKUP(B1869,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Atlanta Braves</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1869">
+        <v>31765</v>
+      </c>
+      <c r="F1869" t="s">
+        <v>2202</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1869" t="s">
+        <v>2201</v>
+      </c>
+      <c r="I1869" t="s">
+        <v>2201</v>
+      </c>
+      <c r="J1869" t="s">
+        <v>2201</v>
+      </c>
+      <c r="K1869">
+        <v>805373</v>
+      </c>
+      <c r="L1869" t="s">
+        <v>2201</v>
+      </c>
+      <c r="M1869" t="s">
+        <v>2201</v>
+      </c>
+      <c r="N1869" t="str">
+        <f>VLOOKUP(B1869,Teams!A:C,3,FALSE)</f>
+        <v>Atlanta</v>
       </c>
     </row>
     <row r="1870" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23872077-01C1-4DDA-AB8D-6D26E7A96F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE8AD62-E2FD-41A0-9AB7-1E55BB5F2AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22518" uniqueCount="2218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22529" uniqueCount="2219">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6692,6 +6692,9 @@
   </si>
   <si>
     <t>Jakob Marsee</t>
+  </si>
+  <si>
+    <t>Jonathan Ornelas</t>
   </si>
 </sst>
 </file>
@@ -7072,11 +7075,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1874"/>
+  <dimension ref="A1:N1875"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K736" sqref="K736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26184,11 +26187,11 @@
         <v>2003</v>
       </c>
       <c r="B445" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="C445" t="str">
         <f>VLOOKUP(B445,Teams!$A:$B,2,FALSE)</f>
-        <v>Tampa Bay Rays</v>
+        <v>Chicago White Sox</v>
       </c>
       <c r="D445" t="s">
         <v>16</v>
@@ -32844,6 +32847,9 @@
       <c r="J600" t="s">
         <v>789</v>
       </c>
+      <c r="K600">
+        <v>642201</v>
+      </c>
       <c r="L600" t="s">
         <v>789</v>
       </c>
@@ -38655,6 +38661,9 @@
       <c r="J735" t="s">
         <v>1917</v>
       </c>
+      <c r="K735">
+        <v>680779</v>
+      </c>
       <c r="L735" t="s">
         <v>1917</v>
       </c>
@@ -87661,6 +87670,51 @@
         <v>663</v>
       </c>
       <c r="N1874" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1875" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1875" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1875" t="str">
+        <f>VLOOKUP(B1875,Teams!$A:$B,2,FALSE)</f>
+        <v>Atlanta Braves</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1875">
+        <v>24597</v>
+      </c>
+      <c r="F1875" t="s">
+        <v>2218</v>
+      </c>
+      <c r="G1875" t="s">
+        <v>1089</v>
+      </c>
+      <c r="H1875" t="s">
+        <v>2218</v>
+      </c>
+      <c r="I1875" t="s">
+        <v>2218</v>
+      </c>
+      <c r="J1875" t="s">
+        <v>2218</v>
+      </c>
+      <c r="K1875">
+        <v>680716</v>
+      </c>
+      <c r="L1875" t="s">
+        <v>2218</v>
+      </c>
+      <c r="M1875" t="s">
+        <v>2218</v>
+      </c>
+      <c r="N1875" t="s">
         <v>2100</v>
       </c>
     </row>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29204"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE8AD62-E2FD-41A0-9AB7-1E55BB5F2AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{063A0ED4-E719-48E3-9B31-93C527B2A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22529" uniqueCount="2219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22642" uniqueCount="2231">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6695,6 +6695,42 @@
   </si>
   <si>
     <t>Jonathan Ornelas</t>
+  </si>
+  <si>
+    <t>Bryce Teodosio</t>
+  </si>
+  <si>
+    <t>C.J. Kayfus</t>
+  </si>
+  <si>
+    <t>Tristan Peters</t>
+  </si>
+  <si>
+    <t>Hunter Feduccia</t>
+  </si>
+  <si>
+    <t>Kyle Karros</t>
+  </si>
+  <si>
+    <t>Drew Gilbert</t>
+  </si>
+  <si>
+    <t>Samuel Basallo</t>
+  </si>
+  <si>
+    <t>Dylan Beavers</t>
+  </si>
+  <si>
+    <t>sa234</t>
+  </si>
+  <si>
+    <t>Bob Seymour</t>
+  </si>
+  <si>
+    <t>Nathan Church</t>
+  </si>
+  <si>
+    <t>sa345</t>
   </si>
 </sst>
 </file>
@@ -7075,11 +7111,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1875"/>
+  <dimension ref="A1:N1885"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K736" sqref="K736"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1863" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1886" sqref="D1886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16041,11 +16077,11 @@
         <v>2079</v>
       </c>
       <c r="B209" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="C209" t="str">
         <f>VLOOKUP(B209,Teams!$A:$B,2,FALSE)</f>
-        <v>San Diego Padres</v>
+        <v>Milwaukee Brewers</v>
       </c>
       <c r="D209" t="s">
         <v>16</v>
@@ -27342,11 +27378,11 @@
         <v>939</v>
       </c>
       <c r="B472" t="s">
-        <v>194</v>
+        <v>22</v>
       </c>
       <c r="C472" t="str">
         <f>VLOOKUP(B472,Teams!$A:$B,2,FALSE)</f>
-        <v>Tampa Bay Rays</v>
+        <v>Milwaukee Brewers</v>
       </c>
       <c r="D472" t="s">
         <v>16</v>
@@ -36042,11 +36078,11 @@
         <v>1314</v>
       </c>
       <c r="B675" t="s">
-        <v>112</v>
+        <v>142</v>
       </c>
       <c r="C675" t="str">
         <f>VLOOKUP(B675,Teams!$A:$B,2,FALSE)</f>
-        <v>Cincinnati Reds</v>
+        <v>St. Louis Cardinals</v>
       </c>
       <c r="D675" t="s">
         <v>16</v>
@@ -37344,11 +37380,11 @@
         <v>445</v>
       </c>
       <c r="B705" t="s">
-        <v>78</v>
+        <v>168</v>
       </c>
       <c r="C705" t="str">
         <f>VLOOKUP(B705,Teams!$A:$B,2,FALSE)</f>
-        <v>Chicago Cubs</v>
+        <v>Baltimore Orioles</v>
       </c>
       <c r="D705" t="s">
         <v>35</v>
@@ -42882,11 +42918,11 @@
         <v>1802</v>
       </c>
       <c r="B833" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="C833" t="str">
         <f>VLOOKUP(B833,Teams!$A:$B,2,FALSE)</f>
-        <v>Los Angeles Dodgers</v>
+        <v>Minnesota Twins</v>
       </c>
       <c r="D833" t="s">
         <v>61</v>
@@ -47049,11 +47085,11 @@
         <v>1812</v>
       </c>
       <c r="B930" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="C930" t="str">
         <f>VLOOKUP(B930,Teams!$A:$B,2,FALSE)</f>
-        <v>Kansas City Royals</v>
+        <v>Miami Marlins</v>
       </c>
       <c r="D930" t="s">
         <v>16</v>
@@ -49815,11 +49851,11 @@
         <v>1814</v>
       </c>
       <c r="B994" t="s">
-        <v>194</v>
+        <v>81</v>
       </c>
       <c r="C994" t="str">
         <f>VLOOKUP(B994,Teams!$A:$B,2,FALSE)</f>
-        <v>Tampa Bay Rays</v>
+        <v>New York Yankees</v>
       </c>
       <c r="D994" t="s">
         <v>16</v>
@@ -63081,11 +63117,11 @@
         <v>1164</v>
       </c>
       <c r="B1302" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C1302" t="str">
         <f>VLOOKUP(B1302,Teams!$A:$B,2,FALSE)</f>
-        <v>ATH</v>
+        <v>Cincinnati Reds</v>
       </c>
       <c r="D1302" t="s">
         <v>16</v>
@@ -84585,11 +84621,11 @@
         <v>161</v>
       </c>
       <c r="B1803" t="s">
-        <v>145</v>
+        <v>78</v>
       </c>
       <c r="C1803" t="str">
         <f>VLOOKUP(B1803,Teams!$A:$B,2,FALSE)</f>
-        <v>Minnesota Twins</v>
+        <v>Chicago Cubs</v>
       </c>
       <c r="D1803" t="s">
         <v>35</v>
@@ -87716,6 +87752,456 @@
       </c>
       <c r="N1875" t="s">
         <v>2100</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1876" t="s">
+        <v>2219</v>
+      </c>
+      <c r="B1876" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1876" t="str">
+        <f>VLOOKUP(B1876,Teams!$A:$B,2,FALSE)</f>
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1876">
+        <v>29524</v>
+      </c>
+      <c r="F1876" t="s">
+        <v>2219</v>
+      </c>
+      <c r="G1876" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1876" t="s">
+        <v>2219</v>
+      </c>
+      <c r="I1876" t="s">
+        <v>2219</v>
+      </c>
+      <c r="J1876" t="s">
+        <v>2219</v>
+      </c>
+      <c r="K1876">
+        <v>669326</v>
+      </c>
+      <c r="L1876" t="s">
+        <v>2219</v>
+      </c>
+      <c r="M1876" t="s">
+        <v>2219</v>
+      </c>
+      <c r="N1876" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1877" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1877" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1877" t="str">
+        <f>VLOOKUP(B1877,Teams!$A:$B,2,FALSE)</f>
+        <v>Cleveland Indians</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1877">
+        <v>33704</v>
+      </c>
+      <c r="F1877" t="s">
+        <v>2220</v>
+      </c>
+      <c r="G1877" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1877" t="s">
+        <v>2220</v>
+      </c>
+      <c r="I1877" t="s">
+        <v>2220</v>
+      </c>
+      <c r="J1877" t="s">
+        <v>2220</v>
+      </c>
+      <c r="K1877">
+        <v>692216</v>
+      </c>
+      <c r="L1877" t="s">
+        <v>2220</v>
+      </c>
+      <c r="M1877" t="s">
+        <v>2220</v>
+      </c>
+      <c r="N1877" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1878" t="s">
+        <v>2221</v>
+      </c>
+      <c r="B1878" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1878" t="str">
+        <f>VLOOKUP(B1878,Teams!$A:$B,2,FALSE)</f>
+        <v>Tampa Bay Rays</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1878">
+        <v>30063</v>
+      </c>
+      <c r="F1878" t="s">
+        <v>2221</v>
+      </c>
+      <c r="G1878" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1878" t="s">
+        <v>2221</v>
+      </c>
+      <c r="I1878" t="s">
+        <v>2221</v>
+      </c>
+      <c r="J1878" t="s">
+        <v>2221</v>
+      </c>
+      <c r="K1878">
+        <v>671976</v>
+      </c>
+      <c r="L1878" t="s">
+        <v>2221</v>
+      </c>
+      <c r="M1878" t="s">
+        <v>2221</v>
+      </c>
+      <c r="N1878" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1879" t="s">
+        <v>2222</v>
+      </c>
+      <c r="B1879" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1879" t="str">
+        <f>VLOOKUP(B1879,Teams!$A:$B,2,FALSE)</f>
+        <v>Tampa Bay Rays</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1879">
+        <v>23372</v>
+      </c>
+      <c r="F1879" t="s">
+        <v>2222</v>
+      </c>
+      <c r="G1879" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1879" t="s">
+        <v>2222</v>
+      </c>
+      <c r="I1879" t="s">
+        <v>2222</v>
+      </c>
+      <c r="J1879" t="s">
+        <v>2222</v>
+      </c>
+      <c r="K1879">
+        <v>676439</v>
+      </c>
+      <c r="L1879" t="s">
+        <v>2222</v>
+      </c>
+      <c r="M1879" t="s">
+        <v>2222</v>
+      </c>
+      <c r="N1879" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1880" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B1880" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1880" t="str">
+        <f>VLOOKUP(B1880,Teams!$A:$B,2,FALSE)</f>
+        <v>Colorado Rockies</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1880">
+        <v>33252</v>
+      </c>
+      <c r="F1880" t="s">
+        <v>2223</v>
+      </c>
+      <c r="G1880" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1880" t="s">
+        <v>2223</v>
+      </c>
+      <c r="I1880" t="s">
+        <v>2223</v>
+      </c>
+      <c r="J1880" t="s">
+        <v>2223</v>
+      </c>
+      <c r="K1880">
+        <v>691720</v>
+      </c>
+      <c r="L1880" t="s">
+        <v>2223</v>
+      </c>
+      <c r="M1880" t="s">
+        <v>2223</v>
+      </c>
+      <c r="N1880" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1881" t="s">
+        <v>2224</v>
+      </c>
+      <c r="B1881" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1881" t="str">
+        <f>VLOOKUP(B1881,Teams!$A:$B,2,FALSE)</f>
+        <v>San Francisco Giants</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1881">
+        <v>31545</v>
+      </c>
+      <c r="F1881" t="s">
+        <v>2224</v>
+      </c>
+      <c r="G1881" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1881" t="s">
+        <v>2224</v>
+      </c>
+      <c r="I1881" t="s">
+        <v>2224</v>
+      </c>
+      <c r="J1881" t="s">
+        <v>2224</v>
+      </c>
+      <c r="K1881">
+        <v>687551</v>
+      </c>
+      <c r="L1881" t="s">
+        <v>2224</v>
+      </c>
+      <c r="M1881" t="s">
+        <v>2224</v>
+      </c>
+      <c r="N1881" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1882" t="s">
+        <v>2225</v>
+      </c>
+      <c r="B1882" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1882" t="str">
+        <f>VLOOKUP(B1882,Teams!$A:$B,2,FALSE)</f>
+        <v>Baltimore Orioles</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1882" t="s">
+        <v>2225</v>
+      </c>
+      <c r="G1882" t="s">
+        <v>849</v>
+      </c>
+      <c r="H1882" t="s">
+        <v>2225</v>
+      </c>
+      <c r="I1882" t="s">
+        <v>2225</v>
+      </c>
+      <c r="J1882" t="s">
+        <v>2225</v>
+      </c>
+      <c r="K1882">
+        <v>694212</v>
+      </c>
+      <c r="L1882" t="s">
+        <v>2225</v>
+      </c>
+      <c r="M1882" t="s">
+        <v>2225</v>
+      </c>
+      <c r="N1882" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1883" t="s">
+        <v>2226</v>
+      </c>
+      <c r="B1883" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1883" t="str">
+        <f>VLOOKUP(B1883,Teams!$A:$B,2,FALSE)</f>
+        <v>Baltimore Orioles</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F1883" t="s">
+        <v>2226</v>
+      </c>
+      <c r="G1883" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1883" t="s">
+        <v>2226</v>
+      </c>
+      <c r="I1883" t="s">
+        <v>2226</v>
+      </c>
+      <c r="J1883" t="s">
+        <v>2226</v>
+      </c>
+      <c r="K1883">
+        <v>687637</v>
+      </c>
+      <c r="L1883" t="s">
+        <v>2226</v>
+      </c>
+      <c r="M1883" t="s">
+        <v>2226</v>
+      </c>
+      <c r="N1883" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1884" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1884" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1884" t="str">
+        <f>VLOOKUP(B1884,Teams!$A:$B,2,FALSE)</f>
+        <v>Tampa Bay Rays</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1884">
+        <v>30028</v>
+      </c>
+      <c r="F1884" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G1884" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1884" t="s">
+        <v>2228</v>
+      </c>
+      <c r="I1884" t="s">
+        <v>2228</v>
+      </c>
+      <c r="J1884" t="s">
+        <v>2228</v>
+      </c>
+      <c r="K1884">
+        <v>676044</v>
+      </c>
+      <c r="L1884" t="s">
+        <v>2228</v>
+      </c>
+      <c r="M1884" t="s">
+        <v>2228</v>
+      </c>
+      <c r="N1884" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1885" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1885" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1885" t="str">
+        <f>VLOOKUP(B1885,Teams!$A:$B,2,FALSE)</f>
+        <v>St. Louis Cardinals</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>2230</v>
+      </c>
+      <c r="F1885" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G1885" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1885" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I1885" t="s">
+        <v>2229</v>
+      </c>
+      <c r="J1885" t="s">
+        <v>2229</v>
+      </c>
+      <c r="K1885">
+        <v>701675</v>
+      </c>
+      <c r="L1885" t="s">
+        <v>2229</v>
+      </c>
+      <c r="M1885" t="s">
+        <v>2229</v>
+      </c>
+      <c r="N1885" t="s">
+        <v>2112</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29204"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{063A0ED4-E719-48E3-9B31-93C527B2A635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0D6D7D-553F-4138-9801-2A8CF239A140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22642" uniqueCount="2231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22693" uniqueCount="2233">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6682,9 +6682,6 @@
     <t>Alex Freeland</t>
   </si>
   <si>
-    <t>sa302</t>
-  </si>
-  <si>
     <t>Troy Johnston</t>
   </si>
   <si>
@@ -6721,16 +6718,25 @@
     <t>Dylan Beavers</t>
   </si>
   <si>
-    <t>sa234</t>
-  </si>
-  <si>
     <t>Bob Seymour</t>
   </si>
   <si>
     <t>Nathan Church</t>
   </si>
   <si>
-    <t>sa345</t>
+    <t>Everson Pereira</t>
+  </si>
+  <si>
+    <t>Maximo Acosta</t>
+  </si>
+  <si>
+    <t>Owen Caissie</t>
+  </si>
+  <si>
+    <t>Ryan Fitzgerald</t>
+  </si>
+  <si>
+    <t>Niko Kavadas</t>
   </si>
 </sst>
 </file>
@@ -7111,11 +7117,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1885"/>
+  <dimension ref="A1:N1890"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1863" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1886" sqref="D1886"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9768,11 +9774,11 @@
         <v>1823</v>
       </c>
       <c r="B62" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(B62,Teams!$A:$B,2,FALSE)</f>
-        <v>Washington Nationals</v>
+        <v>Los Angeles Dodgers</v>
       </c>
       <c r="D62" t="s">
         <v>16</v>
@@ -9939,14 +9945,14 @@
       <c r="D66" t="s">
         <v>35</v>
       </c>
-      <c r="E66" t="s">
-        <v>2214</v>
+      <c r="E66">
+        <v>31665</v>
       </c>
       <c r="F66" t="s">
         <v>2213</v>
       </c>
       <c r="G66" t="s">
-        <v>76</v>
+        <v>1351</v>
       </c>
       <c r="H66" t="s">
         <v>2213</v>
@@ -18924,11 +18930,11 @@
         <v>2023</v>
       </c>
       <c r="B275" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="C275" t="str">
         <f>VLOOKUP(B275,Teams!$A:$B,2,FALSE)</f>
-        <v>Philadelphia Phillies</v>
+        <v>Los Angeles Dodgers</v>
       </c>
       <c r="D275" t="s">
         <v>16</v>
@@ -42612,7 +42618,7 @@
     </row>
     <row r="826" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A826" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="B826" t="s">
         <v>43</v>
@@ -42628,28 +42634,28 @@
         <v>31370</v>
       </c>
       <c r="F826" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="G826" t="s">
         <v>238</v>
       </c>
       <c r="H826" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="I826" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="J826" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="K826">
         <v>805300</v>
       </c>
       <c r="L826" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="M826" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="N826" t="s">
         <v>44</v>
@@ -45189,7 +45195,7 @@
     </row>
     <row r="886" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A886" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="B886" t="s">
         <v>168</v>
@@ -45205,28 +45211,28 @@
         <v>22239</v>
       </c>
       <c r="F886" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="G886" t="s">
         <v>807</v>
       </c>
       <c r="H886" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="I886" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="J886" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="K886">
         <v>669236</v>
       </c>
       <c r="L886" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="M886" t="s">
-        <v>2216</v>
+        <v>2215</v>
       </c>
       <c r="N886" t="s">
         <v>169</v>
@@ -65274,11 +65280,11 @@
         <v>1575</v>
       </c>
       <c r="B1352" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C1352" t="str">
         <f>VLOOKUP(B1352,Teams!$A:$B,2,FALSE)</f>
-        <v>Washington Nationals</v>
+        <v>Boston Red Sox</v>
       </c>
       <c r="D1352" t="s">
         <v>61</v>
@@ -68244,11 +68250,11 @@
         <v>1836</v>
       </c>
       <c r="B1421" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C1421" t="str">
         <f>VLOOKUP(B1421,Teams!$A:$B,2,FALSE)</f>
-        <v>New York Yankees</v>
+        <v>Los Angeles Angels</v>
       </c>
       <c r="D1421" t="s">
         <v>16</v>
@@ -70524,11 +70530,11 @@
         <v>1226</v>
       </c>
       <c r="B1474" t="s">
-        <v>168</v>
+        <v>49</v>
       </c>
       <c r="C1474" t="str">
         <f>VLOOKUP(B1474,Teams!$A:$B,2,FALSE)</f>
-        <v>Baltimore Orioles</v>
+        <v>Houston Astros</v>
       </c>
       <c r="D1474" t="s">
         <v>16</v>
@@ -72753,11 +72759,11 @@
         <v>2149</v>
       </c>
       <c r="B1526" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="C1526" t="str">
         <f>VLOOKUP(B1526,Teams!$A:$B,2,FALSE)</f>
-        <v>Miami Marlins</v>
+        <v>Pittsburgh Pirates</v>
       </c>
       <c r="D1526" t="s">
         <v>35</v>
@@ -81519,7 +81525,7 @@
     </row>
     <row r="1731" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1731" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="B1731" t="s">
         <v>43</v>
@@ -81535,28 +81541,28 @@
         <v>26143</v>
       </c>
       <c r="F1731" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G1731" t="s">
         <v>484</v>
       </c>
       <c r="H1731" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="I1731" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="J1731" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="K1731">
         <v>687859</v>
       </c>
       <c r="L1731" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="M1731" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="N1731" t="s">
         <v>44</v>
@@ -87657,6 +87663,9 @@
       <c r="J1873" t="s">
         <v>1119</v>
       </c>
+      <c r="K1873">
+        <v>519412</v>
+      </c>
       <c r="L1873" t="s">
         <v>1119</v>
       </c>
@@ -87699,6 +87708,9 @@
       <c r="J1874" t="s">
         <v>663</v>
       </c>
+      <c r="K1874">
+        <v>501660</v>
+      </c>
       <c r="L1874" t="s">
         <v>663</v>
       </c>
@@ -87711,7 +87723,7 @@
     </row>
     <row r="1875" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1875" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="B1875" t="s">
         <v>120</v>
@@ -87727,28 +87739,28 @@
         <v>24597</v>
       </c>
       <c r="F1875" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="G1875" t="s">
         <v>1089</v>
       </c>
       <c r="H1875" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="I1875" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="J1875" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="K1875">
         <v>680716</v>
       </c>
       <c r="L1875" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="M1875" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="N1875" t="s">
         <v>2100</v>
@@ -87756,7 +87768,7 @@
     </row>
     <row r="1876" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1876" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="B1876" t="s">
         <v>103</v>
@@ -87772,28 +87784,28 @@
         <v>29524</v>
       </c>
       <c r="F1876" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="G1876" t="s">
         <v>238</v>
       </c>
       <c r="H1876" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="I1876" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="J1876" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="K1876">
         <v>669326</v>
       </c>
       <c r="L1876" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="M1876" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="N1876" t="s">
         <v>2108</v>
@@ -87801,7 +87813,7 @@
     </row>
     <row r="1877" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1877" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="B1877" t="s">
         <v>138</v>
@@ -87817,28 +87829,28 @@
         <v>33704</v>
       </c>
       <c r="F1877" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="G1877" t="s">
         <v>238</v>
       </c>
       <c r="H1877" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="I1877" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="J1877" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="K1877">
         <v>692216</v>
       </c>
       <c r="L1877" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="M1877" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="N1877" t="s">
         <v>2101</v>
@@ -87846,7 +87858,7 @@
     </row>
     <row r="1878" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1878" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="B1878" t="s">
         <v>194</v>
@@ -87862,28 +87874,28 @@
         <v>30063</v>
       </c>
       <c r="F1878" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="G1878" t="s">
         <v>238</v>
       </c>
       <c r="H1878" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="I1878" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="J1878" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="K1878">
         <v>671976</v>
       </c>
       <c r="L1878" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="M1878" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="N1878" t="s">
         <v>2113</v>
@@ -87891,7 +87903,7 @@
     </row>
     <row r="1879" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1879" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="B1879" t="s">
         <v>194</v>
@@ -87907,28 +87919,28 @@
         <v>23372</v>
       </c>
       <c r="F1879" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="G1879" t="s">
         <v>24</v>
       </c>
       <c r="H1879" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="I1879" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="J1879" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="K1879">
         <v>676439</v>
       </c>
       <c r="L1879" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="M1879" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="N1879" t="s">
         <v>2113</v>
@@ -87936,7 +87948,7 @@
     </row>
     <row r="1880" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1880" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="B1880" t="s">
         <v>52</v>
@@ -87952,28 +87964,28 @@
         <v>33252</v>
       </c>
       <c r="F1880" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="G1880" t="s">
         <v>65</v>
       </c>
       <c r="H1880" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="I1880" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="J1880" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="K1880">
         <v>691720</v>
       </c>
       <c r="L1880" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="M1880" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="N1880" t="s">
         <v>2092</v>
@@ -87981,7 +87993,7 @@
     </row>
     <row r="1881" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1881" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="B1881" t="s">
         <v>33</v>
@@ -87997,28 +88009,28 @@
         <v>31545</v>
       </c>
       <c r="F1881" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="G1881" t="s">
         <v>238</v>
       </c>
       <c r="H1881" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="I1881" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="J1881" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="K1881">
         <v>687551</v>
       </c>
       <c r="L1881" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="M1881" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="N1881" t="s">
         <v>2111</v>
@@ -88026,7 +88038,7 @@
     </row>
     <row r="1882" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1882" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="B1882" t="s">
         <v>168</v>
@@ -88038,32 +88050,32 @@
       <c r="D1882" t="s">
         <v>61</v>
       </c>
-      <c r="E1882" t="s">
-        <v>83</v>
+      <c r="E1882">
+        <v>2824</v>
       </c>
       <c r="F1882" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="G1882" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="H1882" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="I1882" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="J1882" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="K1882">
         <v>694212</v>
       </c>
       <c r="L1882" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="M1882" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="N1882" t="s">
         <v>2105</v>
@@ -88071,7 +88083,7 @@
     </row>
     <row r="1883" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1883" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="B1883" t="s">
         <v>168</v>
@@ -88083,32 +88095,32 @@
       <c r="D1883" t="s">
         <v>61</v>
       </c>
-      <c r="E1883" t="s">
-        <v>2227</v>
+      <c r="E1883">
+        <v>31695</v>
       </c>
       <c r="F1883" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="G1883" t="s">
         <v>238</v>
       </c>
       <c r="H1883" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="I1883" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="J1883" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="K1883">
         <v>687637</v>
       </c>
       <c r="L1883" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="M1883" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="N1883" t="s">
         <v>2105</v>
@@ -88116,7 +88128,7 @@
     </row>
     <row r="1884" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1884" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="B1884" t="s">
         <v>194</v>
@@ -88132,28 +88144,28 @@
         <v>30028</v>
       </c>
       <c r="F1884" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="G1884" t="s">
         <v>72</v>
       </c>
       <c r="H1884" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="I1884" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="J1884" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="K1884">
         <v>676044</v>
       </c>
       <c r="L1884" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="M1884" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="N1884" t="s">
         <v>2113</v>
@@ -88161,7 +88173,7 @@
     </row>
     <row r="1885" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1885" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="B1885" t="s">
         <v>142</v>
@@ -88173,35 +88185,260 @@
       <c r="D1885" t="s">
         <v>61</v>
       </c>
-      <c r="E1885" t="s">
-        <v>2230</v>
+      <c r="E1885">
+        <v>31357</v>
       </c>
       <c r="F1885" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="G1885" t="s">
         <v>238</v>
       </c>
       <c r="H1885" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="I1885" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="J1885" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="K1885">
         <v>701675</v>
       </c>
       <c r="L1885" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="M1885" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="N1885" t="s">
         <v>2112</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1886" t="s">
+        <v>2228</v>
+      </c>
+      <c r="B1886" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1886" t="str">
+        <f>VLOOKUP(B1886,Teams!$A:$B,2,FALSE)</f>
+        <v>Tampa Bay Rays</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1886">
+        <v>23695</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>2228</v>
+      </c>
+      <c r="G1886" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1886" t="s">
+        <v>2228</v>
+      </c>
+      <c r="I1886" t="s">
+        <v>2228</v>
+      </c>
+      <c r="J1886" t="s">
+        <v>2228</v>
+      </c>
+      <c r="K1886">
+        <v>677592</v>
+      </c>
+      <c r="L1886" t="s">
+        <v>2228</v>
+      </c>
+      <c r="M1886" t="s">
+        <v>2228</v>
+      </c>
+      <c r="N1886" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1887" t="s">
+        <v>2229</v>
+      </c>
+      <c r="B1887" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1887" t="str">
+        <f>VLOOKUP(B1887,Teams!$A:$B,2,FALSE)</f>
+        <v>Miami Marlins</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1887">
+        <v>27963</v>
+      </c>
+      <c r="F1887" t="s">
+        <v>2229</v>
+      </c>
+      <c r="G1887" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1887" t="s">
+        <v>2229</v>
+      </c>
+      <c r="I1887" t="s">
+        <v>2229</v>
+      </c>
+      <c r="J1887" t="s">
+        <v>2229</v>
+      </c>
+      <c r="K1887">
+        <v>691185</v>
+      </c>
+      <c r="L1887" t="s">
+        <v>2229</v>
+      </c>
+      <c r="M1887" t="s">
+        <v>2229</v>
+      </c>
+      <c r="N1887" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1888" t="s">
+        <v>2230</v>
+      </c>
+      <c r="B1888" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1888" t="str">
+        <f>VLOOKUP(B1888,Teams!$A:$B,2,FALSE)</f>
+        <v>Chicago Cubs</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1888">
+        <v>27496</v>
+      </c>
+      <c r="F1888" t="s">
+        <v>2230</v>
+      </c>
+      <c r="G1888" t="s">
+        <v>807</v>
+      </c>
+      <c r="H1888" t="s">
+        <v>2230</v>
+      </c>
+      <c r="I1888" t="s">
+        <v>2230</v>
+      </c>
+      <c r="J1888" t="s">
+        <v>2230</v>
+      </c>
+      <c r="K1888">
+        <v>683357</v>
+      </c>
+      <c r="L1888" t="s">
+        <v>2230</v>
+      </c>
+      <c r="M1888" t="s">
+        <v>2230</v>
+      </c>
+      <c r="N1888" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1889" t="s">
+        <v>2231</v>
+      </c>
+      <c r="B1889" t="s">
+        <v>145</v>
+      </c>
+      <c r="C1889" t="str">
+        <f>VLOOKUP(B1889,Teams!$A:$B,2,FALSE)</f>
+        <v>Minnesota Twins</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1889">
+        <v>24622</v>
+      </c>
+      <c r="F1889" t="s">
+        <v>2231</v>
+      </c>
+      <c r="G1889" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H1889" t="s">
+        <v>2231</v>
+      </c>
+      <c r="I1889" t="s">
+        <v>2231</v>
+      </c>
+      <c r="J1889" t="s">
+        <v>2231</v>
+      </c>
+      <c r="K1889">
+        <v>680837</v>
+      </c>
+      <c r="L1889" t="s">
+        <v>2231</v>
+      </c>
+      <c r="M1889" t="s">
+        <v>2231</v>
+      </c>
+      <c r="N1889" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1890" t="s">
+        <v>2232</v>
+      </c>
+      <c r="B1890" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1890" t="str">
+        <f>VLOOKUP(B1890,Teams!$A:$B,2,FALSE)</f>
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1890">
+        <v>29782</v>
+      </c>
+      <c r="F1890" t="s">
+        <v>2232</v>
+      </c>
+      <c r="G1890" t="s">
+        <v>824</v>
+      </c>
+      <c r="H1890" t="s">
+        <v>2232</v>
+      </c>
+      <c r="I1890" t="s">
+        <v>2232</v>
+      </c>
+      <c r="J1890" t="s">
+        <v>2232</v>
+      </c>
+      <c r="K1890">
+        <v>694359</v>
+      </c>
+      <c r="L1890" t="s">
+        <v>2232</v>
+      </c>
+      <c r="M1890" t="s">
+        <v>2232</v>
+      </c>
+      <c r="N1890" t="s">
+        <v>2108</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0D6D7D-553F-4138-9801-2A8CF239A140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{87739F4E-EC48-42CB-A21E-B8CD9FDE5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29220"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87739F4E-EC48-42CB-A21E-B8CD9FDE5227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D515C407-CCB8-4771-BD01-239DF502AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22693" uniqueCount="2233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22715" uniqueCount="2235">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6737,6 +6737,12 @@
   </si>
   <si>
     <t>Niko Kavadas</t>
+  </si>
+  <si>
+    <t>Carson Williams</t>
+  </si>
+  <si>
+    <t>Jhostynxon Garcia</t>
   </si>
 </sst>
 </file>
@@ -7117,11 +7123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1890"/>
+  <dimension ref="A1:N1892"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1868" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E1893" sqref="E1893"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11004,11 +11010,11 @@
         <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="C91" t="str">
         <f>VLOOKUP(B91,Teams!$A:$B,2,FALSE)</f>
-        <v>Washington Nationals</v>
+        <v>New York Yankees</v>
       </c>
       <c r="D91" t="s">
         <v>16</v>
@@ -88439,6 +88445,96 @@
       </c>
       <c r="N1890" t="s">
         <v>2108</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1891" t="s">
+        <v>2233</v>
+      </c>
+      <c r="B1891" t="s">
+        <v>194</v>
+      </c>
+      <c r="C1891" t="str">
+        <f>VLOOKUP(B1891,Teams!$A:$B,2,FALSE)</f>
+        <v>Tampa Bay Rays</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1891">
+        <v>30038</v>
+      </c>
+      <c r="F1891" t="s">
+        <v>2233</v>
+      </c>
+      <c r="G1891" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1891" t="s">
+        <v>2233</v>
+      </c>
+      <c r="I1891" t="s">
+        <v>2233</v>
+      </c>
+      <c r="J1891" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K1891">
+        <v>700246</v>
+      </c>
+      <c r="L1891" t="s">
+        <v>2233</v>
+      </c>
+      <c r="M1891" t="s">
+        <v>2233</v>
+      </c>
+      <c r="N1891" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1892" t="s">
+        <v>2234</v>
+      </c>
+      <c r="B1892" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1892" t="str">
+        <f>VLOOKUP(B1892,Teams!$A:$B,2,FALSE)</f>
+        <v>Boston Red Sox</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1892">
+        <v>28142</v>
+      </c>
+      <c r="F1892" t="s">
+        <v>2234</v>
+      </c>
+      <c r="G1892" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1892" t="s">
+        <v>2234</v>
+      </c>
+      <c r="I1892" t="s">
+        <v>2234</v>
+      </c>
+      <c r="J1892" t="s">
+        <v>2234</v>
+      </c>
+      <c r="K1892">
+        <v>691373</v>
+      </c>
+      <c r="L1892" t="s">
+        <v>2234</v>
+      </c>
+      <c r="M1892" t="s">
+        <v>2234</v>
+      </c>
+      <c r="N1892" t="s">
+        <v>2086</v>
       </c>
     </row>
   </sheetData>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D515C407-CCB8-4771-BD01-239DF502AFE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F57899-F6FE-41C4-8644-B4846294C169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0F57899-F6FE-41C4-8644-B4846294C169}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F4F202-EA42-47BF-851A-D9B681391226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7126,8 +7126,8 @@
   <dimension ref="A1:N1892"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1868" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E1893" sqref="E1893"/>
+      <pane ySplit="1" topLeftCell="A1760" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1776" sqref="K1776"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28656,6 +28656,9 @@
       <c r="J501" t="s">
         <v>1920</v>
       </c>
+      <c r="K501">
+        <v>66152</v>
+      </c>
       <c r="L501" t="s">
         <v>1920</v>
       </c>
@@ -54093,6 +54096,9 @@
       <c r="J1092" t="s">
         <v>1786</v>
       </c>
+      <c r="K1092">
+        <v>681481</v>
+      </c>
       <c r="L1092" t="s">
         <v>1786</v>
       </c>
@@ -55458,6 +55464,9 @@
       <c r="J1124" t="s">
         <v>790</v>
       </c>
+      <c r="K1124">
+        <v>664728</v>
+      </c>
       <c r="L1124" t="s">
         <v>790</v>
       </c>
@@ -74886,6 +74895,9 @@
       <c r="J1575" t="s">
         <v>1944</v>
       </c>
+      <c r="K1575">
+        <v>686217</v>
+      </c>
       <c r="L1575" t="s">
         <v>1944</v>
       </c>
@@ -83361,6 +83373,9 @@
       <c r="J1773" t="s">
         <v>492</v>
       </c>
+      <c r="K1773">
+        <v>645302</v>
+      </c>
       <c r="L1773" t="s">
         <v>492</v>
       </c>
@@ -83492,6 +83507,9 @@
       </c>
       <c r="J1776" t="s">
         <v>1328</v>
+      </c>
+      <c r="K1776">
+        <v>605353</v>
       </c>
       <c r="L1776" t="s">
         <v>1328</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F4F202-EA42-47BF-851A-D9B681391226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B37316-BD35-46E1-BA8F-E1FD81026CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2B37316-BD35-46E1-BA8F-E1FD81026CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1759CA0D-BEE1-457D-9A9C-ABC7E367DDA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7125,9 +7125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1892"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1760" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1776" sqref="K1776"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A488" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K502" sqref="K502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28657,7 +28657,7 @@
         <v>1920</v>
       </c>
       <c r="K501">
-        <v>66152</v>
+        <v>666152</v>
       </c>
       <c r="L501" t="s">
         <v>1920</v>
@@ -42150,11 +42150,11 @@
         <v>508</v>
       </c>
       <c r="B815" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C815" t="str">
         <f>VLOOKUP(B815,Teams!$A:$B,2,FALSE)</f>
-        <v>Cincinnati Reds</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="D815" t="s">
         <v>61</v>
@@ -62646,6 +62646,9 @@
       <c r="J1290" t="s">
         <v>1852</v>
       </c>
+      <c r="K1290">
+        <v>686681</v>
+      </c>
       <c r="L1290" t="s">
         <v>1852</v>
       </c>
@@ -83436,11 +83439,11 @@
         <v>86</v>
       </c>
       <c r="B1775" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="C1775" t="str">
         <f>VLOOKUP(B1775,Teams!$A:$B,2,FALSE)</f>
-        <v>Chicago Cubs</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="D1775" t="s">
         <v>35</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FABD685-A658-4ACD-8FED-8A7271CE6339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A6F0E7-A954-4937-B8F0-0DA2EB58652E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22715" uniqueCount="2235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22748" uniqueCount="2238">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6743,6 +6743,15 @@
   </si>
   <si>
     <t>Jhostynxon Garcia</t>
+  </si>
+  <si>
+    <t>Cesar Prieto</t>
+  </si>
+  <si>
+    <t>Jimmy Crooks</t>
+  </si>
+  <si>
+    <t>Will Banfield</t>
   </si>
 </sst>
 </file>
@@ -7123,11 +7132,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1892"/>
+  <dimension ref="A1:N1911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A796" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G809" sqref="G809"/>
+      <pane ySplit="1" topLeftCell="A1887" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1896" sqref="K1896"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -88580,6 +88589,231 @@
       </c>
       <c r="N1892" t="s">
         <v>2100</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1893" t="s">
+        <v>2235</v>
+      </c>
+      <c r="B1893" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1893" t="str">
+        <f>VLOOKUP(B1893,Teams!$A:$B,2,FALSE)</f>
+        <v>St. Louis Cardinals</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1893">
+        <v>30163</v>
+      </c>
+      <c r="F1893" t="s">
+        <v>2235</v>
+      </c>
+      <c r="G1893" t="s">
+        <v>824</v>
+      </c>
+      <c r="H1893" t="s">
+        <v>2235</v>
+      </c>
+      <c r="I1893" t="s">
+        <v>2235</v>
+      </c>
+      <c r="J1893" t="s">
+        <v>2235</v>
+      </c>
+      <c r="K1893">
+        <v>693409</v>
+      </c>
+      <c r="L1893" t="s">
+        <v>2235</v>
+      </c>
+      <c r="M1893" t="s">
+        <v>2235</v>
+      </c>
+      <c r="N1893" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1894" t="s">
+        <v>2236</v>
+      </c>
+      <c r="B1894" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1894" t="str">
+        <f>VLOOKUP(B1894,Teams!$A:$B,2,FALSE)</f>
+        <v>St. Louis Cardinals</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1894">
+        <v>31354</v>
+      </c>
+      <c r="F1894" t="s">
+        <v>2236</v>
+      </c>
+      <c r="G1894" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1894" t="s">
+        <v>2236</v>
+      </c>
+      <c r="I1894" t="s">
+        <v>2236</v>
+      </c>
+      <c r="J1894" t="s">
+        <v>2236</v>
+      </c>
+      <c r="K1894">
+        <v>699625</v>
+      </c>
+      <c r="L1894" t="s">
+        <v>2236</v>
+      </c>
+      <c r="M1894" t="s">
+        <v>2236</v>
+      </c>
+      <c r="N1894" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1895" t="s">
+        <v>2237</v>
+      </c>
+      <c r="B1895" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1895" t="str">
+        <f>VLOOKUP(B1895,Teams!$A:$B,2,FALSE)</f>
+        <v>Cincinnati Reds</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1895">
+        <v>23790</v>
+      </c>
+      <c r="F1895" t="s">
+        <v>2237</v>
+      </c>
+      <c r="G1895" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1895" t="s">
+        <v>2237</v>
+      </c>
+      <c r="I1895" t="s">
+        <v>2237</v>
+      </c>
+      <c r="J1895" t="s">
+        <v>2237</v>
+      </c>
+      <c r="K1895">
+        <v>677943</v>
+      </c>
+      <c r="L1895" t="s">
+        <v>2237</v>
+      </c>
+      <c r="M1895" t="s">
+        <v>2237</v>
+      </c>
+      <c r="N1895" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1897" t="e">
+        <f>VLOOKUP(B1897,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1898" t="e">
+        <f>VLOOKUP(B1898,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1899" t="e">
+        <f>VLOOKUP(B1899,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1900" t="e">
+        <f>VLOOKUP(B1900,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1901" t="e">
+        <f>VLOOKUP(B1901,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1902" t="e">
+        <f>VLOOKUP(B1902,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1903" t="e">
+        <f>VLOOKUP(B1903,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N1904" t="e">
+        <f>VLOOKUP(B1904,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1905" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N1905" t="e">
+        <f>VLOOKUP(B1905,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1906" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N1906" t="e">
+        <f>VLOOKUP(B1906,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1907" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N1907" t="e">
+        <f>VLOOKUP(B1907,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1908" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N1908" t="e">
+        <f>VLOOKUP(B1908,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1909" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N1909" t="e">
+        <f>VLOOKUP(B1909,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1910" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N1910" t="e">
+        <f>VLOOKUP(B1910,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1911" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="N1911" t="e">
+        <f>VLOOKUP(B1911,Teams!$A:$C,3,FALSE)</f>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
@@ -97514,8 +97748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39F1FBCE-CBDD-48AA-9BEB-8AAE23BDCD4C}">
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A6F0E7-A954-4937-B8F0-0DA2EB58652E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC81777F-7A79-4287-AD31-EE54F9DE3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22748" uniqueCount="2238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22771" uniqueCount="2240">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6752,6 +6752,12 @@
   </si>
   <si>
     <t>Will Banfield</t>
+  </si>
+  <si>
+    <t>Cam Devanney</t>
+  </si>
+  <si>
+    <t>Will Robertson</t>
   </si>
 </sst>
 </file>
@@ -7134,9 +7140,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1911"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1887" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1896" sqref="K1896"/>
+      <selection pane="bottomLeft" activeCell="K1897" sqref="K1897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -88726,91 +88732,203 @@
         <v>2099</v>
       </c>
     </row>
+    <row r="1896" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1896" t="s">
+        <v>2238</v>
+      </c>
+      <c r="B1896" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1896" t="str">
+        <f>VLOOKUP(B1896,Teams!$A:$B,2,FALSE)</f>
+        <v>Pittsburgh Pirates</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1896" t="s">
+        <v>2238</v>
+      </c>
+      <c r="G1896" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1896" t="s">
+        <v>2238</v>
+      </c>
+      <c r="I1896" t="s">
+        <v>2238</v>
+      </c>
+      <c r="J1896" t="s">
+        <v>2238</v>
+      </c>
+      <c r="K1896">
+        <v>687478</v>
+      </c>
+      <c r="L1896" t="s">
+        <v>2238</v>
+      </c>
+      <c r="M1896" t="s">
+        <v>2238</v>
+      </c>
+      <c r="N1896" t="s">
+        <v>2082</v>
+      </c>
+    </row>
     <row r="1897" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N1897" t="e">
-        <f>VLOOKUP(B1897,Teams!$A:$C,3,FALSE)</f>
+      <c r="A1897" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B1897" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1897" t="str">
+        <f>VLOOKUP(B1897,Teams!$A:$B,2,FALSE)</f>
+        <v>Chicago White Sox</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1897">
+        <v>25467</v>
+      </c>
+      <c r="F1897" t="s">
+        <v>2239</v>
+      </c>
+      <c r="G1897" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1897" t="s">
+        <v>2239</v>
+      </c>
+      <c r="I1897" t="s">
+        <v>2239</v>
+      </c>
+      <c r="J1897" t="s">
+        <v>2239</v>
+      </c>
+      <c r="K1897">
+        <v>683770</v>
+      </c>
+      <c r="L1897" t="s">
+        <v>2239</v>
+      </c>
+      <c r="M1897" t="s">
+        <v>2239</v>
+      </c>
+      <c r="N1897" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1898" t="e">
+        <f>VLOOKUP(B1898,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1898" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N1898" t="e">
-        <f>VLOOKUP(B1898,Teams!$A:$C,3,FALSE)</f>
+    <row r="1899" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1899" t="e">
+        <f>VLOOKUP(B1899,Teams!$A:$B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="1899" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1899" t="e">
         <f>VLOOKUP(B1899,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="1900" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1900" t="e">
+        <f>VLOOKUP(B1900,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N1900" t="e">
         <f>VLOOKUP(B1900,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="1901" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1901" t="e">
+        <f>VLOOKUP(B1901,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N1901" t="e">
         <f>VLOOKUP(B1901,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="1902" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1902" t="e">
+        <f>VLOOKUP(B1902,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N1902" t="e">
         <f>VLOOKUP(B1902,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="1903" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1903" t="e">
+        <f>VLOOKUP(B1903,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N1903" t="e">
         <f>VLOOKUP(B1903,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="1904" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1904" t="e">
+        <f>VLOOKUP(B1904,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N1904" t="e">
         <f>VLOOKUP(B1904,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1905" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="1905" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C1905" t="e">
+        <f>VLOOKUP(B1905,Teams!$A:$B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
       <c r="N1905" t="e">
         <f>VLOOKUP(B1905,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1906" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="1906" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N1906" t="e">
         <f>VLOOKUP(B1906,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1907" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="1907" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N1907" t="e">
         <f>VLOOKUP(B1907,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1908" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="1908" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N1908" t="e">
         <f>VLOOKUP(B1908,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1909" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="1909" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N1909" t="e">
         <f>VLOOKUP(B1909,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1910" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="1910" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N1910" t="e">
         <f>VLOOKUP(B1910,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1911" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="1911" spans="3:14" x14ac:dyDescent="0.3">
       <c r="N1911" t="e">
         <f>VLOOKUP(B1911,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC81777F-7A79-4287-AD31-EE54F9DE3E7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFE0F34-C023-4826-BFF1-9922735D6FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22771" uniqueCount="2240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22806" uniqueCount="2246">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6758,6 +6758,24 @@
   </si>
   <si>
     <t>Will Robertson</t>
+  </si>
+  <si>
+    <t>C.J. Stubbs</t>
+  </si>
+  <si>
+    <t>Sal Stewart</t>
+  </si>
+  <si>
+    <t>George Valera</t>
+  </si>
+  <si>
+    <t>sa233</t>
+  </si>
+  <si>
+    <t>sa234</t>
+  </si>
+  <si>
+    <t>C J Stubbs</t>
   </si>
 </sst>
 </file>
@@ -7140,9 +7158,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1887" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1897" sqref="K1897"/>
+      <selection pane="bottomLeft" activeCell="M1897" sqref="M1897"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27201,11 +27219,11 @@
         <v>240</v>
       </c>
       <c r="B467" t="s">
-        <v>33</v>
+        <v>168</v>
       </c>
       <c r="C467" t="str">
         <f>VLOOKUP(B467,Teams!$A:$B,2,FALSE)</f>
-        <v>San Francisco Giants</v>
+        <v>Baltimore Orioles</v>
       </c>
       <c r="D467" t="s">
         <v>61</v>
@@ -88746,14 +88764,14 @@
       <c r="D1896" t="s">
         <v>16</v>
       </c>
-      <c r="E1896" t="s">
-        <v>83</v>
+      <c r="E1896">
+        <v>25688</v>
       </c>
       <c r="F1896" t="s">
         <v>2238</v>
       </c>
       <c r="G1896" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="H1896" t="s">
         <v>2238</v>
@@ -88823,38 +88841,143 @@
       </c>
     </row>
     <row r="1898" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1898" t="e">
+      <c r="A1898" t="s">
+        <v>2245</v>
+      </c>
+      <c r="B1898" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1898" t="str">
         <f>VLOOKUP(B1898,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Washington Nationals</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>2243</v>
+      </c>
+      <c r="F1898" t="s">
+        <v>2240</v>
+      </c>
+      <c r="G1898" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1898" t="s">
+        <v>2240</v>
+      </c>
+      <c r="I1898" t="s">
+        <v>2240</v>
+      </c>
+      <c r="J1898" t="s">
+        <v>2240</v>
+      </c>
+      <c r="K1898">
+        <v>667690</v>
+      </c>
+      <c r="L1898" t="s">
+        <v>2240</v>
+      </c>
+      <c r="M1898" t="s">
+        <v>2240</v>
+      </c>
+      <c r="N1898" t="s">
+        <v>2095</v>
       </c>
     </row>
     <row r="1899" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1899" t="e">
+      <c r="A1899" t="s">
+        <v>2241</v>
+      </c>
+      <c r="B1899" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1899" t="str">
         <f>VLOOKUP(B1899,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1899" t="e">
-        <f>VLOOKUP(B1899,Teams!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Cincinnati Reds</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F1899" t="s">
+        <v>2241</v>
+      </c>
+      <c r="G1899" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1899" t="s">
+        <v>2241</v>
+      </c>
+      <c r="I1899" t="s">
+        <v>2241</v>
+      </c>
+      <c r="J1899" t="s">
+        <v>2241</v>
+      </c>
+      <c r="K1899">
+        <v>701398</v>
+      </c>
+      <c r="L1899" t="s">
+        <v>2241</v>
+      </c>
+      <c r="M1899" t="s">
+        <v>2241</v>
+      </c>
+      <c r="N1899" t="s">
+        <v>2099</v>
       </c>
     </row>
     <row r="1900" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1900" t="e">
+      <c r="A1900" t="s">
+        <v>2242</v>
+      </c>
+      <c r="B1900" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1900" t="str">
         <f>VLOOKUP(B1900,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1900" t="e">
-        <f>VLOOKUP(B1900,Teams!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Cleveland Indians</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1900" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1900" t="s">
+        <v>2242</v>
+      </c>
+      <c r="G1900" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1900" t="s">
+        <v>2242</v>
+      </c>
+      <c r="I1900" t="s">
+        <v>2242</v>
+      </c>
+      <c r="J1900" t="s">
+        <v>2242</v>
+      </c>
+      <c r="K1900">
+        <v>671655</v>
+      </c>
+      <c r="L1900" t="s">
+        <v>2242</v>
+      </c>
+      <c r="M1900" t="s">
+        <v>2242</v>
+      </c>
+      <c r="N1900" t="s">
+        <v>2101</v>
       </c>
     </row>
     <row r="1901" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1901" t="e">
         <f>VLOOKUP(B1901,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1901" t="e">
-        <f>VLOOKUP(B1901,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAFE0F34-C023-4826-BFF1-9922735D6FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2207751-32F9-4A35-BCE4-E334C16ABE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22806" uniqueCount="2246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22806" uniqueCount="2248">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6776,6 +6776,12 @@
   </si>
   <si>
     <t>C J Stubbs</t>
+  </si>
+  <si>
+    <t>Collin Kayfus</t>
+  </si>
+  <si>
+    <t>C J Kayfus</t>
   </si>
 </sst>
 </file>
@@ -7158,9 +7164,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1887" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M1897" sqref="M1897"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K380" sqref="K380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19314,7 +19320,7 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>2219</v>
+        <v>2247</v>
       </c>
       <c r="B283" t="s">
         <v>138</v>
@@ -19330,7 +19336,7 @@
         <v>33704</v>
       </c>
       <c r="F283" t="s">
-        <v>2219</v>
+        <v>2246</v>
       </c>
       <c r="G283" t="s">
         <v>238</v>
@@ -20604,11 +20610,11 @@
         <v>1667</v>
       </c>
       <c r="B313" t="s">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="C313" t="str">
         <f>VLOOKUP(B313,Teams!$A:$B,2,FALSE)</f>
-        <v>Cleveland Indians</v>
+        <v>Chicago Cubs</v>
       </c>
       <c r="D313" t="s">
         <v>35</v>
@@ -23448,6 +23454,9 @@
       <c r="J379" t="s">
         <v>95</v>
       </c>
+      <c r="K379">
+        <v>621035</v>
+      </c>
       <c r="L379" t="s">
         <v>95</v>
       </c>
@@ -38397,11 +38406,11 @@
         <v>115</v>
       </c>
       <c r="B727" t="s">
-        <v>194</v>
+        <v>120</v>
       </c>
       <c r="C727" t="str">
         <f>VLOOKUP(B727,Teams!$A:$B,2,FALSE)</f>
-        <v>Tampa Bay Rays</v>
+        <v>Atlanta Braves</v>
       </c>
       <c r="D727" t="s">
         <v>16</v>
@@ -40419,11 +40428,11 @@
         <v>843</v>
       </c>
       <c r="B774" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C774" t="str">
         <f>VLOOKUP(B774,Teams!$A:$B,2,FALSE)</f>
-        <v>Pittsburgh Pirates</v>
+        <v>Toronto Blue Jays</v>
       </c>
       <c r="D774" t="s">
         <v>16</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29230"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2207751-32F9-4A35-BCE4-E334C16ABE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B705832E-B657-4B07-B857-79F6F5FA2C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22806" uniqueCount="2248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22836" uniqueCount="2249">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6769,12 +6769,6 @@
     <t>George Valera</t>
   </si>
   <si>
-    <t>sa233</t>
-  </si>
-  <si>
-    <t>sa234</t>
-  </si>
-  <si>
     <t>C J Stubbs</t>
   </si>
   <si>
@@ -6782,6 +6776,15 @@
   </si>
   <si>
     <t>C J Kayfus</t>
+  </si>
+  <si>
+    <t>Kevin Alcantara</t>
+  </si>
+  <si>
+    <t>Nick Yorke</t>
+  </si>
+  <si>
+    <t>Carter Jensen</t>
   </si>
 </sst>
 </file>
@@ -7164,9 +7167,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1911"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K380" sqref="K380"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1495" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1508" sqref="K1508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19320,7 +19323,7 @@
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>2247</v>
+        <v>2245</v>
       </c>
       <c r="B283" t="s">
         <v>138</v>
@@ -19336,7 +19339,7 @@
         <v>33704</v>
       </c>
       <c r="F283" t="s">
-        <v>2246</v>
+        <v>2244</v>
       </c>
       <c r="G283" t="s">
         <v>238</v>
@@ -26497,7 +26500,7 @@
         <v>2003</v>
       </c>
       <c r="N449" t="s">
-        <v>2113</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
@@ -27652,7 +27655,7 @@
         <v>939</v>
       </c>
       <c r="N476" t="s">
-        <v>2113</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="477" spans="1:14" x14ac:dyDescent="0.3">
@@ -32409,11 +32412,11 @@
         <v>480</v>
       </c>
       <c r="B588" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C588" t="str">
         <f>VLOOKUP(B588,Teams!$A:$B,2,FALSE)</f>
-        <v>Seattle Mariners</v>
+        <v>Texas Rangers</v>
       </c>
       <c r="D588" t="s">
         <v>16</v>
@@ -32436,6 +32439,9 @@
       <c r="J588" t="s">
         <v>480</v>
       </c>
+      <c r="K588">
+        <v>664238</v>
+      </c>
       <c r="L588" t="s">
         <v>480</v>
       </c>
@@ -32443,7 +32449,7 @@
         <v>480</v>
       </c>
       <c r="N588" t="s">
-        <v>2083</v>
+        <v>2090</v>
       </c>
     </row>
     <row r="589" spans="1:14" x14ac:dyDescent="0.3">
@@ -38781,6 +38787,9 @@
       <c r="J735" t="s">
         <v>2126</v>
       </c>
+      <c r="K735">
+        <v>663584</v>
+      </c>
       <c r="L735" t="s">
         <v>2126</v>
       </c>
@@ -49803,11 +49812,11 @@
         <v>889</v>
       </c>
       <c r="B991" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C991" t="str">
         <f>VLOOKUP(B991,Teams!$A:$B,2,FALSE)</f>
-        <v>Milwaukee Brewers</v>
+        <v>Washington Nationals</v>
       </c>
       <c r="D991" t="s">
         <v>16</v>
@@ -50523,6 +50532,9 @@
       <c r="J1007" t="s">
         <v>1938</v>
       </c>
+      <c r="K1007">
+        <v>820862</v>
+      </c>
       <c r="L1007" t="s">
         <v>1938</v>
       </c>
@@ -57510,11 +57522,11 @@
         <v>1980</v>
       </c>
       <c r="B1170" t="s">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="C1170" t="str">
         <f>VLOOKUP(B1170,Teams!$A:$B,2,FALSE)</f>
-        <v>ATH</v>
+        <v>Los Angeles Angels</v>
       </c>
       <c r="D1170" t="s">
         <v>35</v>
@@ -57536,6 +57548,9 @@
       </c>
       <c r="J1170" t="s">
         <v>1980</v>
+      </c>
+      <c r="K1170">
+        <v>669722</v>
       </c>
       <c r="L1170" t="s">
         <v>1980</v>
@@ -72123,6 +72138,9 @@
       <c r="J1508" t="s">
         <v>1963</v>
       </c>
+      <c r="K1508">
+        <v>680700</v>
+      </c>
       <c r="L1508" t="s">
         <v>1963</v>
       </c>
@@ -88851,7 +88869,7 @@
     </row>
     <row r="1898" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1898" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="B1898" t="s">
         <v>68</v>
@@ -88863,8 +88881,8 @@
       <c r="D1898" t="s">
         <v>16</v>
       </c>
-      <c r="E1898" t="s">
-        <v>2243</v>
+      <c r="E1898">
+        <v>25814</v>
       </c>
       <c r="F1898" t="s">
         <v>2240</v>
@@ -88908,14 +88926,14 @@
       <c r="D1899" t="s">
         <v>16</v>
       </c>
-      <c r="E1899" t="s">
-        <v>2244</v>
+      <c r="E1899">
+        <v>31505</v>
       </c>
       <c r="F1899" t="s">
         <v>2241</v>
       </c>
       <c r="G1899" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H1899" t="s">
         <v>2241</v>
@@ -88953,14 +88971,14 @@
       <c r="D1900" t="s">
         <v>61</v>
       </c>
-      <c r="E1900" t="s">
-        <v>83</v>
+      <c r="E1900">
+        <v>22541</v>
       </c>
       <c r="F1900" t="s">
         <v>2242</v>
       </c>
       <c r="G1900" t="s">
-        <v>238</v>
+        <v>824</v>
       </c>
       <c r="H1900" t="s">
         <v>2242</v>
@@ -88985,38 +89003,143 @@
       </c>
     </row>
     <row r="1901" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1901" t="e">
+      <c r="A1901" t="s">
+        <v>2246</v>
+      </c>
+      <c r="B1901" t="s">
+        <v>78</v>
+      </c>
+      <c r="C1901" t="str">
         <f>VLOOKUP(B1901,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
+        <v>Chicago Cubs</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1901">
+        <v>25971</v>
+      </c>
+      <c r="F1901" t="s">
+        <v>2246</v>
+      </c>
+      <c r="G1901" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1901" t="s">
+        <v>2246</v>
+      </c>
+      <c r="I1901" t="s">
+        <v>2246</v>
+      </c>
+      <c r="J1901" t="s">
+        <v>2246</v>
+      </c>
+      <c r="K1901">
+        <v>682634</v>
+      </c>
+      <c r="L1901" t="s">
+        <v>2246</v>
+      </c>
+      <c r="M1901" t="s">
+        <v>2246</v>
+      </c>
+      <c r="N1901" t="s">
+        <v>2096</v>
       </c>
     </row>
     <row r="1902" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1902" t="e">
+      <c r="A1902" t="s">
+        <v>2247</v>
+      </c>
+      <c r="B1902" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1902" t="str">
         <f>VLOOKUP(B1902,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1902" t="e">
-        <f>VLOOKUP(B1902,Teams!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Pittsburgh Pirates</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1902">
+        <v>27504</v>
+      </c>
+      <c r="F1902" t="s">
+        <v>2247</v>
+      </c>
+      <c r="G1902" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H1902" t="s">
+        <v>2247</v>
+      </c>
+      <c r="I1902" t="s">
+        <v>2247</v>
+      </c>
+      <c r="J1902" t="s">
+        <v>2247</v>
+      </c>
+      <c r="K1902">
+        <v>694377</v>
+      </c>
+      <c r="L1902" t="s">
+        <v>2247</v>
+      </c>
+      <c r="M1902" t="s">
+        <v>2247</v>
+      </c>
+      <c r="N1902" t="s">
+        <v>2082</v>
       </c>
     </row>
     <row r="1903" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1903" t="e">
+      <c r="A1903" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B1903" t="s">
+        <v>59</v>
+      </c>
+      <c r="C1903" t="str">
         <f>VLOOKUP(B1903,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1903" t="e">
-        <f>VLOOKUP(B1903,Teams!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+        <v>Kansas City Royals</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1903">
+        <v>29478</v>
+      </c>
+      <c r="F1903" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G1903" t="s">
+        <v>235</v>
+      </c>
+      <c r="H1903" t="s">
+        <v>2248</v>
+      </c>
+      <c r="I1903" t="s">
+        <v>2248</v>
+      </c>
+      <c r="J1903" t="s">
+        <v>2248</v>
+      </c>
+      <c r="K1903">
+        <v>695600</v>
+      </c>
+      <c r="L1903" t="s">
+        <v>2248</v>
+      </c>
+      <c r="M1903" t="s">
+        <v>2248</v>
+      </c>
+      <c r="N1903" t="s">
+        <v>2107</v>
       </c>
     </row>
     <row r="1904" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C1904" t="e">
         <f>VLOOKUP(B1904,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1904" t="e">
-        <f>VLOOKUP(B1904,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B705832E-B657-4B07-B857-79F6F5FA2C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75CD48D0-3530-40E5-B512-36FC51AA9294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14232,11 +14232,11 @@
         <v>1081</v>
       </c>
       <c r="B165" t="s">
-        <v>194</v>
+        <v>96</v>
       </c>
       <c r="C165" t="str">
         <f>VLOOKUP(B165,Teams!$A:$B,2,FALSE)</f>
-        <v>Tampa Bay Rays</v>
+        <v>Los Angeles Dodgers</v>
       </c>
       <c r="D165" t="s">
         <v>61</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29230"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75CD48D0-3530-40E5-B512-36FC51AA9294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16E63544-1770-4930-8D0C-A8DB57FC32CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16E63544-1770-4930-8D0C-A8DB57FC32CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A4E143-F9C8-48E2-91C2-C584A139A9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22836" uniqueCount="2249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22870" uniqueCount="2253">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6785,6 +6785,18 @@
   </si>
   <si>
     <t>Carter Jensen</t>
+  </si>
+  <si>
+    <t>Bryce Eldridge</t>
+  </si>
+  <si>
+    <t>Chuckie Robinson</t>
+  </si>
+  <si>
+    <t>Zach Cole</t>
+  </si>
+  <si>
+    <t>Zachary Cole</t>
   </si>
 </sst>
 </file>
@@ -7168,8 +7180,8 @@
   <dimension ref="A1:N1911"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1495" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1508" sqref="K1508"/>
+      <pane ySplit="1" topLeftCell="A1883" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1907" sqref="K1907"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7178,7 +7190,7 @@
     <col min="3" max="3" width="20.21875" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="13" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
@@ -14577,11 +14589,11 @@
         <v>2154</v>
       </c>
       <c r="B173" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C173" t="str">
         <f>VLOOKUP(B173,Teams!$A:$B,2,FALSE)</f>
-        <v>Texas Rangers</v>
+        <v>Colorado Rockies</v>
       </c>
       <c r="D173" t="s">
         <v>16</v>
@@ -46398,11 +46410,11 @@
         <v>2019</v>
       </c>
       <c r="B912" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="C912" t="str">
         <f>VLOOKUP(B912,Teams!$A:$B,2,FALSE)</f>
-        <v>ATH</v>
+        <v>Minnesota Twins</v>
       </c>
       <c r="D912" t="s">
         <v>16</v>
@@ -89138,52 +89150,159 @@
       </c>
     </row>
     <row r="1904" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C1904" t="e">
+      <c r="A1904" t="s">
+        <v>2249</v>
+      </c>
+      <c r="B1904" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1904" t="str">
         <f>VLOOKUP(B1904,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1905" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C1905" t="e">
+        <v>San Francisco Giants</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1904" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1904" t="s">
+        <v>2249</v>
+      </c>
+      <c r="G1904" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1904" t="s">
+        <v>2249</v>
+      </c>
+      <c r="I1904" t="s">
+        <v>2249</v>
+      </c>
+      <c r="J1904" t="s">
+        <v>2249</v>
+      </c>
+      <c r="K1904">
+        <v>805811</v>
+      </c>
+      <c r="L1904" t="s">
+        <v>2249</v>
+      </c>
+      <c r="M1904" t="s">
+        <v>2249</v>
+      </c>
+      <c r="N1904" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1905" t="s">
+        <v>2250</v>
+      </c>
+      <c r="B1905" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1905" t="str">
         <f>VLOOKUP(B1905,Teams!$A:$B,2,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N1905" t="e">
-        <f>VLOOKUP(B1905,Teams!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1906" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="N1906" t="e">
-        <f>VLOOKUP(B1906,Teams!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1907" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="N1907" t="e">
-        <f>VLOOKUP(B1907,Teams!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1908" spans="3:14" x14ac:dyDescent="0.3">
+        <v>Los Angeles Dodgers</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1905">
+        <v>19824</v>
+      </c>
+      <c r="F1905" t="s">
+        <v>2250</v>
+      </c>
+      <c r="G1905" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1905" t="s">
+        <v>2250</v>
+      </c>
+      <c r="I1905" t="s">
+        <v>2250</v>
+      </c>
+      <c r="J1905" t="s">
+        <v>2250</v>
+      </c>
+      <c r="K1905">
+        <v>642020</v>
+      </c>
+      <c r="L1905" t="s">
+        <v>2250</v>
+      </c>
+      <c r="M1905" t="s">
+        <v>2250</v>
+      </c>
+      <c r="N1905" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1906" t="s">
+        <v>2251</v>
+      </c>
+      <c r="B1906" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1906" t="str">
+        <f>VLOOKUP(B1906,Teams!$A:$B,2,FALSE)</f>
+        <v>Houston Astros</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1906">
+        <v>31583</v>
+      </c>
+      <c r="F1906" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G1906" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1906" t="s">
+        <v>2251</v>
+      </c>
+      <c r="I1906" t="s">
+        <v>2251</v>
+      </c>
+      <c r="J1906" t="s">
+        <v>2251</v>
+      </c>
+      <c r="K1906">
+        <v>805904</v>
+      </c>
+      <c r="L1906" t="s">
+        <v>2251</v>
+      </c>
+      <c r="M1906" t="s">
+        <v>2251</v>
+      </c>
+      <c r="N1906" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1908" t="e">
         <f>VLOOKUP(B1908,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1909" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1909" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1909" t="e">
         <f>VLOOKUP(B1909,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1910" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1910" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1910" t="e">
         <f>VLOOKUP(B1910,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1911" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="1911" spans="1:14" x14ac:dyDescent="0.3">
       <c r="N1911" t="e">
         <f>VLOOKUP(B1911,Teams!$A:$C,3,FALSE)</f>
         <v>#N/A</v>

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83A4E143-F9C8-48E2-91C2-C584A139A9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EFE15E-0C2A-4F8E-B42A-B52A791934C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1536" windowWidth="23232" windowHeight="7872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22870" uniqueCount="2253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22880" uniqueCount="2254">
   <si>
     <t>mlb_name</t>
   </si>
@@ -6797,6 +6797,9 @@
   </si>
   <si>
     <t>Zachary Cole</t>
+  </si>
+  <si>
+    <t>Denzer Guzman</t>
   </si>
 </sst>
 </file>
@@ -7179,9 +7182,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1911"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1883" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K1907" sqref="K1907"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1899" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K1908" sqref="K1908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20931,11 +20934,11 @@
         <v>1178</v>
       </c>
       <c r="B320" t="s">
-        <v>74</v>
+        <v>103</v>
       </c>
       <c r="C320" t="str">
         <f>VLOOKUP(B320,Teams!$A:$B,2,FALSE)</f>
-        <v>Washington Nationals</v>
+        <v>Los Angeles Angels</v>
       </c>
       <c r="D320" t="s">
         <v>16</v>
@@ -89282,6 +89285,52 @@
       </c>
       <c r="N1906" t="s">
         <v>2091</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1907" t="s">
+        <v>2253</v>
+      </c>
+      <c r="B1907" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1907" t="str">
+        <f>VLOOKUP(B1907,Teams!$A:$B,2,FALSE)</f>
+        <v>Los Angeles Angels</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1907">
+        <v>28816</v>
+      </c>
+      <c r="F1907" t="s">
+        <v>2253</v>
+      </c>
+      <c r="G1907" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1907" t="s">
+        <v>2253</v>
+      </c>
+      <c r="I1907" t="s">
+        <v>2253</v>
+      </c>
+      <c r="J1907" t="s">
+        <v>2253</v>
+      </c>
+      <c r="K1907">
+        <v>694203</v>
+      </c>
+      <c r="L1907" t="s">
+        <v>2253</v>
+      </c>
+      <c r="M1907" t="s">
+        <v>2253</v>
+      </c>
+      <c r="N1907" t="str">
+        <f>VLOOKUP(B1907,Teams!$A:$C,3,FALSE)</f>
+        <v>Los Angeles</v>
       </c>
     </row>
     <row r="1908" spans="1:14" x14ac:dyDescent="0.3">

--- a/assets/My_Hitter_Listing.xlsx
+++ b/assets/My_Hitter_Listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29307"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29322"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shawn\Python\dash\dashenv\github\matchup\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89EFE15E-0C2A-4F8E-B42A-B52A791934C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27F030B-D104-4656-8138-95FC50105581}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1536" windowWidth="23232" windowHeight="7872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22880" uniqueCount="2254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22881" uniqueCount="2254">
   <si>
     <t>mlb_name</t>
   </si>
@@ -89328,15 +89328,8 @@
       <c r="M1907" t="s">
         <v>2253</v>
       </c>
-      <c r="N1907" t="str">
-        <f>VLOOKUP(B1907,Teams!$A:$C,3,FALSE)</f>
-        <v>Los Angeles</v>
-      </c>
-    </row>
-    <row r="1908" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N1908" t="e">
-        <f>VLOOKUP(B1908,Teams!$A:$C,3,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N1907" t="s">
+        <v>2108</v>
       </c>
     </row>
     <row r="1909" spans="1:14" x14ac:dyDescent="0.3">
